--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F5C240-7B94-4B62-BEFB-1A21B12B7B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE715AD5-108D-42EB-B396-90C7DB80F60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10903,81 +10903,79 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>479</v>
+        <v>44</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>19</v>
@@ -10987,160 +10985,162 @@
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>488</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>489</v>
+        <v>15</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>486</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>67</v>
+        <v>491</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>68</v>
+        <v>493</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="10" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -11176,7 +11176,7 @@
         <v>70</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>70</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE715AD5-108D-42EB-B396-90C7DB80F60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B74139F-D2D7-40B2-85DE-0A8F1E332021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10815,7 +10815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10923,47 +10925,47 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
-        <v>477</v>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>478</v>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -10991,13 +10993,13 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>19</v>
@@ -11007,195 +11009,195 @@
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>485</v>
+      <c r="F19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
-        <v>487</v>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>489</v>
+        <v>16</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>492</v>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10" t="s">
-        <v>492</v>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
-        <v>494</v>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>69</v>
+        <v>488</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>70</v>
+        <v>489</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>19</v>
@@ -11205,203 +11207,197 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="E30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6" t="s">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8" t="s">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8" t="s">
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>502</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>19</v>
@@ -11410,46 +11406,46 @@
         <v>502</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>502</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>19</v>
@@ -11458,244 +11454,250 @@
         <v>502</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>502</v>
       </c>
       <c r="G38" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H41" s="13" t="s">
         <v>1499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
-        <v>156</v>
+        <v>525</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>233</v>
+        <v>526</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>233</v>
+      <c r="F42" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>19</v>
@@ -11705,205 +11707,205 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>548</v>
+      <c r="F50" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="C54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8" t="s">
+      <c r="G54" s="8"/>
+      <c r="H54" s="8" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="C55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="7" t="s">
+      <c r="E55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6" t="s">
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>176</v>
+        <v>553</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>176</v>
+        <v>553</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projects\fhir-obs-viewer\src\conf\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B74139F-D2D7-40B2-85DE-0A8F1E332021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA16002B-A3AE-443E-A239-FCA38C43380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12211,7 +12211,7 @@
         <v>572</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>168</v>
@@ -12233,7 +12233,7 @@
         <v>574</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>168</v>
@@ -12255,7 +12255,7 @@
         <v>576</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>168</v>
@@ -12277,7 +12277,7 @@
         <v>578</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>168</v>
@@ -12321,7 +12321,7 @@
         <v>582</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>168</v>
@@ -12343,7 +12343,7 @@
         <v>584</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>168</v>
@@ -12387,7 +12387,7 @@
         <v>588</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>40</v>
@@ -12409,7 +12409,7 @@
         <v>590</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>272</v>
@@ -12475,7 +12475,7 @@
         <v>597</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>168</v>
@@ -12497,7 +12497,7 @@
         <v>599</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>168</v>
@@ -12541,7 +12541,7 @@
         <v>603</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>40</v>
@@ -12563,7 +12563,7 @@
         <v>605</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>272</v>
@@ -13331,7 +13331,7 @@
         <v>659</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>40</v>
@@ -13353,7 +13353,7 @@
         <v>661</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>23</v>
@@ -13375,7 +13375,7 @@
         <v>663</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>272</v>
@@ -13397,7 +13397,7 @@
         <v>665</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>26</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -31342,69 +31342,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>__EMPTY</v>
-      </c>
-      <c r="B1" t="str">
         <v>Legend</v>
       </c>
-      <c r="C1" t="str">
-        <v>__EMPTY_1</v>
-      </c>
-      <c r="D1" t="str">
-        <v>__EMPTY_2</v>
-      </c>
-      <c r="E1" t="str">
-        <v>__EMPTY_3</v>
-      </c>
-      <c r="F1" t="str">
-        <v>__EMPTY_4</v>
-      </c>
-      <c r="G1" t="str">
-        <v>__EMPTY_5</v>
-      </c>
-      <c r="H1" t="str">
-        <v>__EMPTY_6</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="B2" t="str">
         <v>- additional custom columns or custom search parameters</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="B3" t="str">
         <v>- columns with data on the FHIR server</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="B4" t="str">
         <v>- columns without data on the FHIR server</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="B5" t="str">
         <v>- unsupported type of column</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="str">
+      <c r="A6" t="str">
         <v>List of resources that only exist on LForms server.</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>---SERVICE BASE URL:</v>
+      </c>
+      <c r="B7" t="str">
         <v>https://lforms-fhir.nlm.nih.gov/baseR4</v>
-      </c>
-      <c r="B7" t="str">
-        <v>---SERVICE BASE URL:</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>Resource type</v>
+      </c>
+      <c r="B8" t="str">
         <v>FHIR name</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Resource type</v>
       </c>
       <c r="C8" t="str">
         <v>Type (column/search parameter)</v>
@@ -31426,12 +31405,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="str">
+      <c r="A9" t="str">
         <v>Condition</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="B10" t="str">
         <v>abatement-age</v>
       </c>
       <c r="C10" t="str">
@@ -31441,7 +31420,7 @@
         <v>abatement-age</v>
       </c>
       <c r="E10" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F10" t="str">
         <v>Age</v>
@@ -31451,7 +31430,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="B11" t="str">
         <v>abatement-date</v>
       </c>
       <c r="C11" t="str">
@@ -31461,7 +31440,7 @@
         <v>abatement-date</v>
       </c>
       <c r="E11" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F11" t="str">
         <v>dateTime</v>
@@ -31471,7 +31450,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="B12" t="str">
         <v>abatement-string</v>
       </c>
       <c r="C12" t="str">
@@ -31481,7 +31460,7 @@
         <v>abatement-string</v>
       </c>
       <c r="E12" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F12" t="str">
         <v>string</v>
@@ -31491,7 +31470,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="B13" t="str">
         <v>abatement[x]</v>
       </c>
       <c r="C13" t="str">
@@ -31511,7 +31490,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="B14" t="str">
         <v>asserter</v>
       </c>
       <c r="C14" t="str">
@@ -31521,7 +31500,7 @@
         <v>asserter</v>
       </c>
       <c r="E14" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F14" t="str">
         <v>reference</v>
@@ -31531,7 +31510,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="B15" t="str">
         <v>asserter</v>
       </c>
       <c r="C15" t="str">
@@ -31551,7 +31530,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="B16" t="str">
         <v>body-site</v>
       </c>
       <c r="C16" t="str">
@@ -31561,7 +31540,7 @@
         <v>body-site</v>
       </c>
       <c r="E16" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F16" t="str">
         <v>CodeableConcept</v>
@@ -31571,7 +31550,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="B17" t="str">
         <v>bodySite</v>
       </c>
       <c r="C17" t="str">
@@ -31591,7 +31570,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="B18" t="str">
         <v>category</v>
       </c>
       <c r="C18" t="str">
@@ -31611,7 +31590,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="B19" t="str">
         <v>category</v>
       </c>
       <c r="C19" t="str">
@@ -31621,7 +31600,7 @@
         <v>category</v>
       </c>
       <c r="E19" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F19" t="str">
         <v>CodeableConcept</v>
@@ -31631,7 +31610,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="B20" t="str">
         <v>clinical-status</v>
       </c>
       <c r="C20" t="str">
@@ -31641,7 +31620,7 @@
         <v>clinical-status</v>
       </c>
       <c r="E20" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F20" t="str">
         <v>CodeableConcept</v>
@@ -31651,7 +31630,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
+      <c r="B21" t="str">
         <v>clinicalStatus</v>
       </c>
       <c r="C21" t="str">
@@ -31671,7 +31650,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
+      <c r="B22" t="str">
         <v>code</v>
       </c>
       <c r="C22" t="str">
@@ -31691,7 +31670,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
+      <c r="B23" t="str">
         <v>code</v>
       </c>
       <c r="C23" t="str">
@@ -31701,7 +31680,7 @@
         <v>code</v>
       </c>
       <c r="E23" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F23" t="str">
         <v>CodeableConcept</v>
@@ -31711,7 +31690,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
+      <c r="B24" t="str">
         <v>encounter</v>
       </c>
       <c r="C24" t="str">
@@ -31731,7 +31710,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
+      <c r="B25" t="str">
         <v>encounter</v>
       </c>
       <c r="C25" t="str">
@@ -31741,7 +31720,7 @@
         <v>encounter</v>
       </c>
       <c r="E25" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F25" t="str">
         <v>reference</v>
@@ -31751,7 +31730,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
+      <c r="B26" t="str">
         <v>evidence</v>
       </c>
       <c r="C26" t="str">
@@ -31761,7 +31740,7 @@
         <v>evidence</v>
       </c>
       <c r="E26" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F26" t="str">
         <v>CodeableConcept</v>
@@ -31771,7 +31750,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
+      <c r="B27" t="str">
         <v>evidence</v>
       </c>
       <c r="C27" t="str">
@@ -31791,7 +31770,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
+      <c r="B28" t="str">
         <v>evidence-detail</v>
       </c>
       <c r="C28" t="str">
@@ -31801,7 +31780,7 @@
         <v>evidence-detail</v>
       </c>
       <c r="E28" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F28" t="str">
         <v>reference</v>
@@ -31811,7 +31790,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
+      <c r="B29" t="str">
         <v>id</v>
       </c>
       <c r="C29" t="str">
@@ -31828,7 +31807,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
+      <c r="B30" t="str">
         <v>identifier</v>
       </c>
       <c r="C30" t="str">
@@ -31838,7 +31817,7 @@
         <v>identifier</v>
       </c>
       <c r="E30" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F30" t="str">
         <v>Identifier</v>
@@ -31848,7 +31827,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
+      <c r="B31" t="str">
         <v>identifier</v>
       </c>
       <c r="C31" t="str">
@@ -31868,7 +31847,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
+      <c r="B32" t="str">
         <v>note</v>
       </c>
       <c r="C32" t="str">
@@ -31888,7 +31867,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
+      <c r="B33" t="str">
         <v>onset-age</v>
       </c>
       <c r="C33" t="str">
@@ -31898,7 +31877,7 @@
         <v>onset-age</v>
       </c>
       <c r="E33" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F33" t="str">
         <v>Age</v>
@@ -31908,7 +31887,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
+      <c r="B34" t="str">
         <v>onset-date</v>
       </c>
       <c r="C34" t="str">
@@ -31918,7 +31897,7 @@
         <v>onset-date</v>
       </c>
       <c r="E34" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F34" t="str">
         <v>dateTime</v>
@@ -31928,7 +31907,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
+      <c r="B35" t="str">
         <v>onset-info</v>
       </c>
       <c r="C35" t="str">
@@ -31938,7 +31917,7 @@
         <v>onset-info</v>
       </c>
       <c r="E35" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F35" t="str">
         <v>string</v>
@@ -31948,7 +31927,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
+      <c r="B36" t="str">
         <v>onset[x]</v>
       </c>
       <c r="C36" t="str">
@@ -31968,7 +31947,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
+      <c r="B37" t="str">
         <v>patient</v>
       </c>
       <c r="C37" t="str">
@@ -31978,7 +31957,7 @@
         <v>patient</v>
       </c>
       <c r="E37" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F37" t="str">
         <v>Patient</v>
@@ -31988,7 +31967,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
+      <c r="B38" t="str">
         <v>recorded-date</v>
       </c>
       <c r="C38" t="str">
@@ -31998,7 +31977,7 @@
         <v>recorded-date</v>
       </c>
       <c r="E38" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F38" t="str">
         <v>date</v>
@@ -32008,7 +31987,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
+      <c r="B39" t="str">
         <v>recordedDate</v>
       </c>
       <c r="C39" t="str">
@@ -32028,7 +32007,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
+      <c r="B40" t="str">
         <v>recorder</v>
       </c>
       <c r="C40" t="str">
@@ -32048,7 +32027,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
+      <c r="B41" t="str">
         <v>severity</v>
       </c>
       <c r="C41" t="str">
@@ -32068,7 +32047,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
+      <c r="B42" t="str">
         <v>severity</v>
       </c>
       <c r="C42" t="str">
@@ -32078,7 +32057,7 @@
         <v>severity</v>
       </c>
       <c r="E42" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F42" t="str">
         <v>CodeableConcept</v>
@@ -32088,7 +32067,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
+      <c r="B43" t="str">
         <v>stage</v>
       </c>
       <c r="C43" t="str">
@@ -32108,7 +32087,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
+      <c r="B44" t="str">
         <v>stage</v>
       </c>
       <c r="C44" t="str">
@@ -32118,7 +32097,7 @@
         <v>stage</v>
       </c>
       <c r="E44" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F44" t="str">
         <v>CodeableConcept</v>
@@ -32128,7 +32107,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
+      <c r="B45" t="str">
         <v>subject</v>
       </c>
       <c r="C45" t="str">
@@ -32148,7 +32127,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
+      <c r="B46" t="str">
         <v>subject</v>
       </c>
       <c r="C46" t="str">
@@ -32158,7 +32137,7 @@
         <v>subject</v>
       </c>
       <c r="E46" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F46" t="str">
         <v>reference</v>
@@ -32168,7 +32147,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
+      <c r="B47" t="str">
         <v>verification-status</v>
       </c>
       <c r="C47" t="str">
@@ -32178,7 +32157,7 @@
         <v>verification-status</v>
       </c>
       <c r="E47" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F47" t="str">
         <v>CodeableConcept</v>
@@ -32188,7 +32167,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
+      <c r="B48" t="str">
         <v>verificationStatus</v>
       </c>
       <c r="C48" t="str">
@@ -32208,12 +32187,12 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="str">
+      <c r="A49" t="str">
         <v>DocumentReference</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
+      <c r="B50" t="str">
         <v>authenticator</v>
       </c>
       <c r="C50" t="str">
@@ -32223,7 +32202,7 @@
         <v>authenticator</v>
       </c>
       <c r="E50" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F50" t="str">
         <v>reference</v>
@@ -32233,7 +32212,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
+      <c r="B51" t="str">
         <v>authenticator</v>
       </c>
       <c r="C51" t="str">
@@ -32253,7 +32232,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
+      <c r="B52" t="str">
         <v>author</v>
       </c>
       <c r="C52" t="str">
@@ -32263,7 +32242,7 @@
         <v>author</v>
       </c>
       <c r="E52" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F52" t="str">
         <v>reference</v>
@@ -32273,7 +32252,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
+      <c r="B53" t="str">
         <v>author</v>
       </c>
       <c r="C53" t="str">
@@ -32293,7 +32272,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
+      <c r="B54" t="str">
         <v>category</v>
       </c>
       <c r="C54" t="str">
@@ -32303,7 +32282,7 @@
         <v>category</v>
       </c>
       <c r="E54" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F54" t="str">
         <v>CodeableConcept</v>
@@ -32313,7 +32292,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="B55" t="str">
         <v>category</v>
       </c>
       <c r="C55" t="str">
@@ -32333,7 +32312,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
+      <c r="B56" t="str">
         <v>content</v>
       </c>
       <c r="C56" t="str">
@@ -32353,7 +32332,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="B57" t="str">
         <v>contenttype</v>
       </c>
       <c r="C57" t="str">
@@ -32363,7 +32342,7 @@
         <v>contenttype</v>
       </c>
       <c r="E57" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F57" t="str">
         <v>code</v>
@@ -32373,7 +32352,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="B58" t="str">
         <v>context</v>
       </c>
       <c r="C58" t="str">
@@ -32393,7 +32372,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
+      <c r="B59" t="str">
         <v>custodian</v>
       </c>
       <c r="C59" t="str">
@@ -32403,7 +32382,7 @@
         <v>custodian</v>
       </c>
       <c r="E59" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F59" t="str">
         <v>reference</v>
@@ -32413,7 +32392,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="str">
+      <c r="B60" t="str">
         <v>custodian</v>
       </c>
       <c r="C60" t="str">
@@ -32433,7 +32412,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
+      <c r="B61" t="str">
         <v>date</v>
       </c>
       <c r="C61" t="str">
@@ -32443,7 +32422,7 @@
         <v>date</v>
       </c>
       <c r="E61" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F61" t="str">
         <v>date</v>
@@ -32453,7 +32432,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="str">
+      <c r="B62" t="str">
         <v>date</v>
       </c>
       <c r="C62" t="str">
@@ -32473,7 +32452,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
+      <c r="B63" t="str">
         <v>description</v>
       </c>
       <c r="C63" t="str">
@@ -32483,7 +32462,7 @@
         <v>description</v>
       </c>
       <c r="E63" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F63" t="str">
         <v>string</v>
@@ -32493,7 +32472,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
+      <c r="B64" t="str">
         <v>description</v>
       </c>
       <c r="C64" t="str">
@@ -32513,7 +32492,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="str">
+      <c r="B65" t="str">
         <v>docStatus</v>
       </c>
       <c r="C65" t="str">
@@ -32533,7 +32512,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="str">
+      <c r="B66" t="str">
         <v>encounter</v>
       </c>
       <c r="C66" t="str">
@@ -32543,7 +32522,7 @@
         <v>encounter</v>
       </c>
       <c r="E66" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F66" t="str">
         <v>reference</v>
@@ -32553,7 +32532,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="str">
+      <c r="B67" t="str">
         <v>event</v>
       </c>
       <c r="C67" t="str">
@@ -32563,7 +32542,7 @@
         <v>event</v>
       </c>
       <c r="E67" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F67" t="str">
         <v>CodeableConcept</v>
@@ -32573,7 +32552,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="str">
+      <c r="B68" t="str">
         <v>facility</v>
       </c>
       <c r="C68" t="str">
@@ -32583,7 +32562,7 @@
         <v>facility</v>
       </c>
       <c r="E68" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F68" t="str">
         <v>CodeableConcept</v>
@@ -32593,7 +32572,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="str">
+      <c r="B69" t="str">
         <v>format</v>
       </c>
       <c r="C69" t="str">
@@ -32603,7 +32582,7 @@
         <v>format</v>
       </c>
       <c r="E69" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F69" t="str">
         <v>Coding</v>
@@ -32613,7 +32592,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="str">
+      <c r="B70" t="str">
         <v>id</v>
       </c>
       <c r="C70" t="str">
@@ -32630,7 +32609,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="str">
+      <c r="B71" t="str">
         <v>identifier</v>
       </c>
       <c r="C71" t="str">
@@ -32640,7 +32619,7 @@
         <v>identifier</v>
       </c>
       <c r="E71" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F71" t="str">
         <v>Identifier</v>
@@ -32650,7 +32629,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="str">
+      <c r="B72" t="str">
         <v>identifier</v>
       </c>
       <c r="C72" t="str">
@@ -32670,7 +32649,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="str">
+      <c r="B73" t="str">
         <v>language</v>
       </c>
       <c r="C73" t="str">
@@ -32680,7 +32659,7 @@
         <v>language</v>
       </c>
       <c r="E73" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F73" t="str">
         <v>code</v>
@@ -32690,7 +32669,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="str">
+      <c r="B74" t="str">
         <v>location</v>
       </c>
       <c r="C74" t="str">
@@ -32700,7 +32679,7 @@
         <v>location</v>
       </c>
       <c r="E74" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F74" t="str">
         <v>uri</v>
@@ -32710,7 +32689,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="str">
+      <c r="B75" t="str">
         <v>masterIdentifier</v>
       </c>
       <c r="C75" t="str">
@@ -32730,7 +32709,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="str">
+      <c r="B76" t="str">
         <v>patient</v>
       </c>
       <c r="C76" t="str">
@@ -32740,7 +32719,7 @@
         <v>patient</v>
       </c>
       <c r="E76" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F76" t="str">
         <v>Patient</v>
@@ -32750,7 +32729,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="str">
+      <c r="B77" t="str">
         <v>period</v>
       </c>
       <c r="C77" t="str">
@@ -32760,7 +32739,7 @@
         <v>period</v>
       </c>
       <c r="E77" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F77" t="str">
         <v>date</v>
@@ -32770,7 +32749,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="str">
+      <c r="B78" t="str">
         <v>related</v>
       </c>
       <c r="C78" t="str">
@@ -32780,7 +32759,7 @@
         <v>related</v>
       </c>
       <c r="E78" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F78" t="str">
         <v>reference</v>
@@ -32790,7 +32769,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="str">
+      <c r="B79" t="str">
         <v>relatesto</v>
       </c>
       <c r="C79" t="str">
@@ -32800,7 +32779,7 @@
         <v>relatesto</v>
       </c>
       <c r="E79" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F79" t="str">
         <v>reference</v>
@@ -32810,7 +32789,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="str">
+      <c r="B80" t="str">
         <v>relatesTo</v>
       </c>
       <c r="C80" t="str">
@@ -32830,7 +32809,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="str">
+      <c r="B81" t="str">
         <v>relation</v>
       </c>
       <c r="C81" t="str">
@@ -32840,7 +32819,7 @@
         <v>relation</v>
       </c>
       <c r="E81" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F81" t="str">
         <v>code</v>
@@ -32850,7 +32829,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="str">
+      <c r="B82" t="str">
         <v>relationship</v>
       </c>
       <c r="C82" t="str">
@@ -32860,7 +32839,7 @@
         <v>relationship</v>
       </c>
       <c r="E82" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F82" t="str">
         <v>composite</v>
@@ -32870,7 +32849,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="str">
+      <c r="B83" t="str">
         <v>security-label</v>
       </c>
       <c r="C83" t="str">
@@ -32880,7 +32859,7 @@
         <v>security-label</v>
       </c>
       <c r="E83" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F83" t="str">
         <v>CodeableConcept</v>
@@ -32890,7 +32869,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="str">
+      <c r="B84" t="str">
         <v>securityLabel</v>
       </c>
       <c r="C84" t="str">
@@ -32910,7 +32889,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="str">
+      <c r="B85" t="str">
         <v>setting</v>
       </c>
       <c r="C85" t="str">
@@ -32920,7 +32899,7 @@
         <v>setting</v>
       </c>
       <c r="E85" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F85" t="str">
         <v>CodeableConcept</v>
@@ -32930,7 +32909,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="str">
+      <c r="B86" t="str">
         <v>status</v>
       </c>
       <c r="C86" t="str">
@@ -32950,7 +32929,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="str">
+      <c r="B87" t="str">
         <v>status</v>
       </c>
       <c r="C87" t="str">
@@ -32960,7 +32939,7 @@
         <v>status</v>
       </c>
       <c r="E87" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F87" t="str">
         <v>code</v>
@@ -32970,7 +32949,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="str">
+      <c r="B88" t="str">
         <v>subject</v>
       </c>
       <c r="C88" t="str">
@@ -32990,7 +32969,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="str">
+      <c r="B89" t="str">
         <v>subject</v>
       </c>
       <c r="C89" t="str">
@@ -33000,7 +32979,7 @@
         <v>subject</v>
       </c>
       <c r="E89" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F89" t="str">
         <v>reference</v>
@@ -33010,7 +32989,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="str">
+      <c r="B90" t="str">
         <v>type</v>
       </c>
       <c r="C90" t="str">
@@ -33030,7 +33009,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="str">
+      <c r="B91" t="str">
         <v>type</v>
       </c>
       <c r="C91" t="str">
@@ -33040,7 +33019,7 @@
         <v>type</v>
       </c>
       <c r="E91" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F91" t="str">
         <v>CodeableConcept</v>
@@ -33050,12 +33029,12 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="str">
+      <c r="A92" t="str">
         <v>Encounter</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="str">
+      <c r="B93" t="str">
         <v>account</v>
       </c>
       <c r="C93" t="str">
@@ -33065,7 +33044,7 @@
         <v>account</v>
       </c>
       <c r="E93" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F93" t="str">
         <v>reference</v>
@@ -33075,7 +33054,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="str">
+      <c r="B94" t="str">
         <v>account</v>
       </c>
       <c r="C94" t="str">
@@ -33095,7 +33074,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="str">
+      <c r="B95" t="str">
         <v>appointment</v>
       </c>
       <c r="C95" t="str">
@@ -33115,7 +33094,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="str">
+      <c r="B96" t="str">
         <v>appointment</v>
       </c>
       <c r="C96" t="str">
@@ -33125,7 +33104,7 @@
         <v>appointment</v>
       </c>
       <c r="E96" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F96" t="str">
         <v>reference</v>
@@ -33135,7 +33114,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="str">
+      <c r="B97" t="str">
         <v>based-on</v>
       </c>
       <c r="C97" t="str">
@@ -33145,7 +33124,7 @@
         <v>based-on</v>
       </c>
       <c r="E97" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F97" t="str">
         <v>reference</v>
@@ -33155,7 +33134,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="str">
+      <c r="B98" t="str">
         <v>basedOn</v>
       </c>
       <c r="C98" t="str">
@@ -33175,7 +33154,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="str">
+      <c r="B99" t="str">
         <v>class</v>
       </c>
       <c r="C99" t="str">
@@ -33195,7 +33174,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="str">
+      <c r="B100" t="str">
         <v>class</v>
       </c>
       <c r="C100" t="str">
@@ -33205,7 +33184,7 @@
         <v>class</v>
       </c>
       <c r="E100" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F100" t="str">
         <v>Coding</v>
@@ -33215,7 +33194,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="str">
+      <c r="B101" t="str">
         <v>classHistory</v>
       </c>
       <c r="C101" t="str">
@@ -33235,7 +33214,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="str">
+      <c r="B102" t="str">
         <v>date</v>
       </c>
       <c r="C102" t="str">
@@ -33245,7 +33224,7 @@
         <v>date</v>
       </c>
       <c r="E102" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F102" t="str">
         <v>date</v>
@@ -33255,7 +33234,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="str">
+      <c r="B103" t="str">
         <v>diagnosis</v>
       </c>
       <c r="C103" t="str">
@@ -33265,7 +33244,7 @@
         <v>diagnosis</v>
       </c>
       <c r="E103" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F103" t="str">
         <v>reference</v>
@@ -33275,7 +33254,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="str">
+      <c r="B104" t="str">
         <v>diagnosis</v>
       </c>
       <c r="C104" t="str">
@@ -33295,7 +33274,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="str">
+      <c r="B105" t="str">
         <v>episode-of-care</v>
       </c>
       <c r="C105" t="str">
@@ -33305,7 +33284,7 @@
         <v>episode-of-care</v>
       </c>
       <c r="E105" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F105" t="str">
         <v>reference</v>
@@ -33315,7 +33294,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="str">
+      <c r="B106" t="str">
         <v>episodeOfCare</v>
       </c>
       <c r="C106" t="str">
@@ -33335,7 +33314,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="str">
+      <c r="B107" t="str">
         <v>hospitalization</v>
       </c>
       <c r="C107" t="str">
@@ -33355,7 +33334,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="str">
+      <c r="B108" t="str">
         <v>id</v>
       </c>
       <c r="C108" t="str">
@@ -33372,7 +33351,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="str">
+      <c r="B109" t="str">
         <v>identifier</v>
       </c>
       <c r="C109" t="str">
@@ -33382,7 +33361,7 @@
         <v>identifier</v>
       </c>
       <c r="E109" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F109" t="str">
         <v>Identifier</v>
@@ -33392,7 +33371,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="str">
+      <c r="B110" t="str">
         <v>identifier</v>
       </c>
       <c r="C110" t="str">
@@ -33412,7 +33391,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="str">
+      <c r="B111" t="str">
         <v>length</v>
       </c>
       <c r="C111" t="str">
@@ -33432,7 +33411,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="str">
+      <c r="B112" t="str">
         <v>length</v>
       </c>
       <c r="C112" t="str">
@@ -33442,7 +33421,7 @@
         <v>length</v>
       </c>
       <c r="E112" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F112" t="str">
         <v>quantity</v>
@@ -33452,7 +33431,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="str">
+      <c r="B113" t="str">
         <v>location</v>
       </c>
       <c r="C113" t="str">
@@ -33472,7 +33451,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="str">
+      <c r="B114" t="str">
         <v>location</v>
       </c>
       <c r="C114" t="str">
@@ -33482,7 +33461,7 @@
         <v>location</v>
       </c>
       <c r="E114" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F114" t="str">
         <v>reference</v>
@@ -33492,7 +33471,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="str">
+      <c r="B115" t="str">
         <v>location-period</v>
       </c>
       <c r="C115" t="str">
@@ -33502,7 +33481,7 @@
         <v>location-period</v>
       </c>
       <c r="E115" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F115" t="str">
         <v>date</v>
@@ -33512,7 +33491,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="str">
+      <c r="B116" t="str">
         <v>part-of</v>
       </c>
       <c r="C116" t="str">
@@ -33522,7 +33501,7 @@
         <v>part-of</v>
       </c>
       <c r="E116" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F116" t="str">
         <v>reference</v>
@@ -33532,7 +33511,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="str">
+      <c r="B117" t="str">
         <v>participant</v>
       </c>
       <c r="C117" t="str">
@@ -33552,7 +33531,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="str">
+      <c r="B118" t="str">
         <v>participant</v>
       </c>
       <c r="C118" t="str">
@@ -33562,7 +33541,7 @@
         <v>participant</v>
       </c>
       <c r="E118" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F118" t="str">
         <v>reference</v>
@@ -33572,7 +33551,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="str">
+      <c r="B119" t="str">
         <v>participant-type</v>
       </c>
       <c r="C119" t="str">
@@ -33582,7 +33561,7 @@
         <v>participant-type</v>
       </c>
       <c r="E119" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F119" t="str">
         <v>CodeableConcept</v>
@@ -33592,7 +33571,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="str">
+      <c r="B120" t="str">
         <v>partOf</v>
       </c>
       <c r="C120" t="str">
@@ -33612,7 +33591,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="str">
+      <c r="B121" t="str">
         <v>patient</v>
       </c>
       <c r="C121" t="str">
@@ -33622,7 +33601,7 @@
         <v>patient</v>
       </c>
       <c r="E121" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F121" t="str">
         <v>Patient</v>
@@ -33632,7 +33611,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="str">
+      <c r="B122" t="str">
         <v>period</v>
       </c>
       <c r="C122" t="str">
@@ -33652,7 +33631,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="str">
+      <c r="B123" t="str">
         <v>practitioner</v>
       </c>
       <c r="C123" t="str">
@@ -33662,7 +33641,7 @@
         <v>practitioner</v>
       </c>
       <c r="E123" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F123" t="str">
         <v>Practitioner</v>
@@ -33672,7 +33651,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="str">
+      <c r="B124" t="str">
         <v>priority</v>
       </c>
       <c r="C124" t="str">
@@ -33692,7 +33671,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="str">
+      <c r="B125" t="str">
         <v>reason-code</v>
       </c>
       <c r="C125" t="str">
@@ -33702,7 +33681,7 @@
         <v>reason-code</v>
       </c>
       <c r="E125" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F125" t="str">
         <v>CodeableConcept</v>
@@ -33712,7 +33691,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="str">
+      <c r="B126" t="str">
         <v>reason-reference</v>
       </c>
       <c r="C126" t="str">
@@ -33722,7 +33701,7 @@
         <v>reason-reference</v>
       </c>
       <c r="E126" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F126" t="str">
         <v>reference</v>
@@ -33732,7 +33711,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="str">
+      <c r="B127" t="str">
         <v>reasonCode</v>
       </c>
       <c r="C127" t="str">
@@ -33752,7 +33731,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="str">
+      <c r="B128" t="str">
         <v>reasonReference</v>
       </c>
       <c r="C128" t="str">
@@ -33772,7 +33751,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="str">
+      <c r="B129" t="str">
         <v>service-provider</v>
       </c>
       <c r="C129" t="str">
@@ -33782,7 +33761,7 @@
         <v>service-provider</v>
       </c>
       <c r="E129" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F129" t="str">
         <v>reference</v>
@@ -33792,7 +33771,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="str">
+      <c r="B130" t="str">
         <v>serviceProvider</v>
       </c>
       <c r="C130" t="str">
@@ -33812,7 +33791,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="str">
+      <c r="B131" t="str">
         <v>serviceType</v>
       </c>
       <c r="C131" t="str">
@@ -33832,7 +33811,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="str">
+      <c r="B132" t="str">
         <v>special-arrangement</v>
       </c>
       <c r="C132" t="str">
@@ -33842,7 +33821,7 @@
         <v>special-arrangement</v>
       </c>
       <c r="E132" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F132" t="str">
         <v>CodeableConcept</v>
@@ -33852,7 +33831,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="str">
+      <c r="B133" t="str">
         <v>status</v>
       </c>
       <c r="C133" t="str">
@@ -33862,7 +33841,7 @@
         <v>status</v>
       </c>
       <c r="E133" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F133" t="str">
         <v>code</v>
@@ -33872,7 +33851,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="str">
+      <c r="B134" t="str">
         <v>status</v>
       </c>
       <c r="C134" t="str">
@@ -33892,7 +33871,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="str">
+      <c r="B135" t="str">
         <v>statusHistory</v>
       </c>
       <c r="C135" t="str">
@@ -33912,7 +33891,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="str">
+      <c r="B136" t="str">
         <v>subject</v>
       </c>
       <c r="C136" t="str">
@@ -33932,7 +33911,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="str">
+      <c r="B137" t="str">
         <v>subject</v>
       </c>
       <c r="C137" t="str">
@@ -33942,7 +33921,7 @@
         <v>subject</v>
       </c>
       <c r="E137" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F137" t="str">
         <v>reference</v>
@@ -33952,7 +33931,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="str">
+      <c r="B138" t="str">
         <v>type</v>
       </c>
       <c r="C138" t="str">
@@ -33972,7 +33951,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="str">
+      <c r="B139" t="str">
         <v>type</v>
       </c>
       <c r="C139" t="str">
@@ -33982,7 +33961,7 @@
         <v>type</v>
       </c>
       <c r="E139" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F139" t="str">
         <v>CodeableConcept</v>
@@ -33992,12 +33971,12 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="str">
+      <c r="A140" t="str">
         <v>MedicationDispense</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="str">
+      <c r="B141" t="str">
         <v>authorizingPrescription</v>
       </c>
       <c r="C141" t="str">
@@ -34017,7 +33996,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="str">
+      <c r="B142" t="str">
         <v>category</v>
       </c>
       <c r="C142" t="str">
@@ -34037,7 +34016,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="str">
+      <c r="B143" t="str">
         <v>code</v>
       </c>
       <c r="C143" t="str">
@@ -34047,7 +34026,7 @@
         <v>code</v>
       </c>
       <c r="E143" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F143" t="str">
         <v>CodeableConcept</v>
@@ -34057,7 +34036,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="str">
+      <c r="B144" t="str">
         <v>context</v>
       </c>
       <c r="C144" t="str">
@@ -34067,7 +34046,7 @@
         <v>context</v>
       </c>
       <c r="E144" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F144" t="str">
         <v>reference</v>
@@ -34077,7 +34056,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="str">
+      <c r="B145" t="str">
         <v>context</v>
       </c>
       <c r="C145" t="str">
@@ -34097,7 +34076,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="str">
+      <c r="B146" t="str">
         <v>daysSupply</v>
       </c>
       <c r="C146" t="str">
@@ -34117,7 +34096,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="str">
+      <c r="B147" t="str">
         <v>destination</v>
       </c>
       <c r="C147" t="str">
@@ -34137,7 +34116,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="str">
+      <c r="B148" t="str">
         <v>destination</v>
       </c>
       <c r="C148" t="str">
@@ -34147,7 +34126,7 @@
         <v>destination</v>
       </c>
       <c r="E148" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F148" t="str">
         <v>reference</v>
@@ -34157,7 +34136,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="str">
+      <c r="B149" t="str">
         <v>detectedIssue</v>
       </c>
       <c r="C149" t="str">
@@ -34177,7 +34156,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="str">
+      <c r="B150" t="str">
         <v>dosageInstruction</v>
       </c>
       <c r="C150" t="str">
@@ -34197,7 +34176,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="str">
+      <c r="B151" t="str">
         <v>eventHistory</v>
       </c>
       <c r="C151" t="str">
@@ -34217,7 +34196,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="str">
+      <c r="B152" t="str">
         <v>id</v>
       </c>
       <c r="C152" t="str">
@@ -34234,7 +34213,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="str">
+      <c r="B153" t="str">
         <v>identifier</v>
       </c>
       <c r="C153" t="str">
@@ -34244,7 +34223,7 @@
         <v>identifier</v>
       </c>
       <c r="E153" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F153" t="str">
         <v>Identifier</v>
@@ -34254,7 +34233,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="str">
+      <c r="B154" t="str">
         <v>identifier</v>
       </c>
       <c r="C154" t="str">
@@ -34274,7 +34253,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="str">
+      <c r="B155" t="str">
         <v>location</v>
       </c>
       <c r="C155" t="str">
@@ -34294,7 +34273,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="str">
+      <c r="B156" t="str">
         <v>medication</v>
       </c>
       <c r="C156" t="str">
@@ -34304,7 +34283,7 @@
         <v>medication</v>
       </c>
       <c r="E156" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F156" t="str">
         <v>Reference</v>
@@ -34314,7 +34293,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="str">
+      <c r="B157" t="str">
         <v>medication[x]</v>
       </c>
       <c r="C157" t="str">
@@ -34334,7 +34313,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="str">
+      <c r="B158" t="str">
         <v>note</v>
       </c>
       <c r="C158" t="str">
@@ -34354,7 +34333,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="str">
+      <c r="B159" t="str">
         <v>partOf</v>
       </c>
       <c r="C159" t="str">
@@ -34374,7 +34353,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="str">
+      <c r="B160" t="str">
         <v>patient</v>
       </c>
       <c r="C160" t="str">
@@ -34384,7 +34363,7 @@
         <v>patient</v>
       </c>
       <c r="E160" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F160" t="str">
         <v>Patient</v>
@@ -34394,7 +34373,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="str">
+      <c r="B161" t="str">
         <v>performer</v>
       </c>
       <c r="C161" t="str">
@@ -34414,7 +34393,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="str">
+      <c r="B162" t="str">
         <v>performer</v>
       </c>
       <c r="C162" t="str">
@@ -34424,7 +34403,7 @@
         <v>performer</v>
       </c>
       <c r="E162" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F162" t="str">
         <v>reference</v>
@@ -34434,7 +34413,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="str">
+      <c r="B163" t="str">
         <v>prescription</v>
       </c>
       <c r="C163" t="str">
@@ -34444,7 +34423,7 @@
         <v>prescription</v>
       </c>
       <c r="E163" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F163" t="str">
         <v>reference</v>
@@ -34454,7 +34433,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="str">
+      <c r="B164" t="str">
         <v>quantity</v>
       </c>
       <c r="C164" t="str">
@@ -34474,7 +34453,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="str">
+      <c r="B165" t="str">
         <v>receiver</v>
       </c>
       <c r="C165" t="str">
@@ -34484,7 +34463,7 @@
         <v>receiver</v>
       </c>
       <c r="E165" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F165" t="str">
         <v>reference</v>
@@ -34494,7 +34473,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="str">
+      <c r="B166" t="str">
         <v>receiver</v>
       </c>
       <c r="C166" t="str">
@@ -34514,7 +34493,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="str">
+      <c r="B167" t="str">
         <v>responsibleparty</v>
       </c>
       <c r="C167" t="str">
@@ -34524,7 +34503,7 @@
         <v>responsibleparty</v>
       </c>
       <c r="E167" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F167" t="str">
         <v>reference</v>
@@ -34534,7 +34513,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="str">
+      <c r="B168" t="str">
         <v>status</v>
       </c>
       <c r="C168" t="str">
@@ -34544,7 +34523,7 @@
         <v>status</v>
       </c>
       <c r="E168" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F168" t="str">
         <v>code</v>
@@ -34554,7 +34533,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="str">
+      <c r="B169" t="str">
         <v>status</v>
       </c>
       <c r="C169" t="str">
@@ -34574,7 +34553,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="str">
+      <c r="B170" t="str">
         <v>statusReason[x]</v>
       </c>
       <c r="C170" t="str">
@@ -34594,7 +34573,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="str">
+      <c r="B171" t="str">
         <v>subject</v>
       </c>
       <c r="C171" t="str">
@@ -34614,7 +34593,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="str">
+      <c r="B172" t="str">
         <v>subject</v>
       </c>
       <c r="C172" t="str">
@@ -34624,7 +34603,7 @@
         <v>subject</v>
       </c>
       <c r="E172" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F172" t="str">
         <v>reference</v>
@@ -34634,7 +34613,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="str">
+      <c r="B173" t="str">
         <v>substitution</v>
       </c>
       <c r="C173" t="str">
@@ -34654,7 +34633,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="str">
+      <c r="B174" t="str">
         <v>supportingInformation</v>
       </c>
       <c r="C174" t="str">
@@ -34674,7 +34653,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="str">
+      <c r="B175" t="str">
         <v>type</v>
       </c>
       <c r="C175" t="str">
@@ -34694,7 +34673,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="str">
+      <c r="B176" t="str">
         <v>type</v>
       </c>
       <c r="C176" t="str">
@@ -34704,7 +34683,7 @@
         <v>type</v>
       </c>
       <c r="E176" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F176" t="str">
         <v>CodeableConcept</v>
@@ -34714,7 +34693,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="str">
+      <c r="B177" t="str">
         <v>whenhandedover</v>
       </c>
       <c r="C177" t="str">
@@ -34724,7 +34703,7 @@
         <v>whenhandedover</v>
       </c>
       <c r="E177" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F177" t="str">
         <v>date</v>
@@ -34734,7 +34713,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="str">
+      <c r="B178" t="str">
         <v>whenHandedOver</v>
       </c>
       <c r="C178" t="str">
@@ -34754,7 +34733,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="str">
+      <c r="B179" t="str">
         <v>whenprepared</v>
       </c>
       <c r="C179" t="str">
@@ -34764,7 +34743,7 @@
         <v>whenprepared</v>
       </c>
       <c r="E179" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F179" t="str">
         <v>date</v>
@@ -34774,7 +34753,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="str">
+      <c r="B180" t="str">
         <v>whenPrepared</v>
       </c>
       <c r="C180" t="str">
@@ -34794,12 +34773,12 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="str">
+      <c r="A181" t="str">
         <v>MedicationRequest</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="str">
+      <c r="B182" t="str">
         <v>authoredon</v>
       </c>
       <c r="C182" t="str">
@@ -34809,7 +34788,7 @@
         <v>authoredon</v>
       </c>
       <c r="E182" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F182" t="str">
         <v>date</v>
@@ -34819,7 +34798,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="str">
+      <c r="B183" t="str">
         <v>authoredOn</v>
       </c>
       <c r="C183" t="str">
@@ -34839,7 +34818,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="str">
+      <c r="B184" t="str">
         <v>basedOn</v>
       </c>
       <c r="C184" t="str">
@@ -34859,7 +34838,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="str">
+      <c r="B185" t="str">
         <v>category</v>
       </c>
       <c r="C185" t="str">
@@ -34879,7 +34858,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="str">
+      <c r="B186" t="str">
         <v>category</v>
       </c>
       <c r="C186" t="str">
@@ -34889,7 +34868,7 @@
         <v>category</v>
       </c>
       <c r="E186" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F186" t="str">
         <v>CodeableConcept</v>
@@ -34899,7 +34878,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="str">
+      <c r="B187" t="str">
         <v>code</v>
       </c>
       <c r="C187" t="str">
@@ -34909,7 +34888,7 @@
         <v>code</v>
       </c>
       <c r="E187" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F187" t="str">
         <v>CodeableConcept</v>
@@ -34919,7 +34898,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="str">
+      <c r="B188" t="str">
         <v>courseOfTherapyType</v>
       </c>
       <c r="C188" t="str">
@@ -34939,7 +34918,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="str">
+      <c r="B189" t="str">
         <v>date</v>
       </c>
       <c r="C189" t="str">
@@ -34949,7 +34928,7 @@
         <v>date</v>
       </c>
       <c r="E189" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F189" t="str">
         <v>date</v>
@@ -34959,7 +34938,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="str">
+      <c r="B190" t="str">
         <v>detectedIssue</v>
       </c>
       <c r="C190" t="str">
@@ -34979,7 +34958,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="str">
+      <c r="B191" t="str">
         <v>dispenseRequest</v>
       </c>
       <c r="C191" t="str">
@@ -34999,7 +34978,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="str">
+      <c r="B192" t="str">
         <v>doNotPerform</v>
       </c>
       <c r="C192" t="str">
@@ -35019,7 +34998,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="str">
+      <c r="B193" t="str">
         <v>dosageInstruction</v>
       </c>
       <c r="C193" t="str">
@@ -35039,7 +35018,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="str">
+      <c r="B194" t="str">
         <v>encounter</v>
       </c>
       <c r="C194" t="str">
@@ -35049,7 +35028,7 @@
         <v>encounter</v>
       </c>
       <c r="E194" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F194" t="str">
         <v>reference</v>
@@ -35059,7 +35038,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="str">
+      <c r="B195" t="str">
         <v>encounter</v>
       </c>
       <c r="C195" t="str">
@@ -35079,7 +35058,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="str">
+      <c r="B196" t="str">
         <v>eventHistory</v>
       </c>
       <c r="C196" t="str">
@@ -35099,7 +35078,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="str">
+      <c r="B197" t="str">
         <v>groupIdentifier</v>
       </c>
       <c r="C197" t="str">
@@ -35119,7 +35098,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="str">
+      <c r="B198" t="str">
         <v>id</v>
       </c>
       <c r="C198" t="str">
@@ -35136,7 +35115,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="str">
+      <c r="B199" t="str">
         <v>identifier</v>
       </c>
       <c r="C199" t="str">
@@ -35146,7 +35125,7 @@
         <v>identifier</v>
       </c>
       <c r="E199" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F199" t="str">
         <v>Identifier</v>
@@ -35156,7 +35135,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="str">
+      <c r="B200" t="str">
         <v>identifier</v>
       </c>
       <c r="C200" t="str">
@@ -35176,7 +35155,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="str">
+      <c r="B201" t="str">
         <v>instantiatesCanonical</v>
       </c>
       <c r="C201" t="str">
@@ -35196,7 +35175,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="str">
+      <c r="B202" t="str">
         <v>instantiatesUri</v>
       </c>
       <c r="C202" t="str">
@@ -35216,7 +35195,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="str">
+      <c r="B203" t="str">
         <v>insurance</v>
       </c>
       <c r="C203" t="str">
@@ -35236,7 +35215,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="str">
+      <c r="B204" t="str">
         <v>intended-dispenser</v>
       </c>
       <c r="C204" t="str">
@@ -35246,7 +35225,7 @@
         <v>intended-dispenser</v>
       </c>
       <c r="E204" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F204" t="str">
         <v>reference</v>
@@ -35256,7 +35235,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="str">
+      <c r="B205" t="str">
         <v>intended-performer</v>
       </c>
       <c r="C205" t="str">
@@ -35266,7 +35245,7 @@
         <v>intended-performer</v>
       </c>
       <c r="E205" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F205" t="str">
         <v>reference</v>
@@ -35276,7 +35255,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="str">
+      <c r="B206" t="str">
         <v>intended-performertype</v>
       </c>
       <c r="C206" t="str">
@@ -35286,7 +35265,7 @@
         <v>intended-performertype</v>
       </c>
       <c r="E206" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F206" t="str">
         <v>CodeableConcept</v>
@@ -35296,7 +35275,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="str">
+      <c r="B207" t="str">
         <v>intent</v>
       </c>
       <c r="C207" t="str">
@@ -35316,7 +35295,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="str">
+      <c r="B208" t="str">
         <v>intent</v>
       </c>
       <c r="C208" t="str">
@@ -35326,7 +35305,7 @@
         <v>intent</v>
       </c>
       <c r="E208" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F208" t="str">
         <v>code</v>
@@ -35336,7 +35315,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="str">
+      <c r="B209" t="str">
         <v>medication</v>
       </c>
       <c r="C209" t="str">
@@ -35346,7 +35325,7 @@
         <v>medication</v>
       </c>
       <c r="E209" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F209" t="str">
         <v>Reference</v>
@@ -35356,7 +35335,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="str">
+      <c r="B210" t="str">
         <v>medication[x]</v>
       </c>
       <c r="C210" t="str">
@@ -35376,7 +35355,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="str">
+      <c r="B211" t="str">
         <v>note</v>
       </c>
       <c r="C211" t="str">
@@ -35396,7 +35375,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="str">
+      <c r="B212" t="str">
         <v>patient</v>
       </c>
       <c r="C212" t="str">
@@ -35406,7 +35385,7 @@
         <v>patient</v>
       </c>
       <c r="E212" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F212" t="str">
         <v>Patient</v>
@@ -35416,7 +35395,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="str">
+      <c r="B213" t="str">
         <v>performer</v>
       </c>
       <c r="C213" t="str">
@@ -35436,7 +35415,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="str">
+      <c r="B214" t="str">
         <v>performerType</v>
       </c>
       <c r="C214" t="str">
@@ -35456,7 +35435,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="str">
+      <c r="B215" t="str">
         <v>priority</v>
       </c>
       <c r="C215" t="str">
@@ -35476,7 +35455,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="str">
+      <c r="B216" t="str">
         <v>priority</v>
       </c>
       <c r="C216" t="str">
@@ -35486,7 +35465,7 @@
         <v>priority</v>
       </c>
       <c r="E216" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F216" t="str">
         <v>code</v>
@@ -35496,7 +35475,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="str">
+      <c r="B217" t="str">
         <v>priorPrescription</v>
       </c>
       <c r="C217" t="str">
@@ -35516,7 +35495,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="str">
+      <c r="B218" t="str">
         <v>reasonCode</v>
       </c>
       <c r="C218" t="str">
@@ -35536,7 +35515,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="str">
+      <c r="B219" t="str">
         <v>reasonReference</v>
       </c>
       <c r="C219" t="str">
@@ -35556,7 +35535,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="str">
+      <c r="B220" t="str">
         <v>recorder</v>
       </c>
       <c r="C220" t="str">
@@ -35576,7 +35555,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="str">
+      <c r="B221" t="str">
         <v>reported[x]</v>
       </c>
       <c r="C221" t="str">
@@ -35596,7 +35575,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="str">
+      <c r="B222" t="str">
         <v>requester</v>
       </c>
       <c r="C222" t="str">
@@ -35616,7 +35595,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="str">
+      <c r="B223" t="str">
         <v>requester</v>
       </c>
       <c r="C223" t="str">
@@ -35626,7 +35605,7 @@
         <v>requester</v>
       </c>
       <c r="E223" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F223" t="str">
         <v>reference</v>
@@ -35636,7 +35615,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="str">
+      <c r="B224" t="str">
         <v>status</v>
       </c>
       <c r="C224" t="str">
@@ -35656,7 +35635,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="str">
+      <c r="B225" t="str">
         <v>status</v>
       </c>
       <c r="C225" t="str">
@@ -35666,7 +35645,7 @@
         <v>status</v>
       </c>
       <c r="E225" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F225" t="str">
         <v>code</v>
@@ -35676,7 +35655,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="str">
+      <c r="B226" t="str">
         <v>statusReason</v>
       </c>
       <c r="C226" t="str">
@@ -35696,7 +35675,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="str">
+      <c r="B227" t="str">
         <v>subject</v>
       </c>
       <c r="C227" t="str">
@@ -35716,7 +35695,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="str">
+      <c r="B228" t="str">
         <v>subject</v>
       </c>
       <c r="C228" t="str">
@@ -35726,7 +35705,7 @@
         <v>subject</v>
       </c>
       <c r="E228" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F228" t="str">
         <v>reference</v>
@@ -35736,7 +35715,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="str">
+      <c r="B229" t="str">
         <v>substitution</v>
       </c>
       <c r="C229" t="str">
@@ -35756,7 +35735,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="str">
+      <c r="B230" t="str">
         <v>supportingInformation</v>
       </c>
       <c r="C230" t="str">
@@ -35776,12 +35755,12 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="str">
+      <c r="A231" t="str">
         <v>Procedure</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="str">
+      <c r="B232" t="str">
         <v>asserter</v>
       </c>
       <c r="C232" t="str">
@@ -35801,7 +35780,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="str">
+      <c r="B233" t="str">
         <v>based-on</v>
       </c>
       <c r="C233" t="str">
@@ -35811,7 +35790,7 @@
         <v>based-on</v>
       </c>
       <c r="E233" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F233" t="str">
         <v>reference</v>
@@ -35821,7 +35800,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="str">
+      <c r="B234" t="str">
         <v>basedOn</v>
       </c>
       <c r="C234" t="str">
@@ -35841,7 +35820,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="str">
+      <c r="B235" t="str">
         <v>bodySite</v>
       </c>
       <c r="C235" t="str">
@@ -35861,7 +35840,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="str">
+      <c r="B236" t="str">
         <v>category</v>
       </c>
       <c r="C236" t="str">
@@ -35881,7 +35860,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="str">
+      <c r="B237" t="str">
         <v>category</v>
       </c>
       <c r="C237" t="str">
@@ -35891,7 +35870,7 @@
         <v>category</v>
       </c>
       <c r="E237" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F237" t="str">
         <v>CodeableConcept</v>
@@ -35901,7 +35880,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="str">
+      <c r="B238" t="str">
         <v>code</v>
       </c>
       <c r="C238" t="str">
@@ -35911,7 +35890,7 @@
         <v>code</v>
       </c>
       <c r="E238" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F238" t="str">
         <v>CodeableConcept</v>
@@ -35921,7 +35900,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="str">
+      <c r="B239" t="str">
         <v>code</v>
       </c>
       <c r="C239" t="str">
@@ -35941,7 +35920,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="str">
+      <c r="B240" t="str">
         <v>complication</v>
       </c>
       <c r="C240" t="str">
@@ -35961,7 +35940,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="str">
+      <c r="B241" t="str">
         <v>complicationDetail</v>
       </c>
       <c r="C241" t="str">
@@ -35981,7 +35960,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="str">
+      <c r="B242" t="str">
         <v>date</v>
       </c>
       <c r="C242" t="str">
@@ -35991,7 +35970,7 @@
         <v>date</v>
       </c>
       <c r="E242" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F242" t="str">
         <v>date</v>
@@ -36001,7 +35980,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="str">
+      <c r="B243" t="str">
         <v>encounter</v>
       </c>
       <c r="C243" t="str">
@@ -36011,7 +35990,7 @@
         <v>encounter</v>
       </c>
       <c r="E243" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F243" t="str">
         <v>reference</v>
@@ -36021,7 +36000,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="str">
+      <c r="B244" t="str">
         <v>encounter</v>
       </c>
       <c r="C244" t="str">
@@ -36041,7 +36020,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="str">
+      <c r="B245" t="str">
         <v>focalDevice</v>
       </c>
       <c r="C245" t="str">
@@ -36061,7 +36040,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="str">
+      <c r="B246" t="str">
         <v>followUp</v>
       </c>
       <c r="C246" t="str">
@@ -36081,7 +36060,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="str">
+      <c r="B247" t="str">
         <v>id</v>
       </c>
       <c r="C247" t="str">
@@ -36098,7 +36077,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="str">
+      <c r="B248" t="str">
         <v>identifier</v>
       </c>
       <c r="C248" t="str">
@@ -36118,7 +36097,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="str">
+      <c r="B249" t="str">
         <v>identifier</v>
       </c>
       <c r="C249" t="str">
@@ -36128,7 +36107,7 @@
         <v>identifier</v>
       </c>
       <c r="E249" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F249" t="str">
         <v>Identifier</v>
@@ -36138,7 +36117,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="str">
+      <c r="B250" t="str">
         <v>instantiates-canonical</v>
       </c>
       <c r="C250" t="str">
@@ -36148,7 +36127,7 @@
         <v>instantiates-canonical</v>
       </c>
       <c r="E250" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F250" t="str">
         <v>reference</v>
@@ -36158,7 +36137,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="str">
+      <c r="B251" t="str">
         <v>instantiates-uri</v>
       </c>
       <c r="C251" t="str">
@@ -36168,7 +36147,7 @@
         <v>instantiates-uri</v>
       </c>
       <c r="E251" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F251" t="str">
         <v>uri</v>
@@ -36178,7 +36157,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="str">
+      <c r="B252" t="str">
         <v>instantiatesCanonical</v>
       </c>
       <c r="C252" t="str">
@@ -36198,7 +36177,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="str">
+      <c r="B253" t="str">
         <v>instantiatesUri</v>
       </c>
       <c r="C253" t="str">
@@ -36218,7 +36197,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="str">
+      <c r="B254" t="str">
         <v>location</v>
       </c>
       <c r="C254" t="str">
@@ -36238,7 +36217,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="str">
+      <c r="B255" t="str">
         <v>location</v>
       </c>
       <c r="C255" t="str">
@@ -36248,7 +36227,7 @@
         <v>location</v>
       </c>
       <c r="E255" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F255" t="str">
         <v>reference</v>
@@ -36258,7 +36237,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="str">
+      <c r="B256" t="str">
         <v>note</v>
       </c>
       <c r="C256" t="str">
@@ -36278,7 +36257,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="str">
+      <c r="B257" t="str">
         <v>outcome</v>
       </c>
       <c r="C257" t="str">
@@ -36298,7 +36277,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="str">
+      <c r="B258" t="str">
         <v>part-of</v>
       </c>
       <c r="C258" t="str">
@@ -36308,7 +36287,7 @@
         <v>part-of</v>
       </c>
       <c r="E258" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F258" t="str">
         <v>reference</v>
@@ -36318,7 +36297,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="str">
+      <c r="B259" t="str">
         <v>partOf</v>
       </c>
       <c r="C259" t="str">
@@ -36338,7 +36317,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="str">
+      <c r="B260" t="str">
         <v>patient</v>
       </c>
       <c r="C260" t="str">
@@ -36348,7 +36327,7 @@
         <v>patient</v>
       </c>
       <c r="E260" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F260" t="str">
         <v>Patient</v>
@@ -36358,7 +36337,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="str">
+      <c r="B261" t="str">
         <v>performed[x]</v>
       </c>
       <c r="C261" t="str">
@@ -36378,7 +36357,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="str">
+      <c r="B262" t="str">
         <v>performer</v>
       </c>
       <c r="C262" t="str">
@@ -36398,7 +36377,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="str">
+      <c r="B263" t="str">
         <v>performer</v>
       </c>
       <c r="C263" t="str">
@@ -36408,7 +36387,7 @@
         <v>performer</v>
       </c>
       <c r="E263" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F263" t="str">
         <v>reference</v>
@@ -36418,7 +36397,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="str">
+      <c r="B264" t="str">
         <v>reason-code</v>
       </c>
       <c r="C264" t="str">
@@ -36428,7 +36407,7 @@
         <v>reason-code</v>
       </c>
       <c r="E264" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F264" t="str">
         <v>CodeableConcept</v>
@@ -36438,7 +36417,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="str">
+      <c r="B265" t="str">
         <v>reason-reference</v>
       </c>
       <c r="C265" t="str">
@@ -36448,7 +36427,7 @@
         <v>reason-reference</v>
       </c>
       <c r="E265" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F265" t="str">
         <v>reference</v>
@@ -36458,7 +36437,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="str">
+      <c r="B266" t="str">
         <v>reasonCode</v>
       </c>
       <c r="C266" t="str">
@@ -36478,7 +36457,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="str">
+      <c r="B267" t="str">
         <v>reasonReference</v>
       </c>
       <c r="C267" t="str">
@@ -36498,7 +36477,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="str">
+      <c r="B268" t="str">
         <v>recorder</v>
       </c>
       <c r="C268" t="str">
@@ -36518,7 +36497,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="str">
+      <c r="B269" t="str">
         <v>report</v>
       </c>
       <c r="C269" t="str">
@@ -36538,7 +36517,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="str">
+      <c r="B270" t="str">
         <v>status</v>
       </c>
       <c r="C270" t="str">
@@ -36548,7 +36527,7 @@
         <v>status</v>
       </c>
       <c r="E270" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F270" t="str">
         <v>code</v>
@@ -36558,7 +36537,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="str">
+      <c r="B271" t="str">
         <v>status</v>
       </c>
       <c r="C271" t="str">
@@ -36578,7 +36557,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="str">
+      <c r="B272" t="str">
         <v>statusReason</v>
       </c>
       <c r="C272" t="str">
@@ -36598,7 +36577,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="str">
+      <c r="B273" t="str">
         <v>subject</v>
       </c>
       <c r="C273" t="str">
@@ -36618,7 +36597,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="str">
+      <c r="B274" t="str">
         <v>subject</v>
       </c>
       <c r="C274" t="str">
@@ -36628,7 +36607,7 @@
         <v>subject</v>
       </c>
       <c r="E274" t="str">
-        <v>hide</v>
+        <v>show</v>
       </c>
       <c r="F274" t="str">
         <v>reference</v>
@@ -36638,7 +36617,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="str">
+      <c r="B275" t="str">
         <v>usedCode</v>
       </c>
       <c r="C275" t="str">
@@ -36658,7 +36637,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="str">
+      <c r="B276" t="str">
         <v>usedReference</v>
       </c>
       <c r="C276" t="str">

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -10453,7 +10453,7 @@
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -10581,7 +10581,7 @@
         <v>480</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -10643,7 +10643,7 @@
         <v>502</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>39</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -11610,7 +11610,7 @@
         <v>587</v>
       </c>
       <c r="E348" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F348" t="s">
         <v>27</v>
@@ -11652,7 +11652,7 @@
         <v>591</v>
       </c>
       <c r="E350" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F350" t="s">
         <v>27</v>
@@ -11672,7 +11672,7 @@
         <v>593</v>
       </c>
       <c r="E351" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F351" t="s">
         <v>27</v>
@@ -11692,7 +11692,7 @@
         <v>595</v>
       </c>
       <c r="E352" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F352" t="s">
         <v>27</v>
@@ -11712,7 +11712,7 @@
         <v>597</v>
       </c>
       <c r="E353" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F353" t="s">
         <v>27</v>
@@ -11920,7 +11920,7 @@
         <v>623</v>
       </c>
       <c r="E363" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F363" t="s">
         <v>27</v>
@@ -12024,7 +12024,7 @@
         <v>634</v>
       </c>
       <c r="E368" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F368" t="s">
         <v>27</v>
@@ -12256,7 +12256,7 @@
         <v>653</v>
       </c>
       <c r="E379" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F379" t="s">
         <v>27</v>
@@ -12793,7 +12793,7 @@
         <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
         <v>70</v>
@@ -12835,7 +12835,7 @@
         <v>698</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>40</v>
@@ -13453,7 +13453,7 @@
         <v>176</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>53</v>
@@ -13666,7 +13666,7 @@
         <v>482</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s">
         <v>168</v>
@@ -13746,7 +13746,7 @@
         <v>490</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>40</v>
@@ -14873,7 +14873,7 @@
         <v>587</v>
       </c>
       <c r="E127" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F127" t="s">
         <v>27</v>
@@ -14915,7 +14915,7 @@
         <v>591</v>
       </c>
       <c r="E129" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F129" t="s">
         <v>27</v>
@@ -14935,7 +14935,7 @@
         <v>593</v>
       </c>
       <c r="E130" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F130" t="s">
         <v>27</v>
@@ -14955,7 +14955,7 @@
         <v>595</v>
       </c>
       <c r="E131" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F131" t="s">
         <v>27</v>
@@ -14975,7 +14975,7 @@
         <v>597</v>
       </c>
       <c r="E132" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F132" t="s">
         <v>27</v>
@@ -14995,7 +14995,7 @@
         <v>599</v>
       </c>
       <c r="E133" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F133" t="s">
         <v>53</v>
@@ -15183,7 +15183,7 @@
         <v>623</v>
       </c>
       <c r="E142" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F142" t="s">
         <v>27</v>
@@ -15225,7 +15225,7 @@
         <v>625</v>
       </c>
       <c r="E144" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F144" t="s">
         <v>53</v>
@@ -15287,7 +15287,7 @@
         <v>634</v>
       </c>
       <c r="E147" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F147" t="s">
         <v>27</v>
@@ -15519,7 +15519,7 @@
         <v>653</v>
       </c>
       <c r="E158" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F158" t="s">
         <v>27</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -12645,7 +12645,7 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
@@ -12793,7 +12793,7 @@
         <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
         <v>70</v>
@@ -12835,7 +12835,7 @@
         <v>698</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
         <v>40</v>
@@ -13453,7 +13453,7 @@
         <v>176</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F57" t="s">
         <v>53</v>
@@ -13666,7 +13666,7 @@
         <v>482</v>
       </c>
       <c r="E68" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
         <v>168</v>
@@ -13746,7 +13746,7 @@
         <v>490</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
         <v>40</v>
@@ -14724,7 +14724,7 @@
         <v>571</v>
       </c>
       <c r="E119" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F119" t="s">
         <v>40</v>
@@ -15121,7 +15121,7 @@
         <v>614</v>
       </c>
       <c r="E139" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F139" t="s">
         <v>358</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -12835,7 +12835,7 @@
         <v>698</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>40</v>
@@ -13746,7 +13746,7 @@
         <v>490</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>40</v>
@@ -13766,7 +13766,7 @@
         <v>492</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F73" t="s">
         <v>168</v>
@@ -15225,7 +15225,7 @@
         <v>625</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F144" t="s">
         <v>53</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -12645,7 +12645,7 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
@@ -12793,7 +12793,7 @@
         <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
         <v>70</v>
@@ -12835,7 +12835,7 @@
         <v>698</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
         <v>40</v>
@@ -13626,7 +13626,7 @@
         <v>53</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F66" t="s">
         <v>40</v>
@@ -13746,7 +13746,7 @@
         <v>490</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
         <v>40</v>
@@ -13826,7 +13826,7 @@
         <v>498</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
         <v>40</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -12793,7 +12793,7 @@
         <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
         <v>70</v>
@@ -15225,7 +15225,7 @@
         <v>625</v>
       </c>
       <c r="E144" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F144" t="s">
         <v>53</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -10403,7 +10403,7 @@
         <v>482</v>
       </c>
       <c r="E289" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F289" t="s">
         <v>168</v>
@@ -10503,7 +10503,7 @@
         <v>492</v>
       </c>
       <c r="E294" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F294" t="s">
         <v>168</v>
@@ -10563,7 +10563,7 @@
         <v>498</v>
       </c>
       <c r="E297" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F297" t="s">
         <v>40</v>
@@ -10645,7 +10645,7 @@
         <v>507</v>
       </c>
       <c r="E301" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F301" t="s">
         <v>168</v>
@@ -11461,7 +11461,7 @@
         <v>571</v>
       </c>
       <c r="E340" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F340" t="s">
         <v>40</v>
@@ -13666,7 +13666,7 @@
         <v>482</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s">
         <v>168</v>
@@ -13766,7 +13766,7 @@
         <v>492</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
         <v>168</v>
@@ -13826,7 +13826,7 @@
         <v>498</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F76" t="s">
         <v>40</v>
@@ -14724,7 +14724,7 @@
         <v>571</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F119" t="s">
         <v>40</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24603"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A4EBF8-ACD9-4936-8D6D-23DC167657DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6099DE4F-478A-4D70-ACB8-0B8D8BFF1E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources on LForms server" sheetId="1" r:id="rId1"/>
@@ -1449,6 +1449,15 @@
     <t>Observation</t>
   </si>
   <si>
+    <t>code text</t>
+  </si>
+  <si>
+    <t>variable name</t>
+  </si>
+  <si>
+    <t>The display text associated with the code of the observation type</t>
+  </si>
+  <si>
     <t>Reference to the service request.</t>
   </si>
   <si>
@@ -1468,15 +1477,6 @@
   </si>
   <si>
     <t>The code of the observation type</t>
-  </si>
-  <si>
-    <t>code text</t>
-  </si>
-  <si>
-    <t>variable name</t>
-  </si>
-  <si>
-    <t>The display text associated with the code of the observation type</t>
   </si>
   <si>
     <t>code-value-concept</t>
@@ -4918,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D289" sqref="D289"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A289" sqref="A289:XFD289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10557,170 +10557,170 @@
       </c>
     </row>
     <row r="281" spans="1:8">
-      <c r="B281" t="s">
+      <c r="A281" s="2"/>
+      <c r="B281" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="B282" t="s">
         <v>188</v>
       </c>
-      <c r="C281" t="s">
-        <v>18</v>
-      </c>
-      <c r="D281" t="s">
+      <c r="C282" t="s">
+        <v>18</v>
+      </c>
+      <c r="D282" t="s">
         <v>188</v>
       </c>
-      <c r="E281" t="s">
-        <v>19</v>
-      </c>
-      <c r="F281" t="s">
+      <c r="E282" t="s">
+        <v>19</v>
+      </c>
+      <c r="F282" t="s">
         <v>35</v>
       </c>
-      <c r="H281" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="4"/>
-      <c r="B282" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E282" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F282" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G282" s="4"/>
-      <c r="H282" s="4" t="s">
-        <v>474</v>
+      <c r="H282" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="4"/>
       <c r="B283" s="4" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F283" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G283" s="4"/>
       <c r="H283" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="3"/>
-      <c r="B284" s="3" t="s">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G284" s="4"/>
+      <c r="H284" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="3"/>
+      <c r="B285" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C284" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D284" s="3" t="s">
+      <c r="C285" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E284" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F284" s="3" t="s">
+      <c r="E285" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F285" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G284" s="3"/>
-      <c r="H284" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="B285" t="s">
+      <c r="G285" s="3"/>
+      <c r="H285" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="B286" t="s">
         <v>44</v>
       </c>
-      <c r="C285" t="s">
-        <v>18</v>
-      </c>
-      <c r="D285" t="s">
+      <c r="C286" t="s">
+        <v>18</v>
+      </c>
+      <c r="D286" t="s">
         <v>44</v>
       </c>
-      <c r="E285" t="s">
-        <v>23</v>
-      </c>
-      <c r="F285" t="s">
+      <c r="E286" t="s">
+        <v>23</v>
+      </c>
+      <c r="F286" t="s">
         <v>40</v>
       </c>
-      <c r="H285" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286" s="3"/>
-      <c r="B286" s="3" t="s">
+      <c r="H286" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="3"/>
+      <c r="B287" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C286" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D286" s="3" t="s">
+      <c r="C287" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D287" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E286" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F286" s="3" t="s">
+      <c r="E287" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F287" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G286" s="3"/>
-      <c r="H286" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="B287" t="s">
+      <c r="G287" s="3"/>
+      <c r="H287" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="B288" t="s">
         <v>53</v>
       </c>
-      <c r="C287" t="s">
-        <v>18</v>
-      </c>
-      <c r="D287" t="s">
+      <c r="C288" t="s">
+        <v>18</v>
+      </c>
+      <c r="D288" t="s">
         <v>53</v>
       </c>
-      <c r="E287" t="s">
-        <v>23</v>
-      </c>
-      <c r="F287" t="s">
+      <c r="E288" t="s">
+        <v>23</v>
+      </c>
+      <c r="F288" t="s">
         <v>40</v>
       </c>
-      <c r="H287" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F288" s="2"/>
-      <c r="G288" s="2"/>
-      <c r="H288" s="2" t="s">
+      <c r="H288" t="s">
         <v>482</v>
       </c>
     </row>
@@ -12731,7 +12731,7 @@
   <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13824,170 +13824,170 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="B60" t="s">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
         <v>188</v>
       </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
         <v>188</v>
       </c>
-      <c r="E60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
         <v>35</v>
       </c>
-      <c r="H60" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
-        <v>474</v>
+      <c r="H61" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="E64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" t="s">
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" t="s">
         <v>44</v>
       </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
         <v>44</v>
       </c>
-      <c r="E64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
         <v>40</v>
       </c>
-      <c r="H64" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
+      <c r="H65" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="E66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" t="s">
+      <c r="G66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
         <v>53</v>
       </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
         <v>53</v>
       </c>
-      <c r="E66" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
         <v>40</v>
       </c>
-      <c r="H66" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2" t="s">
+      <c r="H67" t="s">
         <v>482</v>
       </c>
     </row>
@@ -15997,8 +15997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A827" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D854" sqref="D854"/>
+    <sheetView topLeftCell="A832" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A854" sqref="A854:XFD854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23238,7 +23238,7 @@
         <v>38</v>
       </c>
       <c r="H375" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -23600,7 +23600,7 @@
         <v>35</v>
       </c>
       <c r="H394" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -32372,74 +32372,74 @@
       </c>
     </row>
     <row r="846" spans="1:8">
-      <c r="B846" t="s">
-        <v>188</v>
-      </c>
-      <c r="C846" t="s">
-        <v>18</v>
-      </c>
-      <c r="D846" t="s">
-        <v>188</v>
-      </c>
-      <c r="E846" t="s">
-        <v>23</v>
-      </c>
-      <c r="F846" t="s">
-        <v>35</v>
-      </c>
-      <c r="H846" t="s">
+      <c r="A846" s="2"/>
+      <c r="B846" s="2" t="s">
         <v>473</v>
+      </c>
+      <c r="C846" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E846" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F846" s="2"/>
+      <c r="G846" s="2"/>
+      <c r="H846" s="2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="847" spans="1:8">
       <c r="B847" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C847" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D847" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E847" t="s">
         <v>23</v>
       </c>
       <c r="F847" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H847" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="848" spans="1:8">
       <c r="B848" t="s">
+        <v>190</v>
+      </c>
+      <c r="C848" t="s">
+        <v>30</v>
+      </c>
+      <c r="D848" t="s">
+        <v>191</v>
+      </c>
+      <c r="E848" t="s">
+        <v>23</v>
+      </c>
+      <c r="F848" t="s">
+        <v>38</v>
+      </c>
+      <c r="H848" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="849" spans="2:8">
+      <c r="B849" t="s">
         <v>42</v>
       </c>
-      <c r="C848" t="s">
-        <v>30</v>
-      </c>
-      <c r="D848" t="s">
+      <c r="C849" t="s">
+        <v>30</v>
+      </c>
+      <c r="D849" t="s">
         <v>43</v>
-      </c>
-      <c r="E848" t="s">
-        <v>23</v>
-      </c>
-      <c r="F848" t="s">
-        <v>40</v>
-      </c>
-      <c r="H848" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="849" spans="1:8">
-      <c r="B849" t="s">
-        <v>44</v>
-      </c>
-      <c r="C849" t="s">
-        <v>30</v>
-      </c>
-      <c r="D849" t="s">
-        <v>45</v>
       </c>
       <c r="E849" t="s">
         <v>23</v>
@@ -32448,18 +32448,18 @@
         <v>40</v>
       </c>
       <c r="H849" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="850" spans="1:8">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="850" spans="2:8">
       <c r="B850" t="s">
         <v>44</v>
       </c>
       <c r="C850" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D850" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E850" t="s">
         <v>23</v>
@@ -32468,18 +32468,18 @@
         <v>40</v>
       </c>
       <c r="H850" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="851" spans="1:8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="851" spans="2:8">
       <c r="B851" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C851" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D851" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E851" t="s">
         <v>23</v>
@@ -32488,18 +32488,18 @@
         <v>40</v>
       </c>
       <c r="H851" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="852" spans="1:8">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="852" spans="2:8">
       <c r="B852" t="s">
         <v>53</v>
       </c>
       <c r="C852" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D852" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E852" t="s">
         <v>23</v>
@@ -32508,30 +32508,30 @@
         <v>40</v>
       </c>
       <c r="H852" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="853" spans="1:8">
-      <c r="A853" s="2"/>
-      <c r="B853" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C853" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D853" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E853" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F853" s="2"/>
-      <c r="G853" s="2"/>
-      <c r="H853" s="2" t="s">
+    </row>
+    <row r="853" spans="2:8">
+      <c r="B853" t="s">
+        <v>53</v>
+      </c>
+      <c r="C853" t="s">
+        <v>18</v>
+      </c>
+      <c r="D853" t="s">
+        <v>53</v>
+      </c>
+      <c r="E853" t="s">
+        <v>23</v>
+      </c>
+      <c r="F853" t="s">
+        <v>40</v>
+      </c>
+      <c r="H853" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="2:8">
       <c r="B854" t="s">
         <v>483</v>
       </c>
@@ -32551,7 +32551,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="2:8">
       <c r="B855" t="s">
         <v>485</v>
       </c>
@@ -32571,7 +32571,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="2:8">
       <c r="B856" t="s">
         <v>487</v>
       </c>
@@ -32591,7 +32591,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="2:8">
       <c r="B857" t="s">
         <v>489</v>
       </c>
@@ -32611,7 +32611,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="2:8">
       <c r="B858" t="s">
         <v>491</v>
       </c>
@@ -32631,7 +32631,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="2:8">
       <c r="B859" t="s">
         <v>493</v>
       </c>
@@ -32651,7 +32651,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="2:8">
       <c r="B860" t="s">
         <v>495</v>
       </c>
@@ -32671,7 +32671,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="2:8">
       <c r="B861" t="s">
         <v>497</v>
       </c>
@@ -32691,7 +32691,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="862" spans="1:8">
+    <row r="862" spans="2:8">
       <c r="B862" t="s">
         <v>499</v>
       </c>
@@ -32711,7 +32711,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="863" spans="1:8">
+    <row r="863" spans="2:8">
       <c r="B863" t="s">
         <v>501</v>
       </c>
@@ -32731,7 +32731,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="864" spans="1:8">
+    <row r="864" spans="2:8">
       <c r="B864" t="s">
         <v>503</v>
       </c>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -4536,7 +4536,7 @@
       <b/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4555,12 +4555,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4571,12 +4565,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf/>
     <xf fontId="1" applyFont="1"/>
     <xf fillId="2" applyFill="1"/>
     <xf fillId="3" applyFill="1"/>
-    <xf fillId="4" applyFill="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4618,7 +4611,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -4974,7 +4967,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>38</v>
@@ -5038,7 +5031,7 @@
       <c r="E30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G30" s="3"/>
@@ -5142,7 +5135,7 @@
       <c r="E35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G35" s="3"/>
@@ -5372,7 +5365,7 @@
       <c r="E46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G46" s="3"/>
@@ -5412,7 +5405,7 @@
         <v>106</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>38</v>
@@ -5629,7 +5622,7 @@
       <c r="E59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G59" s="3"/>
@@ -5671,7 +5664,7 @@
       <c r="E61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G61" s="3"/>
@@ -6125,7 +6118,7 @@
       <c r="E83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G83" s="3"/>
@@ -6289,7 +6282,7 @@
         <v>106</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>38</v>
@@ -6548,7 +6541,7 @@
       <c r="E104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G104" s="3"/>
@@ -6610,7 +6603,7 @@
       <c r="E107" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G107" s="3"/>
@@ -6674,7 +6667,7 @@
       <c r="E110" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G110" s="3"/>
@@ -6800,7 +6793,7 @@
       <c r="E116" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G116" s="3"/>
@@ -6882,7 +6875,7 @@
       <c r="E120" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G120" s="3"/>
@@ -7260,7 +7253,7 @@
       <c r="E138" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G138" s="3"/>
@@ -7280,7 +7273,7 @@
         <v>106</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>38</v>
@@ -7322,7 +7315,7 @@
         <v>180</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>40</v>
@@ -7563,7 +7556,7 @@
       <c r="E153" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F153" s="3" t="s">
         <v>283</v>
       </c>
       <c r="G153" s="3"/>
@@ -7733,7 +7726,7 @@
       <c r="E161" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F161" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G161" s="3"/>
@@ -7797,7 +7790,7 @@
       <c r="E164" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F164" s="4" t="s">
+      <c r="F164" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G164" s="3"/>
@@ -8005,7 +7998,7 @@
         <v>106</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>38</v>
@@ -8049,7 +8042,7 @@
       <c r="E176" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="F176" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G176" s="3"/>
@@ -8414,7 +8407,7 @@
       <c r="E194" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F194" s="4" t="s">
+      <c r="F194" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G194" s="3"/>
@@ -8458,7 +8451,7 @@
       <c r="E196" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F196" s="4" t="s">
+      <c r="F196" s="3" t="s">
         <v>283</v>
       </c>
       <c r="G196" s="3"/>
@@ -8838,7 +8831,7 @@
       <c r="E214" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F214" s="4" t="s">
+      <c r="F214" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G214" s="3"/>
@@ -9180,7 +9173,7 @@
         <v>106</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>38</v>
@@ -9224,7 +9217,7 @@
       <c r="E232" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F232" s="4" t="s">
+      <c r="F232" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G232" s="3"/>
@@ -9549,7 +9542,7 @@
       <c r="E248" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F248" s="4" t="s">
+      <c r="F248" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G248" s="3"/>
@@ -9781,7 +9774,7 @@
       <c r="E259" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F259" s="4" t="s">
+      <c r="F259" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G259" s="3"/>
@@ -9909,7 +9902,7 @@
       <c r="E265" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F265" s="4" t="s">
+      <c r="F265" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G265" s="3"/>
@@ -10141,7 +10134,7 @@
         <v>106</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>38</v>
@@ -10602,7 +10595,7 @@
       <c r="E299" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F299" s="4" t="s">
+      <c r="F299" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G299" s="3"/>
@@ -11186,7 +11179,7 @@
       <c r="E327" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F327" s="4" t="s">
+      <c r="F327" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G327" s="3"/>
@@ -11312,7 +11305,7 @@
       <c r="E333" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F333" s="4" t="s">
+      <c r="F333" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G333" s="3"/>
@@ -11416,7 +11409,7 @@
         <v>106</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>38</v>
@@ -11793,7 +11786,7 @@
       <c r="E357" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F357" s="4" t="s">
+      <c r="F357" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G357" s="3"/>
@@ -11815,7 +11808,7 @@
       <c r="E358" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F358" s="4" t="s">
+      <c r="F358" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G358" s="3"/>
@@ -12145,7 +12138,7 @@
       <c r="E374" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F374" s="4" t="s">
+      <c r="F374" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G374" s="3"/>
@@ -12335,7 +12328,7 @@
       <c r="E383" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F383" s="4" t="s">
+      <c r="F383" s="3" t="s">
         <v>667</v>
       </c>
       <c r="G383" s="3"/>
@@ -12355,7 +12348,7 @@
         <v>670</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F384" s="3" t="s">
         <v>622</v>
@@ -12426,7 +12419,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -12622,7 +12615,7 @@
       <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G19" s="3"/>
@@ -12686,7 +12679,7 @@
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>690</v>
       </c>
       <c r="G22" s="3"/>
@@ -12728,7 +12721,7 @@
       <c r="E24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>693</v>
       </c>
       <c r="G24" s="3"/>
@@ -12918,7 +12911,7 @@
       <c r="E33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G33" s="3"/>
@@ -13132,7 +13125,7 @@
       <c r="E42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G42" s="3"/>
@@ -13368,7 +13361,7 @@
       <c r="E53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="3" t="s">
         <v>760</v>
       </c>
       <c r="G53" s="3"/>
@@ -13579,7 +13572,7 @@
         <v>45</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>40</v>
@@ -13865,7 +13858,7 @@
       <c r="E78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G78" s="3"/>
@@ -14449,7 +14442,7 @@
       <c r="E106" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G106" s="3"/>
@@ -14575,7 +14568,7 @@
       <c r="E112" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G112" s="3"/>
@@ -14637,7 +14630,7 @@
         <v>177</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>53</v>
@@ -14679,7 +14672,7 @@
         <v>106</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>38</v>
@@ -15056,7 +15049,7 @@
       <c r="E136" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G136" s="3"/>
@@ -15078,7 +15071,7 @@
       <c r="E137" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G137" s="3"/>
@@ -15408,7 +15401,7 @@
       <c r="E153" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F153" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G153" s="3"/>
@@ -15598,7 +15591,7 @@
       <c r="E162" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F162" s="4" t="s">
+      <c r="F162" s="3" t="s">
         <v>667</v>
       </c>
       <c r="G162" s="3"/>
@@ -15729,7 +15722,7 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H8" t="s">
@@ -15769,7 +15762,7 @@
       <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H10" t="s">
@@ -16768,7 +16761,7 @@
       <c r="E61" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H61" t="s">
@@ -16793,7 +16786,7 @@
       <c r="E63" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H63" t="s">
@@ -17390,7 +17383,7 @@
       <c r="E93" t="s">
         <v>19</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H93" t="s">
@@ -17872,7 +17865,7 @@
       <c r="E118" t="s">
         <v>19</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H118" t="s">
@@ -17892,7 +17885,7 @@
       <c r="E119" t="s">
         <v>19</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H119" t="s">
@@ -18494,7 +18487,7 @@
       <c r="E150" t="s">
         <v>19</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F150" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H150" t="s">
@@ -18614,7 +18607,7 @@
       <c r="E156" t="s">
         <v>19</v>
       </c>
-      <c r="F156" s="4" t="s">
+      <c r="F156" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H156" t="s">
@@ -19179,7 +19172,7 @@
       <c r="E185" t="s">
         <v>19</v>
       </c>
-      <c r="F185" s="4" t="s">
+      <c r="F185" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H185" t="s">
@@ -19316,7 +19309,7 @@
       <c r="E192" t="s">
         <v>19</v>
       </c>
-      <c r="F192" s="4" t="s">
+      <c r="F192" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H192" t="s">
@@ -19336,7 +19329,7 @@
       <c r="E193" t="s">
         <v>19</v>
       </c>
-      <c r="F193" s="4" t="s">
+      <c r="F193" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H193" t="s">
@@ -20018,7 +20011,7 @@
       <c r="E228" t="s">
         <v>19</v>
       </c>
-      <c r="F228" s="4" t="s">
+      <c r="F228" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H228" t="s">
@@ -20098,7 +20091,7 @@
       <c r="E232" t="s">
         <v>19</v>
       </c>
-      <c r="F232" s="4" t="s">
+      <c r="F232" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H232" t="s">
@@ -20800,7 +20793,7 @@
       <c r="E268" t="s">
         <v>19</v>
       </c>
-      <c r="F268" s="4" t="s">
+      <c r="F268" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H268" t="s">
@@ -20880,7 +20873,7 @@
       <c r="E272" t="s">
         <v>19</v>
       </c>
-      <c r="F272" s="4" t="s">
+      <c r="F272" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H272" t="s">
@@ -21585,7 +21578,7 @@
       <c r="E308" t="s">
         <v>19</v>
       </c>
-      <c r="F308" s="4" t="s">
+      <c r="F308" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H308" t="s">
@@ -21682,7 +21675,7 @@
       <c r="E313" t="s">
         <v>19</v>
       </c>
-      <c r="F313" s="4" t="s">
+      <c r="F313" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H313" t="s">
@@ -21902,7 +21895,7 @@
       <c r="E324" t="s">
         <v>19</v>
       </c>
-      <c r="F324" s="4" t="s">
+      <c r="F324" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H324" t="s">
@@ -22484,7 +22477,7 @@
       <c r="E354" t="s">
         <v>19</v>
       </c>
-      <c r="F354" s="4" t="s">
+      <c r="F354" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H354" t="s">
@@ -22524,7 +22517,7 @@
       <c r="E356" t="s">
         <v>19</v>
       </c>
-      <c r="F356" s="4" t="s">
+      <c r="F356" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H356" t="s">
@@ -23046,7 +23039,7 @@
       <c r="E383" t="s">
         <v>19</v>
       </c>
-      <c r="F383" s="4" t="s">
+      <c r="F383" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H383" t="s">
@@ -23648,7 +23641,7 @@
       <c r="E414" t="s">
         <v>19</v>
       </c>
-      <c r="F414" s="4" t="s">
+      <c r="F414" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H414" t="s">
@@ -23728,7 +23721,7 @@
       <c r="E418" t="s">
         <v>19</v>
       </c>
-      <c r="F418" s="4" t="s">
+      <c r="F418" s="3" t="s">
         <v>667</v>
       </c>
       <c r="H418" t="s">
@@ -24250,7 +24243,7 @@
       <c r="E445" t="s">
         <v>19</v>
       </c>
-      <c r="F445" s="4" t="s">
+      <c r="F445" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H445" t="s">
@@ -24595,7 +24588,7 @@
       <c r="E463" t="s">
         <v>19</v>
       </c>
-      <c r="F463" s="4" t="s">
+      <c r="F463" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H463" t="s">
@@ -24635,7 +24628,7 @@
       <c r="E465" t="s">
         <v>19</v>
       </c>
-      <c r="F465" s="4" t="s">
+      <c r="F465" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H465" t="s">
@@ -25072,7 +25065,7 @@
       <c r="E487" t="s">
         <v>19</v>
       </c>
-      <c r="F487" s="4" t="s">
+      <c r="F487" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H487" t="s">
@@ -25477,7 +25470,7 @@
       <c r="E508" t="s">
         <v>19</v>
       </c>
-      <c r="F508" s="4" t="s">
+      <c r="F508" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H508" t="s">
@@ -25537,7 +25530,7 @@
       <c r="E511" t="s">
         <v>19</v>
       </c>
-      <c r="F511" s="4" t="s">
+      <c r="F511" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H511" t="s">
@@ -25597,7 +25590,7 @@
       <c r="E514" t="s">
         <v>19</v>
       </c>
-      <c r="F514" s="4" t="s">
+      <c r="F514" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H514" t="s">
@@ -25714,7 +25707,7 @@
       <c r="E520" t="s">
         <v>19</v>
       </c>
-      <c r="F520" s="4" t="s">
+      <c r="F520" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H520" t="s">
@@ -25794,7 +25787,7 @@
       <c r="E524" t="s">
         <v>19</v>
       </c>
-      <c r="F524" s="4" t="s">
+      <c r="F524" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H524" t="s">
@@ -26154,7 +26147,7 @@
       <c r="E542" t="s">
         <v>19</v>
       </c>
-      <c r="F542" s="4" t="s">
+      <c r="F542" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H542" t="s">
@@ -26798,7 +26791,7 @@
       <c r="E576" t="s">
         <v>19</v>
       </c>
-      <c r="F576" s="4" t="s">
+      <c r="F576" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H576" t="s">
@@ -27018,7 +27011,7 @@
       <c r="E587" t="s">
         <v>19</v>
       </c>
-      <c r="F587" s="4" t="s">
+      <c r="F587" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H587" t="s">
@@ -27063,7 +27056,7 @@
       <c r="E590" t="s">
         <v>19</v>
       </c>
-      <c r="F590" s="4" t="s">
+      <c r="F590" s="3" t="s">
         <v>1220</v>
       </c>
       <c r="H590" t="s">
@@ -27200,7 +27193,7 @@
       <c r="E597" t="s">
         <v>19</v>
       </c>
-      <c r="F597" s="4" t="s">
+      <c r="F597" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H597" t="s">
@@ -27662,7 +27655,7 @@
       <c r="E621" t="s">
         <v>19</v>
       </c>
-      <c r="F621" s="4" t="s">
+      <c r="F621" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H621" t="s">
@@ -27682,7 +27675,7 @@
       <c r="E622" t="s">
         <v>19</v>
       </c>
-      <c r="F622" s="4" t="s">
+      <c r="F622" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H622" t="s">
@@ -27702,7 +27695,7 @@
       <c r="E623" t="s">
         <v>19</v>
       </c>
-      <c r="F623" s="4" t="s">
+      <c r="F623" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H623" t="s">
@@ -27782,7 +27775,7 @@
       <c r="E627" t="s">
         <v>19</v>
       </c>
-      <c r="F627" s="4" t="s">
+      <c r="F627" s="3" t="s">
         <v>693</v>
       </c>
       <c r="H627" t="s">
@@ -28002,7 +27995,7 @@
       <c r="E638" t="s">
         <v>19</v>
       </c>
-      <c r="F638" s="4" t="s">
+      <c r="F638" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H638" t="s">
@@ -28227,7 +28220,7 @@
       <c r="E650" t="s">
         <v>19</v>
       </c>
-      <c r="F650" s="4" t="s">
+      <c r="F650" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H650" t="s">
@@ -28344,7 +28337,7 @@
       <c r="E656" t="s">
         <v>19</v>
       </c>
-      <c r="F656" s="4" t="s">
+      <c r="F656" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H656" t="s">
@@ -28669,7 +28662,7 @@
       <c r="E673" t="s">
         <v>19</v>
       </c>
-      <c r="F673" s="4" t="s">
+      <c r="F673" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H673" t="s">
@@ -29131,7 +29124,7 @@
       <c r="E697" t="s">
         <v>19</v>
       </c>
-      <c r="F697" s="4" t="s">
+      <c r="F697" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H697" t="s">
@@ -29328,7 +29321,7 @@
       <c r="E707" t="s">
         <v>19</v>
       </c>
-      <c r="F707" s="4" t="s">
+      <c r="F707" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H707" t="s">
@@ -29408,7 +29401,7 @@
       <c r="E711" t="s">
         <v>19</v>
       </c>
-      <c r="F711" s="4" t="s">
+      <c r="F711" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H711" t="s">
@@ -29853,7 +29846,7 @@
       <c r="E734" t="s">
         <v>19</v>
       </c>
-      <c r="F734" s="4" t="s">
+      <c r="F734" s="3" t="s">
         <v>283</v>
       </c>
       <c r="H734" t="s">
@@ -30010,7 +30003,7 @@
       <c r="E742" t="s">
         <v>19</v>
       </c>
-      <c r="F742" s="4" t="s">
+      <c r="F742" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H742" t="s">
@@ -30070,7 +30063,7 @@
       <c r="E745" t="s">
         <v>19</v>
       </c>
-      <c r="F745" s="4" t="s">
+      <c r="F745" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H745" t="s">
@@ -30310,7 +30303,7 @@
       <c r="E757" t="s">
         <v>19</v>
       </c>
-      <c r="F757" s="4" t="s">
+      <c r="F757" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H757" t="s">
@@ -30655,7 +30648,7 @@
       <c r="E775" t="s">
         <v>19</v>
       </c>
-      <c r="F775" s="4" t="s">
+      <c r="F775" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H775" t="s">
@@ -30695,7 +30688,7 @@
       <c r="E777" t="s">
         <v>19</v>
       </c>
-      <c r="F777" s="4" t="s">
+      <c r="F777" s="3" t="s">
         <v>283</v>
       </c>
       <c r="H777" t="s">
@@ -31052,7 +31045,7 @@
       <c r="E795" t="s">
         <v>19</v>
       </c>
-      <c r="F795" s="4" t="s">
+      <c r="F795" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H795" t="s">
@@ -31412,7 +31405,7 @@
       <c r="E813" t="s">
         <v>19</v>
       </c>
-      <c r="F813" s="4" t="s">
+      <c r="F813" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H813" t="s">
@@ -31617,7 +31610,7 @@
       <c r="E824" t="s">
         <v>19</v>
       </c>
-      <c r="F824" s="4" t="s">
+      <c r="F824" s="3" t="s">
         <v>283</v>
       </c>
       <c r="H824" t="s">
@@ -31794,7 +31787,7 @@
       <c r="E833" t="s">
         <v>19</v>
       </c>
-      <c r="F833" s="4" t="s">
+      <c r="F833" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H833" t="s">
@@ -32399,7 +32392,7 @@
       <c r="E864" t="s">
         <v>19</v>
       </c>
-      <c r="F864" s="4" t="s">
+      <c r="F864" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H864" t="s">
@@ -32956,7 +32949,7 @@
       <c r="E892" t="s">
         <v>19</v>
       </c>
-      <c r="F892" s="4" t="s">
+      <c r="F892" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H892" t="s">
@@ -33076,7 +33069,7 @@
       <c r="E898" t="s">
         <v>19</v>
       </c>
-      <c r="F898" s="4" t="s">
+      <c r="F898" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H898" t="s">
@@ -33541,7 +33534,7 @@
       <c r="E922" t="s">
         <v>19</v>
       </c>
-      <c r="F922" s="4" t="s">
+      <c r="F922" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H922" t="s">
@@ -33561,7 +33554,7 @@
       <c r="E923" t="s">
         <v>19</v>
       </c>
-      <c r="F923" s="4" t="s">
+      <c r="F923" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H923" t="s">
@@ -33878,7 +33871,7 @@
       <c r="E939" t="s">
         <v>19</v>
       </c>
-      <c r="F939" s="4" t="s">
+      <c r="F939" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H939" t="s">
@@ -34058,7 +34051,7 @@
       <c r="E948" t="s">
         <v>19</v>
       </c>
-      <c r="F948" s="4" t="s">
+      <c r="F948" s="3" t="s">
         <v>667</v>
       </c>
       <c r="H948" t="s">
@@ -34383,7 +34376,7 @@
       <c r="E965" t="s">
         <v>19</v>
       </c>
-      <c r="F965" s="4" t="s">
+      <c r="F965" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H965" t="s">
@@ -34600,7 +34593,7 @@
       <c r="E976" t="s">
         <v>19</v>
       </c>
-      <c r="F976" s="4" t="s">
+      <c r="F976" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H976" t="s">
@@ -34720,7 +34713,7 @@
       <c r="E982" t="s">
         <v>19</v>
       </c>
-      <c r="F982" s="4" t="s">
+      <c r="F982" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H982" t="s">
@@ -35025,7 +35018,7 @@
       <c r="E998" t="s">
         <v>19</v>
       </c>
-      <c r="F998" s="4" t="s">
+      <c r="F998" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H998" t="s">
@@ -35442,7 +35435,7 @@
       <c r="E1019" t="s">
         <v>19</v>
       </c>
-      <c r="F1019" s="4" t="s">
+      <c r="F1019" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H1019" t="s">
@@ -35687,7 +35680,7 @@
       <c r="E1032" t="s">
         <v>19</v>
       </c>
-      <c r="F1032" s="4" t="s">
+      <c r="F1032" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H1032" t="s">
@@ -35767,7 +35760,7 @@
       <c r="E1036" t="s">
         <v>19</v>
       </c>
-      <c r="F1036" s="4" t="s">
+      <c r="F1036" s="3" t="s">
         <v>690</v>
       </c>
       <c r="H1036" t="s">
@@ -35807,7 +35800,7 @@
       <c r="E1038" t="s">
         <v>19</v>
       </c>
-      <c r="F1038" s="4" t="s">
+      <c r="F1038" s="3" t="s">
         <v>693</v>
       </c>
       <c r="H1038" t="s">
@@ -36024,7 +36017,7 @@
       <c r="E1049" t="s">
         <v>19</v>
       </c>
-      <c r="F1049" s="4" t="s">
+      <c r="F1049" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H1049" t="s">
@@ -36044,7 +36037,7 @@
       <c r="E1050" t="s">
         <v>19</v>
       </c>
-      <c r="F1050" s="4" t="s">
+      <c r="F1050" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H1050" t="s">
@@ -36264,7 +36257,7 @@
       <c r="E1061" t="s">
         <v>19</v>
       </c>
-      <c r="F1061" s="4" t="s">
+      <c r="F1061" s="3" t="s">
         <v>760</v>
       </c>
       <c r="H1061" t="s">
@@ -36726,7 +36719,7 @@
       <c r="E1085" t="s">
         <v>19</v>
       </c>
-      <c r="F1085" s="4" t="s">
+      <c r="F1085" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H1085" t="s">
@@ -36846,7 +36839,7 @@
       <c r="E1091" t="s">
         <v>19</v>
       </c>
-      <c r="F1091" s="4" t="s">
+      <c r="F1091" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H1091" t="s">
@@ -37528,7 +37521,7 @@
       <c r="E1126" t="s">
         <v>19</v>
       </c>
-      <c r="F1126" s="4" t="s">
+      <c r="F1126" s="3" t="s">
         <v>75</v>
       </c>
       <c r="H1126" t="s">

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -4551,7 +4551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
+        <fgColor rgb="FFD0D0D0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4967,7 +4967,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>38</v>
@@ -6240,7 +6240,7 @@
         <v>177</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>53</v>
@@ -6282,7 +6282,7 @@
         <v>106</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>38</v>
@@ -6324,7 +6324,7 @@
         <v>180</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>40</v>
@@ -6497,7 +6497,7 @@
         <v>193</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>144</v>
@@ -7315,7 +7315,7 @@
         <v>180</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>40</v>
@@ -8745,7 +8745,7 @@
         <v>386</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>53</v>
@@ -9109,7 +9109,7 @@
         <v>177</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>53</v>
@@ -9604,7 +9604,7 @@
         <v>70</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>70</v>
@@ -10309,7 +10309,7 @@
         <v>45</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F285" s="3" t="s">
         <v>40</v>
@@ -11367,7 +11367,7 @@
         <v>177</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F336" s="3" t="s">
         <v>53</v>
@@ -11409,7 +11409,7 @@
         <v>106</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>38</v>
@@ -12224,7 +12224,7 @@
         <v>655</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F378" s="3" t="s">
         <v>656</v>
@@ -12348,7 +12348,7 @@
         <v>670</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F384" s="3" t="s">
         <v>622</v>
@@ -13614,7 +13614,7 @@
         <v>54</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>40</v>
@@ -15487,7 +15487,7 @@
         <v>655</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>656</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -4551,7 +4551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0D0D0"/>
+        <fgColor rgb="FFC6E0B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4967,7 +4967,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>38</v>
@@ -6240,7 +6240,7 @@
         <v>177</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>53</v>
@@ -6282,7 +6282,7 @@
         <v>106</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>38</v>
@@ -6324,7 +6324,7 @@
         <v>180</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>40</v>
@@ -6497,7 +6497,7 @@
         <v>193</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>144</v>
@@ -7315,7 +7315,7 @@
         <v>180</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>40</v>
@@ -8745,7 +8745,7 @@
         <v>386</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>53</v>
@@ -9109,7 +9109,7 @@
         <v>177</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>53</v>
@@ -9604,7 +9604,7 @@
         <v>70</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>70</v>
@@ -10309,7 +10309,7 @@
         <v>45</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F285" s="3" t="s">
         <v>40</v>
@@ -11367,7 +11367,7 @@
         <v>177</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F336" s="3" t="s">
         <v>53</v>
@@ -11409,7 +11409,7 @@
         <v>106</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>38</v>
@@ -12224,7 +12224,7 @@
         <v>655</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F378" s="3" t="s">
         <v>656</v>
@@ -12348,7 +12348,7 @@
         <v>670</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F384" s="3" t="s">
         <v>622</v>
@@ -13614,7 +13614,7 @@
         <v>54</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>40</v>
@@ -15487,7 +15487,7 @@
         <v>655</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>656</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -4536,7 +4536,7 @@
       <b/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4555,6 +4555,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D0D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4565,11 +4577,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf/>
     <xf fontId="1" applyFont="1"/>
     <xf fillId="2" applyFill="1"/>
     <xf fillId="3" applyFill="1"/>
+    <xf fillId="4" applyFill="1"/>
+    <xf fillId="5" applyFill="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4605,13 +4619,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -4724,24 +4738,24 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4766,24 +4780,24 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4808,46 +4822,46 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4956,24 +4970,24 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5018,24 +5032,24 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5100,46 +5114,46 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5204,24 +5218,24 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5288,46 +5302,46 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="E43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3" t="s">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3" t="s">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5352,24 +5366,24 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="E46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3" t="s">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5394,24 +5408,24 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="E48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5456,24 +5470,24 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="3" t="s">
+      <c r="E51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5503,24 +5517,24 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="C54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="E54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3" t="s">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5545,24 +5559,24 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="C56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="E56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3" t="s">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5587,24 +5601,24 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="C58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="E58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3" t="s">
+      <c r="G58" s="4"/>
+      <c r="H58" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5622,7 +5636,7 @@
       <c r="E59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G59" s="3"/>
@@ -5651,24 +5665,24 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="C61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="E61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5693,24 +5707,24 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="E63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
+      <c r="G63" s="4"/>
+      <c r="H63" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5735,24 +5749,24 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="E65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3" t="s">
+      <c r="G65" s="4"/>
+      <c r="H65" s="4" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5777,46 +5791,46 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="C67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="3" t="s">
+      <c r="E67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3" t="s">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3" t="s">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="C68" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="E68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3" t="s">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5941,24 +5955,24 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="C75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="E75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3" t="s">
+      <c r="G75" s="4"/>
+      <c r="H75" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6003,24 +6017,24 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3" t="s">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="C78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="E78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3" t="s">
+      <c r="G78" s="4"/>
+      <c r="H78" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6105,24 +6119,24 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3" t="s">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="3" t="s">
+      <c r="E83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3" t="s">
+      <c r="G83" s="4"/>
+      <c r="H83" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6187,24 +6201,24 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3" t="s">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" s="3" t="s">
+      <c r="E87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3" t="s">
+      <c r="G87" s="4"/>
+      <c r="H87" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6271,24 +6285,24 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3" t="s">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3" t="s">
+      <c r="G91" s="4"/>
+      <c r="H91" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6380,46 +6394,46 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3" t="s">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="E97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3" t="s">
+      <c r="G97" s="4"/>
+      <c r="H97" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3" t="s">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="C98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="E98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3" t="s">
+      <c r="G98" s="4"/>
+      <c r="H98" s="4" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6464,24 +6478,24 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3" t="s">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="3" t="s">
+      <c r="E101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3" t="s">
+      <c r="G101" s="4"/>
+      <c r="H101" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6528,24 +6542,24 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3" t="s">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" s="3" t="s">
+      <c r="C104" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="3" t="s">
+      <c r="E104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3" t="s">
+      <c r="G104" s="4"/>
+      <c r="H104" s="4" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6590,24 +6604,24 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3" t="s">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="C107" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" s="3" t="s">
+      <c r="E107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3" t="s">
+      <c r="G107" s="4"/>
+      <c r="H107" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6632,46 +6646,46 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3" t="s">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="C109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" s="3" t="s">
+      <c r="E109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3" t="s">
+      <c r="G109" s="4"/>
+      <c r="H109" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3" t="s">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D110" s="3" t="s">
+      <c r="C110" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="E110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3" t="s">
+      <c r="G110" s="4"/>
+      <c r="H110" s="4" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6716,46 +6730,46 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3" t="s">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D113" s="3" t="s">
+      <c r="C113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="3" t="s">
+      <c r="E113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3" t="s">
+      <c r="G113" s="4"/>
+      <c r="H113" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3" t="s">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D114" s="3" t="s">
+      <c r="C114" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" s="3" t="s">
+      <c r="E114" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3" t="s">
+      <c r="G114" s="4"/>
+      <c r="H114" s="4" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6780,24 +6794,24 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3" t="s">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" s="3" t="s">
+      <c r="C116" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="3" t="s">
+      <c r="E116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3" t="s">
+      <c r="G116" s="4"/>
+      <c r="H116" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6862,24 +6876,24 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3" t="s">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="C120" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="E120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3" t="s">
+      <c r="G120" s="4"/>
+      <c r="H120" s="4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6924,24 +6938,24 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3" t="s">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D123" s="3" t="s">
+      <c r="C123" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="E123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3" t="s">
+      <c r="G123" s="4"/>
+      <c r="H123" s="4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7008,24 +7022,24 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3" t="s">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D127" s="3" t="s">
+      <c r="C127" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" s="3" t="s">
+      <c r="E127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3" t="s">
+      <c r="G127" s="4"/>
+      <c r="H127" s="4" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7070,46 +7084,46 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3" t="s">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D130" s="3" t="s">
+      <c r="C130" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" s="3" t="s">
+      <c r="E130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3" t="s">
+      <c r="G130" s="4"/>
+      <c r="H130" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3" t="s">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D131" s="3" t="s">
+      <c r="C131" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F131" s="3" t="s">
+      <c r="E131" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3" t="s">
+      <c r="G131" s="4"/>
+      <c r="H131" s="4" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7134,46 +7148,46 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3" t="s">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D133" s="3" t="s">
+      <c r="C133" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" s="3" t="s">
+      <c r="E133" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3" t="s">
+      <c r="G133" s="4"/>
+      <c r="H133" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3" t="s">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D134" s="3" t="s">
+      <c r="C134" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" s="3" t="s">
+      <c r="E134" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3" t="s">
+      <c r="G134" s="4"/>
+      <c r="H134" s="4" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7240,46 +7254,46 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3" t="s">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D138" s="3" t="s">
+      <c r="C138" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138" s="3" t="s">
+      <c r="E138" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3" t="s">
+      <c r="G138" s="4"/>
+      <c r="H138" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3" t="s">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D139" s="3" t="s">
+      <c r="C139" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="3" t="s">
+      <c r="E139" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3" t="s">
+      <c r="G139" s="4"/>
+      <c r="H139" s="4" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7351,46 +7365,46 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3" t="s">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D144" s="3" t="s">
+      <c r="C144" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="3" t="s">
+      <c r="E144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3" t="s">
+      <c r="G144" s="4"/>
+      <c r="H144" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3" t="s">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D145" s="3" t="s">
+      <c r="C145" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="3" t="s">
+      <c r="E145" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3" t="s">
+      <c r="G145" s="4"/>
+      <c r="H145" s="4" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7435,68 +7449,68 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3" t="s">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D148" s="3" t="s">
+      <c r="C148" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" s="3" t="s">
+      <c r="E148" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3" t="s">
+      <c r="G148" s="4"/>
+      <c r="H148" s="4" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3" t="s">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D149" s="3" t="s">
+      <c r="C149" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" s="3" t="s">
+      <c r="E149" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3" t="s">
+      <c r="G149" s="4"/>
+      <c r="H149" s="4" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3" t="s">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D150" s="3" t="s">
+      <c r="C150" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F150" s="3" t="s">
+      <c r="E150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3" t="s">
+      <c r="G150" s="4"/>
+      <c r="H150" s="4" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7521,68 +7535,68 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3" t="s">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D152" s="3" t="s">
+      <c r="C152" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152" s="3" t="s">
+      <c r="E152" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3" t="s">
+      <c r="G152" s="4"/>
+      <c r="H152" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3" t="s">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D153" s="3" t="s">
+      <c r="C153" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153" s="3" t="s">
+      <c r="E153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3" t="s">
+      <c r="G153" s="4"/>
+      <c r="H153" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3" t="s">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="C154" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154" s="3" t="s">
+      <c r="E154" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3" t="s">
+      <c r="G154" s="4"/>
+      <c r="H154" s="4" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7649,24 +7663,24 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3" t="s">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D158" s="3" t="s">
+      <c r="C158" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F158" s="3" t="s">
+      <c r="E158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3" t="s">
+      <c r="G158" s="4"/>
+      <c r="H158" s="4" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7713,46 +7727,46 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3" t="s">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D161" s="3" t="s">
+      <c r="C161" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D161" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F161" s="3" t="s">
+      <c r="E161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3" t="s">
+      <c r="G161" s="4"/>
+      <c r="H161" s="4" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3" t="s">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D162" s="3" t="s">
+      <c r="C162" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F162" s="3" t="s">
+      <c r="E162" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3" t="s">
+      <c r="G162" s="4"/>
+      <c r="H162" s="4" t="s">
         <v>298</v>
       </c>
     </row>
@@ -7777,24 +7791,24 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3" t="s">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="C164" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E164" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" s="3" t="s">
+      <c r="E164" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3" t="s">
+      <c r="G164" s="4"/>
+      <c r="H164" s="4" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7881,24 +7895,24 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3" t="s">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D169" s="3" t="s">
+      <c r="C169" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F169" s="3" t="s">
+      <c r="E169" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3" t="s">
+      <c r="G169" s="4"/>
+      <c r="H169" s="4" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7965,46 +7979,46 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3" t="s">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D173" s="3" t="s">
+      <c r="C173" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F173" s="3" t="s">
+      <c r="E173" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3" t="s">
+      <c r="G173" s="4"/>
+      <c r="H173" s="4" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3" t="s">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D174" s="3" t="s">
+      <c r="C174" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F174" s="3" t="s">
+      <c r="E174" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3" t="s">
+      <c r="G174" s="4"/>
+      <c r="H174" s="4" t="s">
         <v>318</v>
       </c>
     </row>
@@ -8029,68 +8043,68 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3" t="s">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="C176" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D176" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F176" s="3" t="s">
+      <c r="E176" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3" t="s">
+      <c r="G176" s="4"/>
+      <c r="H176" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3" t="s">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D177" s="3" t="s">
+      <c r="C177" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F177" s="3" t="s">
+      <c r="E177" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3" t="s">
+      <c r="G177" s="4"/>
+      <c r="H177" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3" t="s">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D178" s="3" t="s">
+      <c r="C178" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D178" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E178" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" s="3" t="s">
+      <c r="E178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3" t="s">
+      <c r="G178" s="4"/>
+      <c r="H178" s="4" t="s">
         <v>326</v>
       </c>
     </row>
@@ -8135,24 +8149,24 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3" t="s">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D181" s="3" t="s">
+      <c r="C181" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F181" s="3" t="s">
+      <c r="E181" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3" t="s">
+      <c r="G181" s="4"/>
+      <c r="H181" s="4" t="s">
         <v>332</v>
       </c>
     </row>
@@ -8224,68 +8238,68 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3" t="s">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C186" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D186" s="3" t="s">
+      <c r="C186" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" s="3" t="s">
+      <c r="E186" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3" t="s">
+      <c r="G186" s="4"/>
+      <c r="H186" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3" t="s">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C187" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D187" s="3" t="s">
+      <c r="C187" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E187" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F187" s="3" t="s">
+      <c r="E187" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3" t="s">
+      <c r="G187" s="4"/>
+      <c r="H187" s="4" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3" t="s">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D188" s="3" t="s">
+      <c r="C188" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E188" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F188" s="3" t="s">
+      <c r="E188" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3" t="s">
+      <c r="G188" s="4"/>
+      <c r="H188" s="4" t="s">
         <v>345</v>
       </c>
     </row>
@@ -8330,24 +8344,24 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3" t="s">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D191" s="3" t="s">
+      <c r="C191" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="E191" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" s="3" t="s">
+      <c r="E191" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3" t="s">
+      <c r="G191" s="4"/>
+      <c r="H191" s="4" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8372,24 +8386,24 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3" t="s">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C193" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D193" s="3" t="s">
+      <c r="C193" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E193" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F193" s="3" t="s">
+      <c r="E193" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3" t="s">
+      <c r="G193" s="4"/>
+      <c r="H193" s="4" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8407,7 +8421,7 @@
       <c r="E194" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="F194" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G194" s="3"/>
@@ -8416,24 +8430,24 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3" t="s">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C195" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D195" s="3" t="s">
+      <c r="C195" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="E195" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F195" s="3" t="s">
+      <c r="E195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3" t="s">
+      <c r="G195" s="4"/>
+      <c r="H195" s="4" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8451,7 +8465,7 @@
       <c r="E196" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="F196" s="5" t="s">
         <v>283</v>
       </c>
       <c r="G196" s="3"/>
@@ -8480,68 +8494,68 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3" t="s">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D198" s="3" t="s">
+      <c r="C198" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E198" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" s="3" t="s">
+      <c r="E198" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3" t="s">
+      <c r="G198" s="4"/>
+      <c r="H198" s="4" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3" t="s">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C199" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D199" s="3" t="s">
+      <c r="C199" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F199" s="3" t="s">
+      <c r="E199" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F199" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3" t="s">
+      <c r="G199" s="4"/>
+      <c r="H199" s="4" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3" t="s">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C200" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D200" s="3" t="s">
+      <c r="C200" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="E200" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F200" s="3" t="s">
+      <c r="E200" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3" t="s">
+      <c r="G200" s="4"/>
+      <c r="H200" s="4" t="s">
         <v>366</v>
       </c>
     </row>
@@ -8586,90 +8600,90 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3" t="s">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C203" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D203" s="3" t="s">
+      <c r="C203" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E203" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F203" s="3" t="s">
+      <c r="E203" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F203" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3" t="s">
+      <c r="G203" s="4"/>
+      <c r="H203" s="4" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3" t="s">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C204" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D204" s="3" t="s">
+      <c r="C204" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E204" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F204" s="3" t="s">
+      <c r="E204" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3" t="s">
+      <c r="G204" s="4"/>
+      <c r="H204" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3" t="s">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D205" s="3" t="s">
+      <c r="C205" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D205" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="E205" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F205" s="3" t="s">
+      <c r="E205" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3" t="s">
+      <c r="G205" s="4"/>
+      <c r="H205" s="4" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3" t="s">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D206" s="3" t="s">
+      <c r="C206" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E206" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F206" s="3" t="s">
+      <c r="E206" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3" t="s">
+      <c r="G206" s="4"/>
+      <c r="H206" s="4" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8818,24 +8832,24 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3" t="s">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C214" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D214" s="3" t="s">
+      <c r="C214" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D214" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F214" s="3" t="s">
+      <c r="E214" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F214" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3" t="s">
+      <c r="G214" s="4"/>
+      <c r="H214" s="4" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8860,68 +8874,68 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3" t="s">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C216" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D216" s="3" t="s">
+      <c r="C216" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E216" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F216" s="3" t="s">
+      <c r="E216" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F216" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3" t="s">
+      <c r="G216" s="4"/>
+      <c r="H216" s="4" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3" t="s">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D217" s="3" t="s">
+      <c r="C217" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D217" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E217" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F217" s="3" t="s">
+      <c r="E217" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F217" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3" t="s">
+      <c r="G217" s="4"/>
+      <c r="H217" s="4" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3" t="s">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D218" s="3" t="s">
+      <c r="C218" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D218" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E218" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F218" s="3" t="s">
+      <c r="E218" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F218" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3" t="s">
+      <c r="G218" s="4"/>
+      <c r="H218" s="4" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8946,134 +8960,134 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3" t="s">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C220" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D220" s="3" t="s">
+      <c r="C220" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D220" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E220" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F220" s="3" t="s">
+      <c r="E220" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F220" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3" t="s">
+      <c r="G220" s="4"/>
+      <c r="H220" s="4" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3" t="s">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D221" s="3" t="s">
+      <c r="C221" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D221" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E221" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F221" s="3" t="s">
+      <c r="E221" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F221" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3" t="s">
+      <c r="G221" s="4"/>
+      <c r="H221" s="4" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3" t="s">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C222" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D222" s="3" t="s">
+      <c r="C222" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E222" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F222" s="3" t="s">
+      <c r="E222" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F222" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3" t="s">
+      <c r="G222" s="4"/>
+      <c r="H222" s="4" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3" t="s">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C223" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D223" s="3" t="s">
+      <c r="C223" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E223" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F223" s="3" t="s">
+      <c r="E223" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F223" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3" t="s">
+      <c r="G223" s="4"/>
+      <c r="H223" s="4" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3" t="s">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C224" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D224" s="3" t="s">
+      <c r="C224" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D224" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E224" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F224" s="3" t="s">
+      <c r="E224" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F224" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3" t="s">
+      <c r="G224" s="4"/>
+      <c r="H224" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3" t="s">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C225" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D225" s="3" t="s">
+      <c r="C225" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D225" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="E225" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F225" s="3" t="s">
+      <c r="E225" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F225" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3" t="s">
+      <c r="G225" s="4"/>
+      <c r="H225" s="4" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9140,46 +9154,46 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3" t="s">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C229" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D229" s="3" t="s">
+      <c r="C229" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E229" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F229" s="3" t="s">
+      <c r="E229" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F229" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3" t="s">
+      <c r="G229" s="4"/>
+      <c r="H229" s="4" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3" t="s">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C230" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D230" s="3" t="s">
+      <c r="C230" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D230" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E230" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F230" s="3" t="s">
+      <c r="E230" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F230" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3" t="s">
+      <c r="G230" s="4"/>
+      <c r="H230" s="4" t="s">
         <v>417</v>
       </c>
     </row>
@@ -9204,46 +9218,46 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3" t="s">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C232" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D232" s="3" t="s">
+      <c r="C232" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E232" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F232" s="3" t="s">
+      <c r="E232" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F232" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3" t="s">
+      <c r="G232" s="4"/>
+      <c r="H232" s="4" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3" t="s">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C233" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D233" s="3" t="s">
+      <c r="C233" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D233" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E233" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F233" s="3" t="s">
+      <c r="E233" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F233" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3" t="s">
+      <c r="G233" s="4"/>
+      <c r="H233" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9253,24 +9267,24 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3" t="s">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C235" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D235" s="3" t="s">
+      <c r="C235" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E235" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F235" s="3" t="s">
+      <c r="E235" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F235" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3" t="s">
+      <c r="G235" s="4"/>
+      <c r="H235" s="4" t="s">
         <v>422</v>
       </c>
     </row>
@@ -9295,68 +9309,68 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3" t="s">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C237" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D237" s="3" t="s">
+      <c r="C237" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D237" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E237" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F237" s="3" t="s">
+      <c r="E237" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F237" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3" t="s">
+      <c r="G237" s="4"/>
+      <c r="H237" s="4" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3" t="s">
+      <c r="A238" s="4"/>
+      <c r="B238" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C238" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D238" s="3" t="s">
+      <c r="C238" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D238" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E238" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F238" s="3" t="s">
+      <c r="E238" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F238" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3" t="s">
+      <c r="G238" s="4"/>
+      <c r="H238" s="4" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3" t="s">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C239" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D239" s="3" t="s">
+      <c r="C239" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D239" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E239" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F239" s="3" t="s">
+      <c r="E239" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F239" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3" t="s">
+      <c r="G239" s="4"/>
+      <c r="H239" s="4" t="s">
         <v>425</v>
       </c>
     </row>
@@ -9423,46 +9437,46 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3" t="s">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C243" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D243" s="3" t="s">
+      <c r="C243" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D243" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="E243" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F243" s="3" t="s">
+      <c r="E243" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F243" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3" t="s">
+      <c r="G243" s="4"/>
+      <c r="H243" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3" t="s">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C244" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D244" s="3" t="s">
+      <c r="C244" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D244" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="E244" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F244" s="3" t="s">
+      <c r="E244" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F244" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3" t="s">
+      <c r="G244" s="4"/>
+      <c r="H244" s="4" t="s">
         <v>433</v>
       </c>
     </row>
@@ -9507,68 +9521,68 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3" t="s">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C247" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D247" s="3" t="s">
+      <c r="C247" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D247" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E247" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F247" s="3" t="s">
+      <c r="E247" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F247" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3" t="s">
+      <c r="G247" s="4"/>
+      <c r="H247" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3" t="s">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C248" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D248" s="3" t="s">
+      <c r="C248" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D248" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="E248" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F248" s="3" t="s">
+      <c r="E248" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F248" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3" t="s">
+      <c r="G248" s="4"/>
+      <c r="H248" s="4" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3" t="s">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C249" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D249" s="3" t="s">
+      <c r="C249" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D249" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E249" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F249" s="3" t="s">
+      <c r="E249" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F249" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3" t="s">
+      <c r="G249" s="4"/>
+      <c r="H249" s="4" t="s">
         <v>440</v>
       </c>
     </row>
@@ -9593,24 +9607,24 @@
       <c r="H250" s="3"/>
     </row>
     <row r="251">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3" t="s">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C251" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D251" s="3" t="s">
+      <c r="C251" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D251" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E251" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F251" s="3" t="s">
+      <c r="E251" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F251" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3" t="s">
+      <c r="G251" s="4"/>
+      <c r="H251" s="4" t="s">
         <v>441</v>
       </c>
     </row>
@@ -9675,68 +9689,68 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3" t="s">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D255" s="3" t="s">
+      <c r="C255" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D255" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E255" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F255" s="3" t="s">
+      <c r="E255" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F255" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G255" s="3"/>
-      <c r="H255" s="3" t="s">
+      <c r="G255" s="4"/>
+      <c r="H255" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3" t="s">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C256" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D256" s="3" t="s">
+      <c r="C256" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D256" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="E256" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F256" s="3" t="s">
+      <c r="E256" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F256" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G256" s="3"/>
-      <c r="H256" s="3" t="s">
+      <c r="G256" s="4"/>
+      <c r="H256" s="4" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3" t="s">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C257" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D257" s="3" t="s">
+      <c r="C257" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D257" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E257" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F257" s="3" t="s">
+      <c r="E257" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F257" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G257" s="3"/>
-      <c r="H257" s="3" t="s">
+      <c r="G257" s="4"/>
+      <c r="H257" s="4" t="s">
         <v>445</v>
       </c>
     </row>
@@ -9774,7 +9788,7 @@
       <c r="E259" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F259" s="3" t="s">
+      <c r="F259" s="5" t="s">
         <v>75</v>
       </c>
       <c r="G259" s="3"/>
@@ -9783,24 +9797,24 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3" t="s">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C260" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D260" s="3" t="s">
+      <c r="C260" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D260" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="E260" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F260" s="3" t="s">
+      <c r="E260" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F260" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G260" s="3"/>
-      <c r="H260" s="3" t="s">
+      <c r="G260" s="4"/>
+      <c r="H260" s="4" t="s">
         <v>449</v>
       </c>
     </row>
@@ -9825,24 +9839,24 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3" t="s">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C262" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D262" s="3" t="s">
+      <c r="C262" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D262" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E262" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F262" s="3" t="s">
+      <c r="E262" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G262" s="3"/>
-      <c r="H262" s="3" t="s">
+      <c r="G262" s="4"/>
+      <c r="H262" s="4" t="s">
         <v>450</v>
       </c>
     </row>
@@ -9867,46 +9881,46 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3" t="s">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C264" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D264" s="3" t="s">
+      <c r="C264" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D264" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="E264" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F264" s="3" t="s">
+      <c r="E264" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F264" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G264" s="3"/>
-      <c r="H264" s="3" t="s">
+      <c r="G264" s="4"/>
+      <c r="H264" s="4" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3" t="s">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C265" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D265" s="3" t="s">
+      <c r="C265" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D265" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E265" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F265" s="3" t="s">
+      <c r="E265" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F265" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3" t="s">
+      <c r="G265" s="4"/>
+      <c r="H265" s="4" t="s">
         <v>455</v>
       </c>
     </row>
@@ -9971,90 +9985,90 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3" t="s">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C269" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D269" s="3" t="s">
+      <c r="C269" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D269" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E269" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F269" s="3" t="s">
+      <c r="E269" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F269" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G269" s="3"/>
-      <c r="H269" s="3" t="s">
+      <c r="G269" s="4"/>
+      <c r="H269" s="4" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3" t="s">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C270" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D270" s="3" t="s">
+      <c r="C270" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D270" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E270" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F270" s="3" t="s">
+      <c r="E270" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F270" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G270" s="3"/>
-      <c r="H270" s="3" t="s">
+      <c r="G270" s="4"/>
+      <c r="H270" s="4" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3" t="s">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C271" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D271" s="3" t="s">
+      <c r="C271" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D271" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E271" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F271" s="3" t="s">
+      <c r="E271" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F271" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G271" s="3"/>
-      <c r="H271" s="3" t="s">
+      <c r="G271" s="4"/>
+      <c r="H271" s="4" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3"/>
-      <c r="B272" s="3" t="s">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C272" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D272" s="3" t="s">
+      <c r="C272" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D272" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="E272" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F272" s="3" t="s">
+      <c r="E272" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F272" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G272" s="3"/>
-      <c r="H272" s="3" t="s">
+      <c r="G272" s="4"/>
+      <c r="H272" s="4" t="s">
         <v>462</v>
       </c>
     </row>
@@ -10101,46 +10115,46 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3"/>
-      <c r="B275" s="3" t="s">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C275" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D275" s="3" t="s">
+      <c r="C275" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D275" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E275" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F275" s="3" t="s">
+      <c r="E275" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F275" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G275" s="3"/>
-      <c r="H275" s="3" t="s">
+      <c r="G275" s="4"/>
+      <c r="H275" s="4" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3"/>
-      <c r="B276" s="3" t="s">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C276" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D276" s="3" t="s">
+      <c r="C276" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D276" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E276" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F276" s="3" t="s">
+      <c r="E276" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F276" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G276" s="3"/>
-      <c r="H276" s="3" t="s">
+      <c r="G276" s="4"/>
+      <c r="H276" s="4" t="s">
         <v>464</v>
       </c>
     </row>
@@ -10165,46 +10179,46 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3"/>
-      <c r="B278" s="3" t="s">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C278" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D278" s="3" t="s">
+      <c r="C278" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D278" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E278" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F278" s="3" t="s">
+      <c r="E278" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F278" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G278" s="3"/>
-      <c r="H278" s="3" t="s">
+      <c r="G278" s="4"/>
+      <c r="H278" s="4" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3"/>
-      <c r="B279" s="3" t="s">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C279" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D279" s="3" t="s">
+      <c r="C279" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D279" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="E279" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F279" s="3" t="s">
+      <c r="E279" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F279" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G279" s="3"/>
-      <c r="H279" s="3" t="s">
+      <c r="G279" s="4"/>
+      <c r="H279" s="4" t="s">
         <v>471</v>
       </c>
     </row>
@@ -10254,46 +10268,46 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3"/>
-      <c r="B283" s="3" t="s">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C283" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D283" s="3" t="s">
+      <c r="C283" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E283" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F283" s="3" t="s">
+      <c r="E283" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F283" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G283" s="3"/>
-      <c r="H283" s="3" t="s">
+      <c r="G283" s="4"/>
+      <c r="H283" s="4" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3"/>
-      <c r="B284" s="3" t="s">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C284" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D284" s="3" t="s">
+      <c r="C284" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D284" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E284" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F284" s="3" t="s">
+      <c r="E284" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F284" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G284" s="3"/>
-      <c r="H284" s="3" t="s">
+      <c r="G284" s="4"/>
+      <c r="H284" s="4" t="s">
         <v>478</v>
       </c>
     </row>
@@ -10582,24 +10596,24 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="3"/>
-      <c r="B299" s="3" t="s">
+      <c r="A299" s="4"/>
+      <c r="B299" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C299" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D299" s="3" t="s">
+      <c r="C299" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D299" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="E299" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F299" s="3" t="s">
+      <c r="E299" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F299" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G299" s="3"/>
-      <c r="H299" s="3" t="s">
+      <c r="G299" s="4"/>
+      <c r="H299" s="4" t="s">
         <v>505</v>
       </c>
     </row>
@@ -10744,24 +10758,24 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="3"/>
-      <c r="B307" s="3" t="s">
+      <c r="A307" s="4"/>
+      <c r="B307" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C307" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D307" s="3" t="s">
+      <c r="C307" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D307" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E307" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F307" s="3" t="s">
+      <c r="E307" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F307" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G307" s="3"/>
-      <c r="H307" s="3" t="s">
+      <c r="G307" s="4"/>
+      <c r="H307" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -10806,24 +10820,24 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="3"/>
-      <c r="B310" s="3" t="s">
+      <c r="A310" s="4"/>
+      <c r="B310" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C310" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D310" s="3" t="s">
+      <c r="C310" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D310" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="E310" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F310" s="3" t="s">
+      <c r="E310" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F310" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G310" s="3"/>
-      <c r="H310" s="3" t="s">
+      <c r="G310" s="4"/>
+      <c r="H310" s="4" t="s">
         <v>525</v>
       </c>
     </row>
@@ -10848,68 +10862,68 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="3"/>
-      <c r="B312" s="3" t="s">
+      <c r="A312" s="4"/>
+      <c r="B312" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C312" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D312" s="3" t="s">
+      <c r="C312" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D312" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E312" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F312" s="3" t="s">
+      <c r="E312" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F312" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G312" s="3"/>
-      <c r="H312" s="3" t="s">
+      <c r="G312" s="4"/>
+      <c r="H312" s="4" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="3"/>
-      <c r="B313" s="3" t="s">
+      <c r="A313" s="4"/>
+      <c r="B313" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C313" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D313" s="3" t="s">
+      <c r="C313" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D313" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="E313" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F313" s="3" t="s">
+      <c r="E313" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F313" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="G313" s="3"/>
-      <c r="H313" s="3" t="s">
+      <c r="G313" s="4"/>
+      <c r="H313" s="4" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="3"/>
-      <c r="B314" s="3" t="s">
+      <c r="A314" s="4"/>
+      <c r="B314" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C314" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D314" s="3" t="s">
+      <c r="C314" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D314" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E314" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F314" s="3" t="s">
+      <c r="E314" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F314" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G314" s="3"/>
-      <c r="H314" s="3" t="s">
+      <c r="G314" s="4"/>
+      <c r="H314" s="4" t="s">
         <v>536</v>
       </c>
     </row>
@@ -10934,24 +10948,24 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3"/>
-      <c r="B316" s="3" t="s">
+      <c r="A316" s="4"/>
+      <c r="B316" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C316" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D316" s="3" t="s">
+      <c r="C316" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D316" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="E316" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F316" s="3" t="s">
+      <c r="E316" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F316" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G316" s="3"/>
-      <c r="H316" s="3" t="s">
+      <c r="G316" s="4"/>
+      <c r="H316" s="4" t="s">
         <v>540</v>
       </c>
     </row>
@@ -10996,24 +11010,24 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="3"/>
-      <c r="B319" s="3" t="s">
+      <c r="A319" s="4"/>
+      <c r="B319" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C319" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D319" s="3" t="s">
+      <c r="C319" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D319" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="E319" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F319" s="3" t="s">
+      <c r="E319" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F319" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G319" s="3"/>
-      <c r="H319" s="3" t="s">
+      <c r="G319" s="4"/>
+      <c r="H319" s="4" t="s">
         <v>543</v>
       </c>
     </row>
@@ -11102,24 +11116,24 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="3"/>
-      <c r="B324" s="3" t="s">
+      <c r="A324" s="4"/>
+      <c r="B324" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C324" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D324" s="3" t="s">
+      <c r="C324" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D324" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="E324" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F324" s="3" t="s">
+      <c r="E324" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F324" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G324" s="3"/>
-      <c r="H324" s="3" t="s">
+      <c r="G324" s="4"/>
+      <c r="H324" s="4" t="s">
         <v>553</v>
       </c>
     </row>
@@ -11166,24 +11180,24 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3"/>
-      <c r="B327" s="3" t="s">
+      <c r="A327" s="4"/>
+      <c r="B327" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C327" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D327" s="3" t="s">
+      <c r="C327" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D327" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E327" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F327" s="3" t="s">
+      <c r="E327" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F327" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G327" s="3"/>
-      <c r="H327" s="3" t="s">
+      <c r="G327" s="4"/>
+      <c r="H327" s="4" t="s">
         <v>558</v>
       </c>
     </row>
@@ -11208,24 +11222,24 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3"/>
-      <c r="B329" s="3" t="s">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C329" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D329" s="3" t="s">
+      <c r="C329" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D329" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E329" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F329" s="3" t="s">
+      <c r="E329" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F329" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G329" s="3"/>
-      <c r="H329" s="3" t="s">
+      <c r="G329" s="4"/>
+      <c r="H329" s="4" t="s">
         <v>450</v>
       </c>
     </row>
@@ -11250,24 +11264,24 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3"/>
-      <c r="B331" s="3" t="s">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C331" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D331" s="3" t="s">
+      <c r="C331" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D331" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E331" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F331" s="3" t="s">
+      <c r="E331" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F331" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G331" s="3"/>
-      <c r="H331" s="3" t="s">
+      <c r="G331" s="4"/>
+      <c r="H331" s="4" t="s">
         <v>560</v>
       </c>
     </row>
@@ -11305,7 +11319,7 @@
       <c r="E333" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F333" s="3" t="s">
+      <c r="F333" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G333" s="3"/>
@@ -11314,24 +11328,24 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="3"/>
-      <c r="B334" s="3" t="s">
+      <c r="A334" s="4"/>
+      <c r="B334" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C334" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D334" s="3" t="s">
+      <c r="C334" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D334" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="E334" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F334" s="3" t="s">
+      <c r="E334" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F334" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G334" s="3"/>
-      <c r="H334" s="3" t="s">
+      <c r="G334" s="4"/>
+      <c r="H334" s="4" t="s">
         <v>567</v>
       </c>
     </row>
@@ -11398,24 +11412,24 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="3"/>
-      <c r="B338" s="3" t="s">
+      <c r="A338" s="4"/>
+      <c r="B338" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C338" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D338" s="3" t="s">
+      <c r="C338" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D338" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E338" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F338" s="3" t="s">
+      <c r="E338" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F338" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G338" s="3"/>
-      <c r="H338" s="3" t="s">
+      <c r="G338" s="4"/>
+      <c r="H338" s="4" t="s">
         <v>570</v>
       </c>
     </row>
@@ -11773,46 +11787,46 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="3"/>
-      <c r="B357" s="3" t="s">
+      <c r="A357" s="4"/>
+      <c r="B357" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="C357" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D357" s="3" t="s">
+      <c r="C357" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D357" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="E357" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F357" s="3" t="s">
+      <c r="E357" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F357" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G357" s="3"/>
-      <c r="H357" s="3" t="s">
+      <c r="G357" s="4"/>
+      <c r="H357" s="4" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="3"/>
-      <c r="B358" s="3" t="s">
+      <c r="A358" s="4"/>
+      <c r="B358" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C358" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D358" s="3" t="s">
+      <c r="C358" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D358" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="E358" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F358" s="3" t="s">
+      <c r="E358" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F358" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G358" s="3"/>
-      <c r="H358" s="3" t="s">
+      <c r="G358" s="4"/>
+      <c r="H358" s="4" t="s">
         <v>612</v>
       </c>
     </row>
@@ -11857,24 +11871,24 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="3"/>
-      <c r="B361" s="3" t="s">
+      <c r="A361" s="4"/>
+      <c r="B361" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C361" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D361" s="3" t="s">
+      <c r="C361" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D361" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="E361" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F361" s="3" t="s">
+      <c r="E361" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F361" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="G361" s="3"/>
-      <c r="H361" s="3" t="s">
+      <c r="G361" s="4"/>
+      <c r="H361" s="4" t="s">
         <v>620</v>
       </c>
     </row>
@@ -11981,24 +11995,24 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="3"/>
-      <c r="B367" s="3" t="s">
+      <c r="A367" s="4"/>
+      <c r="B367" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C367" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D367" s="3" t="s">
+      <c r="C367" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D367" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="E367" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F367" s="3" t="s">
+      <c r="E367" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F367" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G367" s="3"/>
-      <c r="H367" s="3" t="s">
+      <c r="G367" s="4"/>
+      <c r="H367" s="4" t="s">
         <v>634</v>
       </c>
     </row>
@@ -12125,90 +12139,90 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="3"/>
-      <c r="B374" s="3" t="s">
+      <c r="A374" s="4"/>
+      <c r="B374" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="C374" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D374" s="3" t="s">
+      <c r="C374" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D374" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="E374" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F374" s="3" t="s">
+      <c r="E374" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F374" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G374" s="3"/>
-      <c r="H374" s="3" t="s">
+      <c r="G374" s="4"/>
+      <c r="H374" s="4" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="3"/>
-      <c r="B375" s="3" t="s">
+      <c r="A375" s="4"/>
+      <c r="B375" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="C375" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D375" s="3" t="s">
+      <c r="C375" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D375" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="E375" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F375" s="3" t="s">
+      <c r="E375" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F375" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G375" s="3"/>
-      <c r="H375" s="3" t="s">
+      <c r="G375" s="4"/>
+      <c r="H375" s="4" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="3"/>
-      <c r="B376" s="3" t="s">
+      <c r="A376" s="4"/>
+      <c r="B376" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C376" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D376" s="3" t="s">
+      <c r="C376" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D376" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="E376" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F376" s="3" t="s">
+      <c r="E376" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F376" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G376" s="3"/>
-      <c r="H376" s="3" t="s">
+      <c r="G376" s="4"/>
+      <c r="H376" s="4" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="3"/>
-      <c r="B377" s="3" t="s">
+      <c r="A377" s="4"/>
+      <c r="B377" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C377" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D377" s="3" t="s">
+      <c r="C377" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D377" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="E377" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F377" s="3" t="s">
+      <c r="E377" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F377" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G377" s="3"/>
-      <c r="H377" s="3" t="s">
+      <c r="G377" s="4"/>
+      <c r="H377" s="4" t="s">
         <v>653</v>
       </c>
     </row>
@@ -12315,24 +12329,24 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="3"/>
-      <c r="B383" s="3" t="s">
+      <c r="A383" s="4"/>
+      <c r="B383" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="C383" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D383" s="3" t="s">
+      <c r="C383" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D383" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="E383" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F383" s="3" t="s">
+      <c r="E383" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F383" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="G383" s="3"/>
-      <c r="H383" s="3" t="s">
+      <c r="G383" s="4"/>
+      <c r="H383" s="4" t="s">
         <v>668</v>
       </c>
     </row>
@@ -12413,13 +12427,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -12602,24 +12616,24 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
         <v>687</v>
       </c>
     </row>
@@ -12666,24 +12680,24 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
         <v>691</v>
       </c>
     </row>
@@ -12721,7 +12735,7 @@
       <c r="E24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>693</v>
       </c>
       <c r="G24" s="3"/>
@@ -12876,46 +12890,46 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
         <v>703</v>
       </c>
     </row>
@@ -13112,24 +13126,24 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3" t="s">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
         <v>739</v>
       </c>
     </row>
@@ -13176,68 +13190,68 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="E45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3" t="s">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="E46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3" t="s">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="E47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4" t="s">
         <v>747</v>
       </c>
     </row>
@@ -13262,46 +13276,46 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="E49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="E50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3" t="s">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
         <v>754</v>
       </c>
     </row>
@@ -13326,68 +13340,68 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="E52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="C53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="E53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3" t="s">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="C54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="E54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3" t="s">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4" t="s">
         <v>764</v>
       </c>
     </row>
@@ -13517,68 +13531,68 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="E62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3" t="s">
+      <c r="G62" s="4"/>
+      <c r="H62" s="4" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="E63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
+      <c r="G63" s="4"/>
+      <c r="H63" s="4" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="C64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="E64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3" t="s">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4" t="s">
         <v>479</v>
       </c>
     </row>
@@ -13845,24 +13859,24 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3" t="s">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="C78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="E78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3" t="s">
+      <c r="G78" s="4"/>
+      <c r="H78" s="4" t="s">
         <v>505</v>
       </c>
     </row>
@@ -14007,24 +14021,24 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3" t="s">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="C86" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="E86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3" t="s">
+      <c r="G86" s="4"/>
+      <c r="H86" s="4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -14069,24 +14083,24 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3" t="s">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="C89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="E89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3" t="s">
+      <c r="G89" s="4"/>
+      <c r="H89" s="4" t="s">
         <v>525</v>
       </c>
     </row>
@@ -14111,68 +14125,68 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3" t="s">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3" t="s">
+      <c r="G91" s="4"/>
+      <c r="H91" s="4" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3" t="s">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="C92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" s="3" t="s">
+      <c r="E92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3" t="s">
+      <c r="G92" s="4"/>
+      <c r="H92" s="4" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3" t="s">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="C93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="E93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3" t="s">
+      <c r="G93" s="4"/>
+      <c r="H93" s="4" t="s">
         <v>536</v>
       </c>
     </row>
@@ -14197,24 +14211,24 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="C95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="3" t="s">
+      <c r="E95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3" t="s">
+      <c r="G95" s="4"/>
+      <c r="H95" s="4" t="s">
         <v>540</v>
       </c>
     </row>
@@ -14259,24 +14273,24 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3" t="s">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="C98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" s="3" t="s">
+      <c r="E98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3" t="s">
+      <c r="G98" s="4"/>
+      <c r="H98" s="4" t="s">
         <v>543</v>
       </c>
     </row>
@@ -14321,24 +14335,24 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3" t="s">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="3" t="s">
+      <c r="E101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3" t="s">
+      <c r="G101" s="4"/>
+      <c r="H101" s="4" t="s">
         <v>547</v>
       </c>
     </row>
@@ -14365,24 +14379,24 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3" t="s">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="C103" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="3" t="s">
+      <c r="E103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3" t="s">
+      <c r="G103" s="4"/>
+      <c r="H103" s="4" t="s">
         <v>553</v>
       </c>
     </row>
@@ -14407,46 +14421,46 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3" t="s">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="C105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" s="3" t="s">
+      <c r="E105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3" t="s">
+      <c r="G105" s="4"/>
+      <c r="H105" s="4" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3" t="s">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="C106" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="3" t="s">
+      <c r="E106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3" t="s">
+      <c r="G106" s="4"/>
+      <c r="H106" s="4" t="s">
         <v>558</v>
       </c>
     </row>
@@ -14471,24 +14485,24 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3" t="s">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D108" s="3" t="s">
+      <c r="C108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="3" t="s">
+      <c r="E108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3" t="s">
+      <c r="G108" s="4"/>
+      <c r="H108" s="4" t="s">
         <v>450</v>
       </c>
     </row>
@@ -14513,24 +14527,24 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3" t="s">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D110" s="3" t="s">
+      <c r="C110" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="E110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3" t="s">
+      <c r="G110" s="4"/>
+      <c r="H110" s="4" t="s">
         <v>560</v>
       </c>
     </row>
@@ -14568,7 +14582,7 @@
       <c r="E112" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F112" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G112" s="3"/>
@@ -14577,24 +14591,24 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3" t="s">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D113" s="3" t="s">
+      <c r="C113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="3" t="s">
+      <c r="E113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3" t="s">
+      <c r="G113" s="4"/>
+      <c r="H113" s="4" t="s">
         <v>567</v>
       </c>
     </row>
@@ -14619,24 +14633,24 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3" t="s">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D115" s="3" t="s">
+      <c r="C115" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="3" t="s">
+      <c r="E115" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3" t="s">
+      <c r="G115" s="4"/>
+      <c r="H115" s="4" t="s">
         <v>568</v>
       </c>
     </row>
@@ -14661,24 +14675,24 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3" t="s">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117" s="3" t="s">
+      <c r="C117" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="3" t="s">
+      <c r="E117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3" t="s">
+      <c r="G117" s="4"/>
+      <c r="H117" s="4" t="s">
         <v>570</v>
       </c>
     </row>
@@ -14830,24 +14844,24 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3" t="s">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D126" s="3" t="s">
+      <c r="C126" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" s="3" t="s">
+      <c r="E126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3" t="s">
+      <c r="G126" s="4"/>
+      <c r="H126" s="4" t="s">
         <v>587</v>
       </c>
     </row>
@@ -15036,46 +15050,46 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3" t="s">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D136" s="3" t="s">
+      <c r="C136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="E136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3" t="s">
+      <c r="G136" s="4"/>
+      <c r="H136" s="4" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3" t="s">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D137" s="3" t="s">
+      <c r="C137" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="3" t="s">
+      <c r="E137" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3" t="s">
+      <c r="G137" s="4"/>
+      <c r="H137" s="4" t="s">
         <v>612</v>
       </c>
     </row>
@@ -15120,24 +15134,24 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3" t="s">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D140" s="3" t="s">
+      <c r="C140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" s="3" t="s">
+      <c r="E140" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3" t="s">
+      <c r="G140" s="4"/>
+      <c r="H140" s="4" t="s">
         <v>620</v>
       </c>
     </row>
@@ -15244,24 +15258,24 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3" t="s">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D146" s="3" t="s">
+      <c r="C146" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" s="3" t="s">
+      <c r="E146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3" t="s">
+      <c r="G146" s="4"/>
+      <c r="H146" s="4" t="s">
         <v>634</v>
       </c>
     </row>
@@ -15326,24 +15340,24 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3" t="s">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D150" s="3" t="s">
+      <c r="C150" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F150" s="3" t="s">
+      <c r="E150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3" t="s">
+      <c r="G150" s="4"/>
+      <c r="H150" s="4" t="s">
         <v>638</v>
       </c>
     </row>
@@ -15388,90 +15402,90 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3" t="s">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D153" s="3" t="s">
+      <c r="C153" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153" s="3" t="s">
+      <c r="E153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3" t="s">
+      <c r="G153" s="4"/>
+      <c r="H153" s="4" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3" t="s">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="C154" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154" s="3" t="s">
+      <c r="E154" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3" t="s">
+      <c r="G154" s="4"/>
+      <c r="H154" s="4" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3" t="s">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D155" s="3" t="s">
+      <c r="C155" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F155" s="3" t="s">
+      <c r="E155" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3" t="s">
+      <c r="G155" s="4"/>
+      <c r="H155" s="4" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3" t="s">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D156" s="3" t="s">
+      <c r="C156" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F156" s="3" t="s">
+      <c r="E156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3" t="s">
+      <c r="G156" s="4"/>
+      <c r="H156" s="4" t="s">
         <v>653</v>
       </c>
     </row>
@@ -15578,46 +15592,46 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3" t="s">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D162" s="3" t="s">
+      <c r="C162" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F162" s="3" t="s">
+      <c r="E162" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3" t="s">
+      <c r="G162" s="4"/>
+      <c r="H162" s="4" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3" t="s">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D163" s="3" t="s">
+      <c r="C163" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" s="3" t="s">
+      <c r="E163" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3" t="s">
+      <c r="G163" s="4"/>
+      <c r="H163" s="4" t="s">
         <v>671</v>
       </c>
     </row>
@@ -15722,7 +15736,7 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H8" t="s">
@@ -15762,7 +15776,7 @@
       <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H10" t="s">
@@ -16761,7 +16775,7 @@
       <c r="E61" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H61" t="s">
@@ -16786,7 +16800,7 @@
       <c r="E63" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H63" t="s">
@@ -17383,7 +17397,7 @@
       <c r="E93" t="s">
         <v>19</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H93" t="s">
@@ -17865,7 +17879,7 @@
       <c r="E118" t="s">
         <v>19</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H118" t="s">
@@ -17885,7 +17899,7 @@
       <c r="E119" t="s">
         <v>19</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F119" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H119" t="s">
@@ -18487,7 +18501,7 @@
       <c r="E150" t="s">
         <v>19</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="F150" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H150" t="s">
@@ -18607,7 +18621,7 @@
       <c r="E156" t="s">
         <v>19</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F156" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H156" t="s">
@@ -19172,7 +19186,7 @@
       <c r="E185" t="s">
         <v>19</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="F185" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H185" t="s">
@@ -19309,7 +19323,7 @@
       <c r="E192" t="s">
         <v>19</v>
       </c>
-      <c r="F192" s="3" t="s">
+      <c r="F192" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H192" t="s">
@@ -19329,7 +19343,7 @@
       <c r="E193" t="s">
         <v>19</v>
       </c>
-      <c r="F193" s="3" t="s">
+      <c r="F193" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H193" t="s">
@@ -20011,7 +20025,7 @@
       <c r="E228" t="s">
         <v>19</v>
       </c>
-      <c r="F228" s="3" t="s">
+      <c r="F228" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H228" t="s">
@@ -20091,7 +20105,7 @@
       <c r="E232" t="s">
         <v>19</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="F232" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H232" t="s">
@@ -20793,7 +20807,7 @@
       <c r="E268" t="s">
         <v>19</v>
       </c>
-      <c r="F268" s="3" t="s">
+      <c r="F268" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H268" t="s">
@@ -20873,7 +20887,7 @@
       <c r="E272" t="s">
         <v>19</v>
       </c>
-      <c r="F272" s="3" t="s">
+      <c r="F272" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H272" t="s">
@@ -21578,7 +21592,7 @@
       <c r="E308" t="s">
         <v>19</v>
       </c>
-      <c r="F308" s="3" t="s">
+      <c r="F308" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H308" t="s">
@@ -21675,7 +21689,7 @@
       <c r="E313" t="s">
         <v>19</v>
       </c>
-      <c r="F313" s="3" t="s">
+      <c r="F313" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H313" t="s">
@@ -21895,7 +21909,7 @@
       <c r="E324" t="s">
         <v>19</v>
       </c>
-      <c r="F324" s="3" t="s">
+      <c r="F324" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H324" t="s">
@@ -22477,7 +22491,7 @@
       <c r="E354" t="s">
         <v>19</v>
       </c>
-      <c r="F354" s="3" t="s">
+      <c r="F354" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H354" t="s">
@@ -22517,7 +22531,7 @@
       <c r="E356" t="s">
         <v>19</v>
       </c>
-      <c r="F356" s="3" t="s">
+      <c r="F356" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H356" t="s">
@@ -23039,7 +23053,7 @@
       <c r="E383" t="s">
         <v>19</v>
       </c>
-      <c r="F383" s="3" t="s">
+      <c r="F383" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H383" t="s">
@@ -23641,7 +23655,7 @@
       <c r="E414" t="s">
         <v>19</v>
       </c>
-      <c r="F414" s="3" t="s">
+      <c r="F414" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H414" t="s">
@@ -23721,7 +23735,7 @@
       <c r="E418" t="s">
         <v>19</v>
       </c>
-      <c r="F418" s="3" t="s">
+      <c r="F418" s="5" t="s">
         <v>667</v>
       </c>
       <c r="H418" t="s">
@@ -24243,7 +24257,7 @@
       <c r="E445" t="s">
         <v>19</v>
       </c>
-      <c r="F445" s="3" t="s">
+      <c r="F445" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H445" t="s">
@@ -24588,7 +24602,7 @@
       <c r="E463" t="s">
         <v>19</v>
       </c>
-      <c r="F463" s="3" t="s">
+      <c r="F463" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H463" t="s">
@@ -24628,7 +24642,7 @@
       <c r="E465" t="s">
         <v>19</v>
       </c>
-      <c r="F465" s="3" t="s">
+      <c r="F465" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H465" t="s">
@@ -25065,7 +25079,7 @@
       <c r="E487" t="s">
         <v>19</v>
       </c>
-      <c r="F487" s="3" t="s">
+      <c r="F487" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H487" t="s">
@@ -25470,7 +25484,7 @@
       <c r="E508" t="s">
         <v>19</v>
       </c>
-      <c r="F508" s="3" t="s">
+      <c r="F508" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H508" t="s">
@@ -25530,7 +25544,7 @@
       <c r="E511" t="s">
         <v>19</v>
       </c>
-      <c r="F511" s="3" t="s">
+      <c r="F511" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H511" t="s">
@@ -25590,7 +25604,7 @@
       <c r="E514" t="s">
         <v>19</v>
       </c>
-      <c r="F514" s="3" t="s">
+      <c r="F514" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H514" t="s">
@@ -25707,7 +25721,7 @@
       <c r="E520" t="s">
         <v>19</v>
       </c>
-      <c r="F520" s="3" t="s">
+      <c r="F520" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H520" t="s">
@@ -25787,7 +25801,7 @@
       <c r="E524" t="s">
         <v>19</v>
       </c>
-      <c r="F524" s="3" t="s">
+      <c r="F524" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H524" t="s">
@@ -26147,7 +26161,7 @@
       <c r="E542" t="s">
         <v>19</v>
       </c>
-      <c r="F542" s="3" t="s">
+      <c r="F542" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H542" t="s">
@@ -26791,7 +26805,7 @@
       <c r="E576" t="s">
         <v>19</v>
       </c>
-      <c r="F576" s="3" t="s">
+      <c r="F576" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H576" t="s">
@@ -27011,7 +27025,7 @@
       <c r="E587" t="s">
         <v>19</v>
       </c>
-      <c r="F587" s="3" t="s">
+      <c r="F587" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H587" t="s">
@@ -27056,7 +27070,7 @@
       <c r="E590" t="s">
         <v>19</v>
       </c>
-      <c r="F590" s="3" t="s">
+      <c r="F590" s="5" t="s">
         <v>1220</v>
       </c>
       <c r="H590" t="s">
@@ -27193,7 +27207,7 @@
       <c r="E597" t="s">
         <v>19</v>
       </c>
-      <c r="F597" s="3" t="s">
+      <c r="F597" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H597" t="s">
@@ -27655,7 +27669,7 @@
       <c r="E621" t="s">
         <v>19</v>
       </c>
-      <c r="F621" s="3" t="s">
+      <c r="F621" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H621" t="s">
@@ -27675,7 +27689,7 @@
       <c r="E622" t="s">
         <v>19</v>
       </c>
-      <c r="F622" s="3" t="s">
+      <c r="F622" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H622" t="s">
@@ -27695,7 +27709,7 @@
       <c r="E623" t="s">
         <v>19</v>
       </c>
-      <c r="F623" s="3" t="s">
+      <c r="F623" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H623" t="s">
@@ -27775,7 +27789,7 @@
       <c r="E627" t="s">
         <v>19</v>
       </c>
-      <c r="F627" s="3" t="s">
+      <c r="F627" s="5" t="s">
         <v>693</v>
       </c>
       <c r="H627" t="s">
@@ -27995,7 +28009,7 @@
       <c r="E638" t="s">
         <v>19</v>
       </c>
-      <c r="F638" s="3" t="s">
+      <c r="F638" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H638" t="s">
@@ -28220,7 +28234,7 @@
       <c r="E650" t="s">
         <v>19</v>
       </c>
-      <c r="F650" s="3" t="s">
+      <c r="F650" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H650" t="s">
@@ -28337,7 +28351,7 @@
       <c r="E656" t="s">
         <v>19</v>
       </c>
-      <c r="F656" s="3" t="s">
+      <c r="F656" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H656" t="s">
@@ -28662,7 +28676,7 @@
       <c r="E673" t="s">
         <v>19</v>
       </c>
-      <c r="F673" s="3" t="s">
+      <c r="F673" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H673" t="s">
@@ -29124,7 +29138,7 @@
       <c r="E697" t="s">
         <v>19</v>
       </c>
-      <c r="F697" s="3" t="s">
+      <c r="F697" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H697" t="s">
@@ -29321,7 +29335,7 @@
       <c r="E707" t="s">
         <v>19</v>
       </c>
-      <c r="F707" s="3" t="s">
+      <c r="F707" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H707" t="s">
@@ -29401,7 +29415,7 @@
       <c r="E711" t="s">
         <v>19</v>
       </c>
-      <c r="F711" s="3" t="s">
+      <c r="F711" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H711" t="s">
@@ -29846,7 +29860,7 @@
       <c r="E734" t="s">
         <v>19</v>
       </c>
-      <c r="F734" s="3" t="s">
+      <c r="F734" s="5" t="s">
         <v>283</v>
       </c>
       <c r="H734" t="s">
@@ -30003,7 +30017,7 @@
       <c r="E742" t="s">
         <v>19</v>
       </c>
-      <c r="F742" s="3" t="s">
+      <c r="F742" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H742" t="s">
@@ -30063,7 +30077,7 @@
       <c r="E745" t="s">
         <v>19</v>
       </c>
-      <c r="F745" s="3" t="s">
+      <c r="F745" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H745" t="s">
@@ -30303,7 +30317,7 @@
       <c r="E757" t="s">
         <v>19</v>
       </c>
-      <c r="F757" s="3" t="s">
+      <c r="F757" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H757" t="s">
@@ -30648,7 +30662,7 @@
       <c r="E775" t="s">
         <v>19</v>
       </c>
-      <c r="F775" s="3" t="s">
+      <c r="F775" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H775" t="s">
@@ -30688,7 +30702,7 @@
       <c r="E777" t="s">
         <v>19</v>
       </c>
-      <c r="F777" s="3" t="s">
+      <c r="F777" s="5" t="s">
         <v>283</v>
       </c>
       <c r="H777" t="s">
@@ -31045,7 +31059,7 @@
       <c r="E795" t="s">
         <v>19</v>
       </c>
-      <c r="F795" s="3" t="s">
+      <c r="F795" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H795" t="s">
@@ -31405,7 +31419,7 @@
       <c r="E813" t="s">
         <v>19</v>
       </c>
-      <c r="F813" s="3" t="s">
+      <c r="F813" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H813" t="s">
@@ -31610,7 +31624,7 @@
       <c r="E824" t="s">
         <v>19</v>
       </c>
-      <c r="F824" s="3" t="s">
+      <c r="F824" s="5" t="s">
         <v>283</v>
       </c>
       <c r="H824" t="s">
@@ -31787,7 +31801,7 @@
       <c r="E833" t="s">
         <v>19</v>
       </c>
-      <c r="F833" s="3" t="s">
+      <c r="F833" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H833" t="s">
@@ -32392,7 +32406,7 @@
       <c r="E864" t="s">
         <v>19</v>
       </c>
-      <c r="F864" s="3" t="s">
+      <c r="F864" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H864" t="s">
@@ -32949,7 +32963,7 @@
       <c r="E892" t="s">
         <v>19</v>
       </c>
-      <c r="F892" s="3" t="s">
+      <c r="F892" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H892" t="s">
@@ -33069,7 +33083,7 @@
       <c r="E898" t="s">
         <v>19</v>
       </c>
-      <c r="F898" s="3" t="s">
+      <c r="F898" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H898" t="s">
@@ -33534,7 +33548,7 @@
       <c r="E922" t="s">
         <v>19</v>
       </c>
-      <c r="F922" s="3" t="s">
+      <c r="F922" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H922" t="s">
@@ -33554,7 +33568,7 @@
       <c r="E923" t="s">
         <v>19</v>
       </c>
-      <c r="F923" s="3" t="s">
+      <c r="F923" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H923" t="s">
@@ -33871,7 +33885,7 @@
       <c r="E939" t="s">
         <v>19</v>
       </c>
-      <c r="F939" s="3" t="s">
+      <c r="F939" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H939" t="s">
@@ -34051,7 +34065,7 @@
       <c r="E948" t="s">
         <v>19</v>
       </c>
-      <c r="F948" s="3" t="s">
+      <c r="F948" s="5" t="s">
         <v>667</v>
       </c>
       <c r="H948" t="s">
@@ -34376,7 +34390,7 @@
       <c r="E965" t="s">
         <v>19</v>
       </c>
-      <c r="F965" s="3" t="s">
+      <c r="F965" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H965" t="s">
@@ -34593,7 +34607,7 @@
       <c r="E976" t="s">
         <v>19</v>
       </c>
-      <c r="F976" s="3" t="s">
+      <c r="F976" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H976" t="s">
@@ -34713,7 +34727,7 @@
       <c r="E982" t="s">
         <v>19</v>
       </c>
-      <c r="F982" s="3" t="s">
+      <c r="F982" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H982" t="s">
@@ -35018,7 +35032,7 @@
       <c r="E998" t="s">
         <v>19</v>
       </c>
-      <c r="F998" s="3" t="s">
+      <c r="F998" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H998" t="s">
@@ -35435,7 +35449,7 @@
       <c r="E1019" t="s">
         <v>19</v>
       </c>
-      <c r="F1019" s="3" t="s">
+      <c r="F1019" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H1019" t="s">
@@ -35680,7 +35694,7 @@
       <c r="E1032" t="s">
         <v>19</v>
       </c>
-      <c r="F1032" s="3" t="s">
+      <c r="F1032" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H1032" t="s">
@@ -35760,7 +35774,7 @@
       <c r="E1036" t="s">
         <v>19</v>
       </c>
-      <c r="F1036" s="3" t="s">
+      <c r="F1036" s="5" t="s">
         <v>690</v>
       </c>
       <c r="H1036" t="s">
@@ -35800,7 +35814,7 @@
       <c r="E1038" t="s">
         <v>19</v>
       </c>
-      <c r="F1038" s="3" t="s">
+      <c r="F1038" s="5" t="s">
         <v>693</v>
       </c>
       <c r="H1038" t="s">
@@ -36017,7 +36031,7 @@
       <c r="E1049" t="s">
         <v>19</v>
       </c>
-      <c r="F1049" s="3" t="s">
+      <c r="F1049" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H1049" t="s">
@@ -36037,7 +36051,7 @@
       <c r="E1050" t="s">
         <v>19</v>
       </c>
-      <c r="F1050" s="3" t="s">
+      <c r="F1050" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H1050" t="s">
@@ -36257,7 +36271,7 @@
       <c r="E1061" t="s">
         <v>19</v>
       </c>
-      <c r="F1061" s="3" t="s">
+      <c r="F1061" s="5" t="s">
         <v>760</v>
       </c>
       <c r="H1061" t="s">
@@ -36719,7 +36733,7 @@
       <c r="E1085" t="s">
         <v>19</v>
       </c>
-      <c r="F1085" s="3" t="s">
+      <c r="F1085" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H1085" t="s">
@@ -36839,7 +36853,7 @@
       <c r="E1091" t="s">
         <v>19</v>
       </c>
-      <c r="F1091" s="3" t="s">
+      <c r="F1091" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H1091" t="s">
@@ -37521,7 +37535,7 @@
       <c r="E1126" t="s">
         <v>19</v>
       </c>
-      <c r="F1126" s="3" t="s">
+      <c r="F1126" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H1126" t="s">

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -4738,24 +4738,24 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5218,24 +5218,24 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="E39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -7705,24 +7705,24 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3" t="s">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D160" s="3" t="s">
+      <c r="C160" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F160" s="3" t="s">
+      <c r="E160" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3" t="s">
+      <c r="G160" s="4"/>
+      <c r="H160" s="4" t="s">
         <v>296</v>
       </c>
     </row>
@@ -8810,24 +8810,24 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3" t="s">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D213" s="3" t="s">
+      <c r="C213" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D213" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E213" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F213" s="3" t="s">
+      <c r="E213" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F213" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3" t="s">
+      <c r="G213" s="4"/>
+      <c r="H213" s="4" t="s">
         <v>390</v>
       </c>
     </row>
@@ -11534,24 +11534,24 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="3"/>
-      <c r="B344" s="3" t="s">
+      <c r="A344" s="4"/>
+      <c r="B344" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C344" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D344" s="3" t="s">
+      <c r="C344" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D344" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="E344" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F344" s="3" t="s">
+      <c r="E344" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F344" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="G344" s="3"/>
-      <c r="H344" s="3" t="s">
+      <c r="G344" s="4"/>
+      <c r="H344" s="4" t="s">
         <v>583</v>
       </c>
     </row>
@@ -11871,24 +11871,24 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="4"/>
-      <c r="B361" s="4" t="s">
+      <c r="A361" s="3"/>
+      <c r="B361" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C361" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D361" s="4" t="s">
+      <c r="C361" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D361" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="E361" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F361" s="4" t="s">
+      <c r="E361" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F361" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="G361" s="4"/>
-      <c r="H361" s="4" t="s">
+      <c r="G361" s="3"/>
+      <c r="H361" s="3" t="s">
         <v>620</v>
       </c>
     </row>
@@ -14797,24 +14797,24 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3" t="s">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D123" s="3" t="s">
+      <c r="C123" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" s="3" t="s">
+      <c r="E123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3" t="s">
+      <c r="G123" s="4"/>
+      <c r="H123" s="4" t="s">
         <v>583</v>
       </c>
     </row>
@@ -15134,24 +15134,24 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4" t="s">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D140" s="4" t="s">
+      <c r="C140" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" s="4" t="s">
+      <c r="E140" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4" t="s">
+      <c r="G140" s="3"/>
+      <c r="H140" s="3" t="s">
         <v>620</v>
       </c>
     </row>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -10354,24 +10354,24 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3"/>
-      <c r="B287" s="3" t="s">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C287" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D287" s="3" t="s">
+      <c r="C287" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D287" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E287" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F287" s="3" t="s">
+      <c r="E287" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F287" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G287" s="3"/>
-      <c r="H287" s="3" t="s">
+      <c r="G287" s="4"/>
+      <c r="H287" s="4" t="s">
         <v>481</v>
       </c>
     </row>
@@ -10386,7 +10386,7 @@
         <v>53</v>
       </c>
       <c r="E288" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F288" t="s">
         <v>40</v>
@@ -10486,7 +10486,7 @@
         <v>491</v>
       </c>
       <c r="E293" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F293" t="s">
         <v>40</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -10628,7 +10628,7 @@
         <v>506</v>
       </c>
       <c r="E300" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F300" t="s">
         <v>40</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -12506,24 +12506,24 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>678</v>
       </c>
     </row>
@@ -12594,24 +12594,24 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
         <v>684</v>
       </c>
     </row>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -5408,24 +5408,24 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="E48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6285,24 +6285,24 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4" t="s">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="C91" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="4" t="s">
+      <c r="E91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4" t="s">
+      <c r="G91" s="3"/>
+      <c r="H91" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7276,24 +7276,24 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4" t="s">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D139" s="4" t="s">
+      <c r="C139" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="4" t="s">
+      <c r="E139" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4" t="s">
+      <c r="G139" s="3"/>
+      <c r="H139" s="3" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8001,24 +8001,24 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4" t="s">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D174" s="4" t="s">
+      <c r="C174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E174" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F174" s="4" t="s">
+      <c r="E174" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F174" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4" t="s">
+      <c r="G174" s="3"/>
+      <c r="H174" s="3" t="s">
         <v>318</v>
       </c>
     </row>
@@ -9176,24 +9176,24 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="4"/>
-      <c r="B230" s="4" t="s">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C230" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D230" s="4" t="s">
+      <c r="C230" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E230" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F230" s="4" t="s">
+      <c r="E230" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F230" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G230" s="4"/>
-      <c r="H230" s="4" t="s">
+      <c r="G230" s="3"/>
+      <c r="H230" s="3" t="s">
         <v>417</v>
       </c>
     </row>
@@ -10137,24 +10137,24 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="4"/>
-      <c r="B276" s="4" t="s">
+      <c r="A276" s="3"/>
+      <c r="B276" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D276" s="4" t="s">
+      <c r="C276" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D276" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E276" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F276" s="4" t="s">
+      <c r="E276" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F276" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G276" s="4"/>
-      <c r="H276" s="4" t="s">
+      <c r="G276" s="3"/>
+      <c r="H276" s="3" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11412,24 +11412,24 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="4"/>
-      <c r="B338" s="4" t="s">
+      <c r="A338" s="3"/>
+      <c r="B338" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C338" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D338" s="4" t="s">
+      <c r="C338" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D338" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E338" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F338" s="4" t="s">
+      <c r="E338" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F338" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G338" s="4"/>
-      <c r="H338" s="4" t="s">
+      <c r="G338" s="3"/>
+      <c r="H338" s="3" t="s">
         <v>570</v>
       </c>
     </row>
@@ -14675,24 +14675,24 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4" t="s">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117" s="4" t="s">
+      <c r="C117" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="4" t="s">
+      <c r="E117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4" t="s">
+      <c r="G117" s="3"/>
+      <c r="H117" s="3" t="s">
         <v>570</v>
       </c>
     </row>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24722"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCBA6CE-4D8F-459C-A473-4B546FA0347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8786AFC5-126D-4C8F-A56D-9D9869E2481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9900" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9934" uniqueCount="1513">
   <si>
     <t>- additional custom columns or custom search parameters</t>
   </si>
@@ -2067,6 +2067,24 @@
     <t>The value in any kind of telecom details of the patient</t>
   </si>
   <si>
+    <t>EvidenceVariable</t>
+  </si>
+  <si>
+    <t>Computationally friendly name of the evidence variable</t>
+  </si>
+  <si>
+    <t>The description of the evidence variable</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>The business version of the evidence variable</t>
+  </si>
+  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -2344,24 +2362,6 @@
   </si>
   <si>
     <t>Facility where study activities are conducted</t>
-  </si>
-  <si>
-    <t>EvidenceVariable</t>
-  </si>
-  <si>
-    <t>Computationally friendly name of the evidence variable</t>
-  </si>
-  <si>
-    <t>The description of the evidence variable</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>The business version of the evidence variable</t>
   </si>
   <si>
     <t>List of all available resources. This sheet is used if no custom configuration is provided.</t>
@@ -4955,9 +4955,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H389"/>
+  <dimension ref="A2:H396"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A376" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I391" sqref="I391:I395"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12833,6 +12835,137 @@
         <v>678</v>
       </c>
     </row>
+    <row r="390" spans="1:8">
+      <c r="A390" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391" s="2"/>
+      <c r="B391" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G391" s="2"/>
+      <c r="H391" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="B392" t="s">
+        <v>660</v>
+      </c>
+      <c r="C392" t="s">
+        <v>17</v>
+      </c>
+      <c r="D392" t="s">
+        <v>660</v>
+      </c>
+      <c r="E392" t="s">
+        <v>19</v>
+      </c>
+      <c r="F392" t="s">
+        <v>29</v>
+      </c>
+      <c r="H392" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="A393" s="2"/>
+      <c r="B393" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G393" s="2"/>
+      <c r="H393" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="B394" t="s">
+        <v>135</v>
+      </c>
+      <c r="C394" t="s">
+        <v>17</v>
+      </c>
+      <c r="D394" t="s">
+        <v>135</v>
+      </c>
+      <c r="E394" t="s">
+        <v>19</v>
+      </c>
+      <c r="F394" t="s">
+        <v>29</v>
+      </c>
+      <c r="H394" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G395" s="2"/>
+      <c r="H395" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="B396" t="s">
+        <v>682</v>
+      </c>
+      <c r="C396" t="s">
+        <v>17</v>
+      </c>
+      <c r="D396" t="s">
+        <v>682</v>
+      </c>
+      <c r="E396" t="s">
+        <v>19</v>
+      </c>
+      <c r="F396" t="s">
+        <v>29</v>
+      </c>
+      <c r="H396" t="s">
+        <v>684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -12840,10 +12973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H171" sqref="H171"/>
+    <sheetView tabSelected="1" topLeftCell="H149" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I166" sqref="I166:I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12859,7 +12992,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -12888,7 +13021,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -12896,7 +13029,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -12927,7 +13060,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -12953,13 +13086,13 @@
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -12969,7 +13102,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -12991,7 +13124,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -13013,7 +13146,7 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -13035,19 +13168,19 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -13057,19 +13190,19 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -13079,7 +13212,7 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -13099,13 +13232,13 @@
         <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
@@ -13121,7 +13254,7 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -13139,11 +13272,11 @@
         <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -13163,7 +13296,7 @@
         <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -13181,23 +13314,23 @@
         <v>22</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
@@ -13207,7 +13340,7 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -13227,7 +13360,7 @@
         <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -13247,7 +13380,7 @@
         <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -13269,18 +13402,18 @@
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
@@ -13289,19 +13422,19 @@
         <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -13311,7 +13444,7 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -13331,7 +13464,7 @@
         <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -13353,7 +13486,7 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -13375,211 +13508,211 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>22</v>
@@ -13589,18 +13722,18 @@
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E43" t="s">
         <v>22</v>
@@ -13609,7 +13742,7 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -13631,7 +13764,7 @@
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -13653,19 +13786,19 @@
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>22</v>
@@ -13675,19 +13808,19 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>22</v>
@@ -13697,18 +13830,18 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
@@ -13717,19 +13850,19 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>22</v>
@@ -13739,19 +13872,19 @@
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -13761,18 +13894,18 @@
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
@@ -13781,19 +13914,19 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>22</v>
@@ -13803,41 +13936,41 @@
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -13847,18 +13980,18 @@
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -13867,18 +14000,18 @@
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
@@ -13887,7 +14020,7 @@
         <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -13907,18 +14040,18 @@
         <v>55</v>
       </c>
       <c r="H57" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="E58" t="s">
         <v>22</v>
@@ -13927,7 +14060,7 @@
         <v>29</v>
       </c>
       <c r="H58" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -16016,7 +16149,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:8">
       <c r="B161" t="s">
         <v>669</v>
       </c>
@@ -16036,7 +16169,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:8">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
         <v>671</v>
@@ -16058,7 +16191,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:8">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
         <v>675</v>
@@ -16080,7 +16213,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:8">
       <c r="B164" t="s">
         <v>675</v>
       </c>
@@ -16100,12 +16233,12 @@
         <v>678</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
         <v>660</v>
@@ -16124,13 +16257,10 @@
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="I166" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="B167" t="s">
         <v>660</v>
       </c>
@@ -16147,10 +16277,10 @@
         <v>29</v>
       </c>
       <c r="H167" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
         <v>135</v>
@@ -16169,13 +16299,10 @@
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="I168" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="B169" t="s">
         <v>135</v>
       </c>
@@ -16192,19 +16319,19 @@
         <v>29</v>
       </c>
       <c r="H169" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
-        <v>775</v>
+        <v>682</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>776</v>
+        <v>683</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>19</v>
@@ -16214,21 +16341,18 @@
       </c>
       <c r="G170" s="2"/>
       <c r="H170" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="I170" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="B171" t="s">
-        <v>775</v>
+        <v>682</v>
       </c>
       <c r="C171" t="s">
         <v>17</v>
       </c>
       <c r="D171" t="s">
-        <v>775</v>
+        <v>682</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
@@ -16237,7 +16361,7 @@
         <v>29</v>
       </c>
       <c r="H171" t="s">
-        <v>777</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -17617,13 +17741,13 @@
     </row>
     <row r="75" spans="2:8">
       <c r="B75" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -18234,13 +18358,13 @@
     </row>
     <row r="106" spans="1:8">
       <c r="B106" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C106" t="s">
         <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="E106" t="s">
         <v>19</v>
@@ -20080,13 +20204,13 @@
     </row>
     <row r="201" spans="2:8">
       <c r="B201" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C201" t="s">
         <v>32</v>
       </c>
       <c r="D201" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E201" t="s">
         <v>19</v>
@@ -28378,7 +28502,7 @@
         <v>22</v>
       </c>
       <c r="F627" s="4" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="H627" t="s">
         <v>1283</v>
@@ -29128,13 +29252,13 @@
     </row>
     <row r="666" spans="1:8">
       <c r="B666" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C666" t="s">
         <v>32</v>
       </c>
       <c r="D666" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="E666" t="s">
         <v>19</v>
@@ -29148,13 +29272,13 @@
     </row>
     <row r="667" spans="1:8">
       <c r="B667" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C667" t="s">
         <v>17</v>
       </c>
       <c r="D667" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="E667" t="s">
         <v>19</v>
@@ -36266,18 +36390,18 @@
     </row>
     <row r="1031" spans="1:8">
       <c r="A1031" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
       <c r="B1032" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C1032" t="s">
         <v>32</v>
       </c>
       <c r="D1032" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E1032" t="s">
         <v>22</v>
@@ -36286,7 +36410,7 @@
         <v>65</v>
       </c>
       <c r="H1032" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -36306,7 +36430,7 @@
         <v>42</v>
       </c>
       <c r="H1033" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -36326,12 +36450,12 @@
         <v>42</v>
       </c>
       <c r="H1034" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
       <c r="B1035" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C1035" t="s">
         <v>32</v>
@@ -36346,7 +36470,7 @@
         <v>42</v>
       </c>
       <c r="H1035" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -36363,10 +36487,10 @@
         <v>22</v>
       </c>
       <c r="F1036" s="4" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="H1036" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -36386,7 +36510,7 @@
         <v>92</v>
       </c>
       <c r="H1037" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -36403,21 +36527,21 @@
         <v>22</v>
       </c>
       <c r="F1038" s="4" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="H1038" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
       <c r="B1039" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C1039" t="s">
         <v>32</v>
       </c>
       <c r="D1039" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="E1039" t="s">
         <v>19</v>
@@ -36426,7 +36550,7 @@
         <v>40</v>
       </c>
       <c r="H1039" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -36446,7 +36570,7 @@
         <v>42</v>
       </c>
       <c r="H1040" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1041" spans="2:8">
@@ -36466,7 +36590,7 @@
         <v>42</v>
       </c>
       <c r="H1041" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1042" spans="2:8">
@@ -36503,7 +36627,7 @@
         <v>72</v>
       </c>
       <c r="H1043" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1044" spans="2:8">
@@ -36523,18 +36647,18 @@
         <v>72</v>
       </c>
       <c r="H1044" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1045" spans="2:8">
       <c r="B1045" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C1045" t="s">
         <v>17</v>
       </c>
       <c r="D1045" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E1045" t="s">
         <v>19</v>
@@ -36543,18 +36667,18 @@
         <v>42</v>
       </c>
       <c r="H1045" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1046" spans="2:8">
       <c r="B1046" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C1046" t="s">
         <v>32</v>
       </c>
       <c r="D1046" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="E1046" t="s">
         <v>19</v>
@@ -36563,7 +36687,7 @@
         <v>42</v>
       </c>
       <c r="H1046" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1047" spans="2:8">
@@ -36583,7 +36707,7 @@
         <v>42</v>
       </c>
       <c r="H1047" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1048" spans="2:8">
@@ -36603,7 +36727,7 @@
         <v>42</v>
       </c>
       <c r="H1048" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1049" spans="2:8">
@@ -36623,18 +36747,18 @@
         <v>77</v>
       </c>
       <c r="H1049" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1050" spans="2:8">
       <c r="B1050" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C1050" t="s">
         <v>32</v>
       </c>
       <c r="D1050" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="E1050" t="s">
         <v>22</v>
@@ -36643,18 +36767,18 @@
         <v>65</v>
       </c>
       <c r="H1050" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="1051" spans="2:8">
       <c r="B1051" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C1051" t="s">
         <v>17</v>
       </c>
       <c r="D1051" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E1051" t="s">
         <v>19</v>
@@ -36663,7 +36787,7 @@
         <v>37</v>
       </c>
       <c r="H1051" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1052" spans="2:8">
@@ -36683,7 +36807,7 @@
         <v>40</v>
       </c>
       <c r="H1052" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1053" spans="2:8">
@@ -36703,18 +36827,18 @@
         <v>235</v>
       </c>
       <c r="H1053" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="1054" spans="2:8">
       <c r="B1054" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="C1054" t="s">
         <v>32</v>
       </c>
       <c r="D1054" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E1054" t="s">
         <v>19</v>
@@ -36723,18 +36847,18 @@
         <v>42</v>
       </c>
       <c r="H1054" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1055" spans="2:8">
       <c r="B1055" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="C1055" t="s">
         <v>32</v>
       </c>
       <c r="D1055" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="E1055" t="s">
         <v>19</v>
@@ -36743,18 +36867,18 @@
         <v>42</v>
       </c>
       <c r="H1055" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1056" spans="2:8">
       <c r="B1056" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C1056" t="s">
         <v>17</v>
       </c>
       <c r="D1056" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="E1056" t="s">
         <v>19</v>
@@ -36763,18 +36887,18 @@
         <v>37</v>
       </c>
       <c r="H1056" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
       <c r="B1057" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C1057" t="s">
         <v>32</v>
       </c>
       <c r="D1057" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="E1057" t="s">
         <v>19</v>
@@ -36783,18 +36907,18 @@
         <v>40</v>
       </c>
       <c r="H1057" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
       <c r="B1058" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C1058" t="s">
         <v>32</v>
       </c>
       <c r="D1058" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E1058" t="s">
         <v>19</v>
@@ -36803,18 +36927,18 @@
         <v>40</v>
       </c>
       <c r="H1058" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
       <c r="B1059" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C1059" t="s">
         <v>17</v>
       </c>
       <c r="D1059" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="E1059" t="s">
         <v>19</v>
@@ -36823,18 +36947,18 @@
         <v>37</v>
       </c>
       <c r="H1059" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
       <c r="B1060" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="C1060" t="s">
         <v>32</v>
       </c>
       <c r="D1060" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E1060" t="s">
         <v>19</v>
@@ -36843,38 +36967,38 @@
         <v>42</v>
       </c>
       <c r="H1060" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
       <c r="B1061" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C1061" t="s">
         <v>32</v>
       </c>
       <c r="D1061" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="E1061" t="s">
         <v>22</v>
       </c>
       <c r="F1061" s="4" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="H1061" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
       <c r="B1062" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C1062" t="s">
         <v>32</v>
       </c>
       <c r="D1062" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="E1062" t="s">
         <v>19</v>
@@ -36883,18 +37007,18 @@
         <v>40</v>
       </c>
       <c r="H1062" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
       <c r="B1063" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C1063" t="s">
         <v>17</v>
       </c>
       <c r="D1063" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="E1063" t="s">
         <v>19</v>
@@ -36903,18 +37027,18 @@
         <v>37</v>
       </c>
       <c r="H1063" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
       <c r="B1064" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C1064" t="s">
         <v>32</v>
       </c>
       <c r="D1064" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E1064" t="s">
         <v>19</v>
@@ -36923,18 +37047,18 @@
         <v>40</v>
       </c>
       <c r="H1064" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
       <c r="B1065" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C1065" t="s">
         <v>17</v>
       </c>
       <c r="D1065" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="E1065" t="s">
         <v>19</v>
@@ -36943,7 +37067,7 @@
         <v>37</v>
       </c>
       <c r="H1065" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -36963,7 +37087,7 @@
         <v>55</v>
       </c>
       <c r="H1066" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -36983,18 +37107,18 @@
         <v>55</v>
       </c>
       <c r="H1067" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
       <c r="B1068" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C1068" t="s">
         <v>17</v>
       </c>
       <c r="D1068" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="E1068" t="s">
         <v>19</v>
@@ -37003,18 +37127,18 @@
         <v>29</v>
       </c>
       <c r="H1068" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
       <c r="B1069" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C1069" t="s">
         <v>32</v>
       </c>
       <c r="D1069" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="E1069" t="s">
         <v>19</v>
@@ -37023,7 +37147,7 @@
         <v>29</v>
       </c>
       <c r="H1069" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -37093,13 +37217,13 @@
     </row>
     <row r="1074" spans="2:8">
       <c r="B1074" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C1074" t="s">
         <v>17</v>
       </c>
       <c r="D1074" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="E1074" t="s">
         <v>19</v>
@@ -37113,7 +37237,7 @@
     </row>
     <row r="1075" spans="2:8">
       <c r="B1075" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C1075" t="s">
         <v>32</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -11642,7 +11642,7 @@
         <v>587</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F348" s="3" t="s">
         <v>588</v>
@@ -14905,7 +14905,7 @@
         <v>587</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>588</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -5831,7 +5831,7 @@
         <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F67" t="s">
         <v>30</v>
@@ -5841,24 +5841,24 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="C68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="E68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4" t="s">
+      <c r="G68" s="3"/>
+      <c r="H68" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
         <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F78" t="s">
         <v>154</v>
@@ -10484,24 +10484,24 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="4"/>
-      <c r="B292" s="4" t="s">
+      <c r="A292" s="3"/>
+      <c r="B292" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C292" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D292" s="4" t="s">
+      <c r="C292" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D292" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E292" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F292" s="4" t="s">
+      <c r="E292" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F292" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G292" s="4"/>
-      <c r="H292" s="4" t="s">
+      <c r="G292" s="3"/>
+      <c r="H292" s="3" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11202,24 +11202,24 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="4"/>
-      <c r="B327" s="4" t="s">
+      <c r="A327" s="3"/>
+      <c r="B327" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C327" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D327" s="4" t="s">
+      <c r="C327" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D327" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E327" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F327" s="4" t="s">
+      <c r="E327" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F327" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G327" s="4"/>
-      <c r="H327" s="4" t="s">
+      <c r="G327" s="3"/>
+      <c r="H327" s="3" t="s">
         <v>557</v>
       </c>
     </row>
@@ -12449,7 +12449,7 @@
         <v>673</v>
       </c>
       <c r="E387" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F387" t="s">
         <v>30</v>
@@ -12636,24 +12636,24 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>688</v>
       </c>
     </row>
@@ -13606,7 +13606,7 @@
         <v>686</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
         <v>30</v>
@@ -13767,24 +13767,24 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" s="4" t="s">
+      <c r="E67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4" t="s">
+      <c r="G67" s="3"/>
+      <c r="H67" s="3" t="s">
         <v>491</v>
       </c>
     </row>
@@ -15026,7 +15026,7 @@
         <v>598</v>
       </c>
       <c r="E128" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F128" t="s">
         <v>30</v>
@@ -15036,24 +15036,24 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3" t="s">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D129" s="3" t="s">
+      <c r="C129" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="3" t="s">
+      <c r="E129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3" t="s">
+      <c r="G129" s="4"/>
+      <c r="H129" s="4" t="s">
         <v>601</v>
       </c>
     </row>
@@ -15068,7 +15068,7 @@
         <v>602</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F130" t="s">
         <v>30</v>
@@ -15088,7 +15088,7 @@
         <v>604</v>
       </c>
       <c r="E131" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F131" t="s">
         <v>30</v>
@@ -15108,7 +15108,7 @@
         <v>606</v>
       </c>
       <c r="E132" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F132" t="s">
         <v>30</v>
@@ -15128,7 +15128,7 @@
         <v>608</v>
       </c>
       <c r="E133" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F133" t="s">
         <v>30</v>
@@ -15148,7 +15148,7 @@
         <v>610</v>
       </c>
       <c r="E134" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F134" t="s">
         <v>56</v>
@@ -15336,7 +15336,7 @@
         <v>634</v>
       </c>
       <c r="E143" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F143" t="s">
         <v>30</v>
@@ -15440,7 +15440,7 @@
         <v>645</v>
       </c>
       <c r="E148" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F148" t="s">
         <v>30</v>
@@ -15640,24 +15640,24 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3" t="s">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D158" s="3" t="s">
+      <c r="C158" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F158" s="3" t="s">
+      <c r="E158" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3" t="s">
+      <c r="G158" s="4"/>
+      <c r="H158" s="4" t="s">
         <v>667</v>
       </c>
     </row>
@@ -15672,7 +15672,7 @@
         <v>664</v>
       </c>
       <c r="E159" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F159" t="s">
         <v>30</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xieh3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E13247E5-0453-4506-8B14-7DEC34ACF885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC2DF78-8C13-4A7F-86BA-217B4ED198F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9901" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9926" uniqueCount="1513">
   <si>
     <t>Legend</t>
   </si>
@@ -12964,10 +12964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -13054,19 +13054,19 @@
     </row>
     <row r="12" spans="1:8" ht="15.6">
       <c r="A12" t="s">
-        <v>688</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
@@ -13075,767 +13075,748 @@
         <v>30</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="B14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>691</v>
+      <c r="H14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>692</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>693</v>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>694</v>
+      <c r="A17" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
-        <v>697</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>66</v>
+      <c r="F19" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6">
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s">
-        <v>693</v>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>701</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.6">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.6">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+    <row r="27" spans="1:8" ht="15.6">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="E27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
-      <c r="B23" t="s">
+    <row r="28" spans="1:8" ht="15.6">
+      <c r="B28" t="s">
         <v>93</v>
       </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
         <v>93</v>
       </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
         <v>93</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H28" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+    <row r="29" spans="1:8" ht="15.6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
         <v>707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.6">
-      <c r="B26" t="s">
-        <v>553</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>553</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.6">
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.6">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.6">
-      <c r="B29" t="s">
-        <v>712</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>712</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.6">
       <c r="B31" t="s">
-        <v>153</v>
+        <v>553</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>553</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
         <v>43</v>
       </c>
       <c r="H31" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.6">
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.6">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.6">
+      <c r="B34" t="s">
+        <v>712</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>712</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.6">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.6">
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
+    <row r="37" spans="1:8" ht="15.6">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="E37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
+    <row r="38" spans="1:8" ht="15.6">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="E38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
         <v>716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.6">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.6">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.6">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.6">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.6">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>719</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>719</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>719</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.6">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.6">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>749</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.6">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="B43" t="s">
-        <v>753</v>
-      </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>753</v>
-      </c>
-      <c r="E43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.6">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.6">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.6">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>43</v>
+      <c r="F47" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.6">
       <c r="B48" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="E48" t="s">
         <v>23</v>
@@ -13844,19 +13825,19 @@
         <v>38</v>
       </c>
       <c r="H48" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>763</v>
+        <v>227</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>764</v>
+        <v>228</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>23</v>
@@ -13866,61 +13847,63 @@
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>765</v>
+        <v>159</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>766</v>
+        <v>236</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>767</v>
+        <v>705</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.6">
-      <c r="B51" t="s">
-        <v>765</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>765</v>
-      </c>
-      <c r="E51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" t="s">
-        <v>767</v>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>23</v>
@@ -13930,41 +13913,39 @@
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.6">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
-        <v>774</v>
+      <c r="B53" t="s">
+        <v>761</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>761</v>
+      </c>
+      <c r="E53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>23</v>
@@ -13974,38 +13955,40 @@
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.6">
-      <c r="B55" t="s">
-        <v>775</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>775</v>
-      </c>
-      <c r="E55" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" t="s">
-        <v>777</v>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.6">
       <c r="B56" t="s">
-        <v>695</v>
+        <v>765</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>695</v>
+        <v>765</v>
       </c>
       <c r="E56" t="s">
         <v>23</v>
@@ -14014,331 +13997,337 @@
         <v>38</v>
       </c>
       <c r="H56" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.6">
+      <c r="B60" t="s">
+        <v>775</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>775</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.6">
+      <c r="B61" t="s">
+        <v>695</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>695</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s">
         <v>697</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.6">
-      <c r="B57" t="s">
-        <v>179</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>179</v>
-      </c>
-      <c r="E57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.6">
-      <c r="B58" t="s">
-        <v>689</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>689</v>
-      </c>
-      <c r="E58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.6">
-      <c r="A59" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.6">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.6">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.6">
       <c r="B62" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.6">
+      <c r="B63" t="s">
+        <v>689</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>689</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.6">
+      <c r="A64" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.6">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.6">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.6">
+      <c r="B67" t="s">
         <v>191</v>
       </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
         <v>191</v>
       </c>
-      <c r="E62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
         <v>38</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H67" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
+    <row r="68" spans="1:8" ht="15.6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="C68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="E68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4" t="s">
+    <row r="69" spans="1:8" ht="15.6">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C69" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="4" t="s">
+      <c r="E69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4" t="s">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4" t="s">
+    <row r="70" spans="1:8" ht="15.6">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C70" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="E70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4" t="s">
+      <c r="G70" s="4"/>
+      <c r="H70" s="4" t="s">
         <v>494</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.6">
-      <c r="B66" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" t="s">
-        <v>47</v>
-      </c>
-      <c r="E66" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.6">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.6">
-      <c r="B68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" t="s">
-        <v>43</v>
-      </c>
-      <c r="H68" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.6">
-      <c r="B69" t="s">
-        <v>498</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" t="s">
-        <v>498</v>
-      </c>
-      <c r="E69" t="s">
-        <v>23</v>
-      </c>
-      <c r="F69" t="s">
-        <v>171</v>
-      </c>
-      <c r="H69" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.6">
-      <c r="B70" t="s">
-        <v>500</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" t="s">
-        <v>500</v>
-      </c>
-      <c r="E70" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70" t="s">
-        <v>171</v>
-      </c>
-      <c r="H70" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.6">
       <c r="B71" t="s">
-        <v>502</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>502</v>
+        <v>47</v>
       </c>
       <c r="E71" t="s">
         <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="H71" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.6">
-      <c r="B72" t="s">
-        <v>504</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" t="s">
-        <v>504</v>
-      </c>
-      <c r="E72" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" t="s">
-        <v>171</v>
-      </c>
-      <c r="H72" t="s">
-        <v>505</v>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.6">
       <c r="B73" t="s">
-        <v>506</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>506</v>
+        <v>56</v>
       </c>
       <c r="E73" t="s">
         <v>23</v>
@@ -14347,18 +14336,18 @@
         <v>43</v>
       </c>
       <c r="H73" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.6">
       <c r="B74" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
@@ -14367,18 +14356,18 @@
         <v>171</v>
       </c>
       <c r="H74" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.6">
       <c r="B75" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
@@ -14387,493 +14376,489 @@
         <v>171</v>
       </c>
       <c r="H75" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.6">
       <c r="B76" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="E76" t="s">
         <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="H76" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.6">
       <c r="B77" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="E77" t="s">
         <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="H77" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.6">
       <c r="B78" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E78" t="s">
         <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.6">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4" t="s">
-        <v>520</v>
+      <c r="B79" t="s">
+        <v>508</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>508</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" t="s">
+        <v>171</v>
+      </c>
+      <c r="H79" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.6">
       <c r="B80" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="E80" t="s">
         <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="H80" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.6">
       <c r="B81" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="E81" t="s">
         <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.6">
       <c r="B82" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="E82" t="s">
         <v>23</v>
       </c>
       <c r="F82" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.6">
       <c r="B83" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="E83" t="s">
         <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="H83" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.6">
-      <c r="B84" t="s">
-        <v>529</v>
-      </c>
-      <c r="C84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" t="s">
-        <v>529</v>
-      </c>
-      <c r="E84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" t="s">
-        <v>43</v>
-      </c>
-      <c r="H84" t="s">
-        <v>530</v>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.6">
       <c r="B85" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="E85" t="s">
         <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="H85" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.6">
       <c r="B86" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E86" t="s">
         <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="H86" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.6">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4" t="s">
-        <v>537</v>
+      <c r="B87" t="s">
+        <v>525</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>525</v>
+      </c>
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" t="s">
+        <v>171</v>
+      </c>
+      <c r="H87" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.6">
       <c r="B88" t="s">
-        <v>93</v>
+        <v>527</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>527</v>
       </c>
       <c r="E88" t="s">
         <v>23</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="H88" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.6">
       <c r="B89" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="E89" t="s">
         <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H89" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.6">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4" t="s">
-        <v>540</v>
+      <c r="B90" t="s">
+        <v>531</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>531</v>
+      </c>
+      <c r="E90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" t="s">
+        <v>282</v>
+      </c>
+      <c r="H90" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.6">
       <c r="B91" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E91" t="s">
         <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H91" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.6">
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H93" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.6">
+      <c r="B94" t="s">
+        <v>539</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>539</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H94" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.6">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.6">
+      <c r="B96" t="s">
+        <v>543</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>543</v>
+      </c>
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H96" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.6">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4" t="s">
+    <row r="98" spans="1:8" ht="15.6">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="C98" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F93" s="4" t="s">
+      <c r="E98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4" t="s">
+      <c r="G98" s="4"/>
+      <c r="H98" s="4" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.6">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.6">
-      <c r="B95" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" t="s">
-        <v>60</v>
-      </c>
-      <c r="E95" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" t="s">
-        <v>38</v>
-      </c>
-      <c r="H95" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.6">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.6">
-      <c r="B97" t="s">
-        <v>553</v>
-      </c>
-      <c r="C97" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" t="s">
-        <v>553</v>
-      </c>
-      <c r="E97" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97" t="s">
-        <v>38</v>
-      </c>
-      <c r="H97" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.6">
-      <c r="B98" t="s">
-        <v>557</v>
-      </c>
-      <c r="C98" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" t="s">
-        <v>557</v>
-      </c>
-      <c r="E98" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" t="s">
-        <v>38</v>
-      </c>
-      <c r="H98" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>559</v>
+        <v>60</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>560</v>
+        <v>61</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>23</v>
@@ -14883,315 +14868,313 @@
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.6">
+      <c r="B100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>60</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" t="s">
+        <v>38</v>
+      </c>
+      <c r="H100" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.6">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.6">
+      <c r="B102" t="s">
+        <v>553</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>553</v>
+      </c>
+      <c r="E102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.6">
+      <c r="B103" t="s">
+        <v>557</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>557</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.6">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="1:8" ht="15.6">
-      <c r="B101" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" t="s">
-        <v>72</v>
-      </c>
-      <c r="E101" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" t="s">
-        <v>73</v>
-      </c>
-      <c r="H101" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.6">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.6">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.6">
-      <c r="B105" t="s">
-        <v>569</v>
-      </c>
-      <c r="C105" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" t="s">
-        <v>569</v>
-      </c>
-      <c r="E105" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" t="s">
-        <v>43</v>
-      </c>
-      <c r="H105" t="s">
-        <v>570</v>
-      </c>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" ht="15.6">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4" t="s">
-        <v>572</v>
+      <c r="B106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>72</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" t="s">
+        <v>73</v>
+      </c>
+      <c r="H106" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>78</v>
+      <c r="F107" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.6">
-      <c r="B108" t="s">
-        <v>225</v>
-      </c>
-      <c r="C108" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" t="s">
-        <v>225</v>
-      </c>
-      <c r="E108" t="s">
-        <v>23</v>
-      </c>
-      <c r="F108" t="s">
-        <v>38</v>
-      </c>
-      <c r="H108" t="s">
-        <v>463</v>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>227</v>
+        <v>566</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>228</v>
+        <v>567</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4" t="s">
-        <v>463</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.6">
       <c r="B110" t="s">
-        <v>89</v>
+        <v>569</v>
       </c>
       <c r="C110" t="s">
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>89</v>
+        <v>569</v>
       </c>
       <c r="E110" t="s">
         <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="H110" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>310</v>
+        <v>569</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>311</v>
+        <v>571</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.6">
-      <c r="B112" t="s">
-        <v>310</v>
-      </c>
-      <c r="C112" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" t="s">
-        <v>310</v>
-      </c>
-      <c r="E112" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.6">
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>225</v>
+      </c>
+      <c r="E113" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" t="s">
         <v>38</v>
       </c>
-      <c r="H112" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.6">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3" t="s">
-        <v>579</v>
+      <c r="H113" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>580</v>
+        <v>227</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>581</v>
+        <v>228</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>23</v>
@@ -15201,373 +15184,377 @@
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4" t="s">
-        <v>582</v>
+        <v>463</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.6">
       <c r="B115" t="s">
-        <v>580</v>
+        <v>89</v>
       </c>
       <c r="C115" t="s">
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>580</v>
+        <v>89</v>
       </c>
       <c r="E115" t="s">
         <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="H115" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>180</v>
+        <v>311</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.6">
       <c r="B117" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="C117" t="s">
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="E117" t="s">
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H117" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.6">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>108</v>
+        <v>577</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>109</v>
+        <v>578</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.6">
-      <c r="B119" t="s">
-        <v>108</v>
-      </c>
-      <c r="C119" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" t="s">
-        <v>108</v>
-      </c>
-      <c r="E119" t="s">
-        <v>23</v>
-      </c>
-      <c r="F119" t="s">
-        <v>38</v>
-      </c>
-      <c r="H119" t="s">
-        <v>586</v>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.6">
       <c r="B120" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C120" t="s">
         <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="E120" t="s">
         <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H120" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.6">
-      <c r="B121" t="s">
-        <v>589</v>
-      </c>
-      <c r="C121" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121" t="s">
-        <v>589</v>
-      </c>
-      <c r="E121" t="s">
-        <v>23</v>
-      </c>
-      <c r="F121" t="s">
-        <v>27</v>
-      </c>
-      <c r="H121" t="s">
-        <v>590</v>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.6">
       <c r="B122" t="s">
-        <v>591</v>
+        <v>179</v>
       </c>
       <c r="C122" t="s">
         <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>591</v>
+        <v>179</v>
       </c>
       <c r="E122" t="s">
         <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="H122" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.6">
-      <c r="B123" t="s">
-        <v>593</v>
-      </c>
-      <c r="C123" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" t="s">
-        <v>593</v>
-      </c>
-      <c r="E123" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" t="s">
-        <v>30</v>
-      </c>
-      <c r="H123" t="s">
-        <v>594</v>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.6">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3" t="s">
-        <v>598</v>
+      <c r="B124" t="s">
+        <v>108</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" t="s">
+        <v>38</v>
+      </c>
+      <c r="H124" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.6">
-      <c r="A125" t="s">
-        <v>90</v>
+      <c r="B125" t="s">
+        <v>587</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" t="s">
+        <v>587</v>
+      </c>
+      <c r="E125" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" t="s">
+        <v>43</v>
+      </c>
+      <c r="H125" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.6">
       <c r="B126" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C126" t="s">
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="E126" t="s">
         <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>369</v>
+        <v>27</v>
       </c>
       <c r="H126" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.6">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4" t="s">
-        <v>602</v>
+      <c r="B127" t="s">
+        <v>591</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" t="s">
+        <v>591</v>
+      </c>
+      <c r="E127" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" t="s">
+        <v>282</v>
+      </c>
+      <c r="H127" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.6">
       <c r="B128" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="C128" t="s">
         <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E128" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F128" t="s">
         <v>30</v>
       </c>
       <c r="H128" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.6">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.6">
-      <c r="B130" t="s">
-        <v>607</v>
-      </c>
-      <c r="C130" t="s">
-        <v>18</v>
-      </c>
-      <c r="D130" t="s">
-        <v>607</v>
-      </c>
-      <c r="E130" t="s">
-        <v>20</v>
-      </c>
-      <c r="F130" t="s">
-        <v>30</v>
-      </c>
-      <c r="H130" t="s">
-        <v>608</v>
+      <c r="A130" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.6">
       <c r="B131" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C131" t="s">
         <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E131" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>369</v>
       </c>
       <c r="H131" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.6">
-      <c r="B132" t="s">
-        <v>611</v>
-      </c>
-      <c r="C132" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" t="s">
-        <v>611</v>
-      </c>
-      <c r="E132" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" t="s">
-        <v>30</v>
-      </c>
-      <c r="H132" t="s">
-        <v>612</v>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.6">
       <c r="B133" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C133" t="s">
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="E133" t="s">
         <v>20</v>
@@ -15576,310 +15563,308 @@
         <v>30</v>
       </c>
       <c r="H133" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.6">
-      <c r="B134" t="s">
-        <v>615</v>
-      </c>
-      <c r="C134" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" t="s">
-        <v>615</v>
-      </c>
-      <c r="E134" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" t="s">
-        <v>56</v>
-      </c>
-      <c r="H134" t="s">
-        <v>616</v>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.6">
       <c r="B135" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C135" t="s">
         <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F135" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="H135" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.6">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4" t="s">
-        <v>621</v>
+      <c r="B136" t="s">
+        <v>609</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" t="s">
+        <v>609</v>
+      </c>
+      <c r="E136" t="s">
+        <v>20</v>
+      </c>
+      <c r="F136" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.6">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4" t="s">
-        <v>624</v>
+      <c r="B137" t="s">
+        <v>611</v>
+      </c>
+      <c r="C137" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" t="s">
+        <v>611</v>
+      </c>
+      <c r="E137" t="s">
+        <v>20</v>
+      </c>
+      <c r="F137" t="s">
+        <v>30</v>
+      </c>
+      <c r="H137" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.6">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4" t="s">
-        <v>627</v>
+      <c r="B138" t="s">
+        <v>613</v>
+      </c>
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" t="s">
+        <v>613</v>
+      </c>
+      <c r="E138" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.6">
       <c r="B139" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="C139" t="s">
         <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F139" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H139" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.6">
       <c r="B140" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="E140" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F140" t="s">
-        <v>369</v>
+        <v>93</v>
       </c>
       <c r="H140" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.6">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3" t="s">
-        <v>635</v>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.6">
-      <c r="B142" t="s">
-        <v>636</v>
-      </c>
-      <c r="C142" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" t="s">
-        <v>636</v>
-      </c>
-      <c r="E142" t="s">
-        <v>23</v>
-      </c>
-      <c r="F142" t="s">
-        <v>637</v>
-      </c>
-      <c r="H142" t="s">
-        <v>638</v>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.6">
-      <c r="B143" t="s">
-        <v>639</v>
-      </c>
-      <c r="C143" t="s">
-        <v>18</v>
-      </c>
-      <c r="D143" t="s">
-        <v>639</v>
-      </c>
-      <c r="E143" t="s">
-        <v>20</v>
-      </c>
-      <c r="F143" t="s">
-        <v>30</v>
-      </c>
-      <c r="H143" t="s">
-        <v>640</v>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.6">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3" t="s">
-        <v>643</v>
+      <c r="B144" t="s">
+        <v>628</v>
+      </c>
+      <c r="C144" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" t="s">
+        <v>628</v>
+      </c>
+      <c r="E144" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.6">
       <c r="B145" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C145" t="s">
         <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E145" t="s">
         <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>56</v>
+        <v>369</v>
       </c>
       <c r="H145" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.6">
-      <c r="B146" t="s">
-        <v>645</v>
-      </c>
-      <c r="C146" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" t="s">
-        <v>645</v>
-      </c>
-      <c r="E146" t="s">
-        <v>23</v>
-      </c>
-      <c r="F146" t="s">
-        <v>38</v>
-      </c>
-      <c r="H146" t="s">
-        <v>646</v>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.6">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4" t="s">
-        <v>649</v>
+      <c r="B147" t="s">
+        <v>636</v>
+      </c>
+      <c r="C147" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" t="s">
+        <v>636</v>
+      </c>
+      <c r="E147" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" t="s">
+        <v>637</v>
+      </c>
+      <c r="H147" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.6">
       <c r="B148" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="C148" t="s">
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="E148" t="s">
         <v>20</v>
@@ -15888,362 +15873,466 @@
         <v>30</v>
       </c>
       <c r="H148" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.6">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>70</v>
+        <v>641</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>71</v>
+        <v>642</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
+      <c r="H149" s="3" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="15.6">
       <c r="B150" t="s">
-        <v>72</v>
+        <v>641</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
       </c>
       <c r="D150" t="s">
-        <v>72</v>
+        <v>641</v>
       </c>
       <c r="E150" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F150" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H150" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.6">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4" t="s">
-        <v>653</v>
+      <c r="B151" t="s">
+        <v>645</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" t="s">
+        <v>645</v>
+      </c>
+      <c r="E151" t="s">
+        <v>23</v>
+      </c>
+      <c r="F151" t="s">
+        <v>38</v>
+      </c>
+      <c r="H151" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.6">
-      <c r="B152" t="s">
-        <v>151</v>
-      </c>
-      <c r="C152" t="s">
-        <v>18</v>
-      </c>
-      <c r="D152" t="s">
-        <v>151</v>
-      </c>
-      <c r="E152" t="s">
-        <v>23</v>
-      </c>
-      <c r="F152" t="s">
-        <v>43</v>
-      </c>
-      <c r="H152" t="s">
-        <v>654</v>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.6">
       <c r="B153" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C153" t="s">
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E153" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H153" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.6">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4" t="s">
-        <v>658</v>
-      </c>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
     </row>
     <row r="155" spans="1:8" ht="15.6">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4" t="s">
-        <v>661</v>
+      <c r="B155" t="s">
+        <v>72</v>
+      </c>
+      <c r="C155" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" t="s">
+        <v>72</v>
+      </c>
+      <c r="E155" t="s">
+        <v>23</v>
+      </c>
+      <c r="F155" t="s">
+        <v>73</v>
+      </c>
+      <c r="H155" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.6">
       <c r="A156" s="4"/>
       <c r="B156" s="4" t="s">
-        <v>662</v>
+        <v>72</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>663</v>
+        <v>73</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.6">
+      <c r="B157" t="s">
+        <v>151</v>
+      </c>
+      <c r="C157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" t="s">
+        <v>151</v>
+      </c>
+      <c r="E157" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" t="s">
+        <v>43</v>
+      </c>
+      <c r="H157" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15.6">
+      <c r="B158" t="s">
+        <v>655</v>
+      </c>
+      <c r="C158" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" t="s">
+        <v>655</v>
+      </c>
+      <c r="E158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" t="s">
+        <v>38</v>
+      </c>
+      <c r="H158" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15.6">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15.6">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15.6">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15.6">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4" t="s">
+    <row r="162" spans="1:8" ht="15.6">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D157" s="4" t="s">
+      <c r="C162" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F157" s="4" t="s">
+      <c r="E162" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F162" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4" t="s">
+      <c r="G162" s="4"/>
+      <c r="H162" s="4" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.6">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3" t="s">
+    <row r="163" spans="1:8" ht="15.6">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D158" s="3" t="s">
+      <c r="C163" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F158" s="3" t="s">
+      <c r="E163" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F163" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3" t="s">
+      <c r="G163" s="3"/>
+      <c r="H163" s="3" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15.6">
-      <c r="B159" t="s">
+    <row r="164" spans="1:8" ht="15.6">
+      <c r="B164" t="s">
         <v>266</v>
       </c>
-      <c r="C159" t="s">
-        <v>18</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" t="s">
         <v>266</v>
       </c>
-      <c r="E159" t="s">
-        <v>20</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="E164" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164" t="s">
         <v>30</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H164" t="s">
         <v>671</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="15.6">
-      <c r="B160" t="s">
-        <v>672</v>
-      </c>
-      <c r="C160" t="s">
-        <v>18</v>
-      </c>
-      <c r="D160" t="s">
-        <v>672</v>
-      </c>
-      <c r="E160" t="s">
-        <v>23</v>
-      </c>
-      <c r="F160" t="s">
-        <v>38</v>
-      </c>
-      <c r="H160" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="15.6">
-      <c r="B161" t="s">
-        <v>674</v>
-      </c>
-      <c r="C161" t="s">
-        <v>18</v>
-      </c>
-      <c r="D161" t="s">
-        <v>674</v>
-      </c>
-      <c r="E161" t="s">
-        <v>23</v>
-      </c>
-      <c r="F161" t="s">
-        <v>637</v>
-      </c>
-      <c r="H161" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="15.6">
-      <c r="B162" t="s">
-        <v>676</v>
-      </c>
-      <c r="C162" t="s">
-        <v>18</v>
-      </c>
-      <c r="D162" t="s">
-        <v>676</v>
-      </c>
-      <c r="E162" t="s">
-        <v>23</v>
-      </c>
-      <c r="F162" t="s">
-        <v>30</v>
-      </c>
-      <c r="H162" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="15.6">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="15.6">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.6">
       <c r="B165" t="s">
+        <v>672</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" t="s">
+        <v>672</v>
+      </c>
+      <c r="E165" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" t="s">
+        <v>38</v>
+      </c>
+      <c r="H165" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15.6">
+      <c r="B166" t="s">
+        <v>674</v>
+      </c>
+      <c r="C166" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" t="s">
+        <v>674</v>
+      </c>
+      <c r="E166" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" t="s">
+        <v>637</v>
+      </c>
+      <c r="H166" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15.6">
+      <c r="B167" t="s">
+        <v>676</v>
+      </c>
+      <c r="C167" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" t="s">
+        <v>676</v>
+      </c>
+      <c r="E167" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15.6">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15.6">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="C165" t="s">
-        <v>18</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="C169" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15.6">
+      <c r="B170" t="s">
         <v>682</v>
       </c>
-      <c r="E165" t="s">
-        <v>23</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" t="s">
+        <v>682</v>
+      </c>
+      <c r="E170" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" t="s">
         <v>637</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H170" t="s">
         <v>685</v>
       </c>
     </row>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -7690,24 +7690,24 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3" t="s">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D145" s="3" t="s">
+      <c r="C145" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F145" s="3" t="s">
+      <c r="E145" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F145" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3" t="s">
+      <c r="G145" s="4"/>
+      <c r="H145" s="4" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7722,7 +7722,7 @@
         <v>288</v>
       </c>
       <c r="E146" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F146" t="s">
         <v>33</v>
@@ -7732,24 +7732,24 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3" t="s">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D147" s="3" t="s">
+      <c r="C147" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F147" s="3" t="s">
+      <c r="E147" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3" t="s">
+      <c r="G147" s="4"/>
+      <c r="H147" s="4" t="s">
         <v>291</v>
       </c>
     </row>
@@ -7764,7 +7764,7 @@
         <v>148</v>
       </c>
       <c r="E148" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F148" t="s">
         <v>33</v>
@@ -12603,7 +12603,7 @@
         <v>163</v>
       </c>
       <c r="E382" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F382" t="s">
         <v>47</v>
@@ -14220,24 +14220,24 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="E72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4" t="s">
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
         <v>523</v>
       </c>
     </row>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -7690,24 +7690,24 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4" t="s">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D145" s="4" t="s">
+      <c r="C145" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F145" s="4" t="s">
+      <c r="E145" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4" t="s">
+      <c r="G145" s="3"/>
+      <c r="H145" s="3" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7722,7 +7722,7 @@
         <v>288</v>
       </c>
       <c r="E146" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F146" t="s">
         <v>33</v>
@@ -7732,24 +7732,24 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4" t="s">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D147" s="4" t="s">
+      <c r="C147" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F147" s="4" t="s">
+      <c r="E147" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4" t="s">
+      <c r="G147" s="3"/>
+      <c r="H147" s="3" t="s">
         <v>291</v>
       </c>
     </row>
@@ -7764,7 +7764,7 @@
         <v>148</v>
       </c>
       <c r="E148" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F148" t="s">
         <v>33</v>

--- a/src/conf/xlsx/column-and-parameter-descriptions.xlsx
+++ b/src/conf/xlsx/column-and-parameter-descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xieh3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5590E9D6-E506-4B18-BE07-81D4A160BE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECF0EDA-6135-4483-9E75-46F6A0A0620D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources on LForms server" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9926" uniqueCount="1603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9929" uniqueCount="1604">
   <si>
     <t>Legend</t>
   </si>
@@ -4831,6 +4831,9 @@
   </si>
   <si>
     <t>Variable Name</t>
+  </si>
+  <si>
+    <t>codeText</t>
   </si>
 </sst>
 </file>
@@ -5220,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H395"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="D297" sqref="D297"/>
+    <sheetView topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11176,7 +11179,7 @@
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="3"/>
       <c r="B297" s="3" t="s">
-        <v>62</v>
+        <v>1603</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>36</v>
@@ -11190,7 +11193,9 @@
       <c r="F297" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G297" s="3"/>
+      <c r="G297" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H297" s="3" t="s">
         <v>523</v>
       </c>
@@ -13221,8 +13226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14552,7 +14557,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>62</v>
+        <v>1603</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>36</v>
@@ -14566,7 +14571,9 @@
       <c r="F72" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G72" s="3"/>
+      <c r="G72" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H72" s="3" t="s">
         <v>523</v>
       </c>
@@ -16597,8 +16604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A833" workbookViewId="0">
-      <selection activeCell="D853" sqref="D853"/>
+    <sheetView topLeftCell="A837" workbookViewId="0">
+      <selection activeCell="B853" sqref="B853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -33113,7 +33120,7 @@
     </row>
     <row r="853" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B853" t="s">
-        <v>62</v>
+        <v>1603</v>
       </c>
       <c r="C853" t="s">
         <v>36</v>
@@ -33126,6 +33133,9 @@
       </c>
       <c r="F853" t="s">
         <v>47</v>
+      </c>
+      <c r="G853" t="s">
+        <v>62</v>
       </c>
       <c r="H853" t="s">
         <v>523</v>
